--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.919217166873307</v>
+        <v>0.9192171668733068</v>
       </c>
       <c r="D2">
-        <v>1.013326441408767</v>
+        <v>1.013326441408768</v>
       </c>
       <c r="E2">
-        <v>0.9377255983837534</v>
+        <v>0.9377255983837532</v>
       </c>
       <c r="F2">
-        <v>0.946378057551864</v>
+        <v>0.9463780575518642</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.043279260965947</v>
       </c>
       <c r="J2">
-        <v>0.9441152119550519</v>
+        <v>0.9441152119550517</v>
       </c>
       <c r="K2">
         <v>1.024603187999281</v>
       </c>
       <c r="L2">
-        <v>0.9501265497405894</v>
+        <v>0.9501265497405892</v>
       </c>
       <c r="M2">
-        <v>0.9586386759384045</v>
+        <v>0.9586386759384048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9330495565961452</v>
+        <v>0.9330495565961425</v>
       </c>
       <c r="D3">
-        <v>1.018261225874216</v>
+        <v>1.018261225874215</v>
       </c>
       <c r="E3">
-        <v>0.9495063154818396</v>
+        <v>0.9495063154818372</v>
       </c>
       <c r="F3">
-        <v>0.9587915161101713</v>
+        <v>0.9587915161101693</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.045285891799418</v>
       </c>
       <c r="J3">
-        <v>0.955548101767611</v>
+        <v>0.9555481017676085</v>
       </c>
       <c r="K3">
         <v>1.028665663337287</v>
       </c>
       <c r="L3">
-        <v>0.9608288144258178</v>
+        <v>0.9608288144258156</v>
       </c>
       <c r="M3">
-        <v>0.9699803099225784</v>
+        <v>0.9699803099225766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9415089952294635</v>
+        <v>0.9415089952294629</v>
       </c>
       <c r="D4">
         <v>1.02130061669952</v>
       </c>
       <c r="E4">
-        <v>0.9567223131652198</v>
+        <v>0.9567223131652191</v>
       </c>
       <c r="F4">
-        <v>0.9663945993482594</v>
+        <v>0.9663945993482587</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046498489356456</v>
       </c>
       <c r="J4">
-        <v>0.9625372418474539</v>
+        <v>0.9625372418474533</v>
       </c>
       <c r="K4">
-        <v>1.031148583487219</v>
+        <v>1.031148583487218</v>
       </c>
       <c r="L4">
-        <v>0.9673727364625242</v>
+        <v>0.9673727364625236</v>
       </c>
       <c r="M4">
-        <v>0.9769162781513391</v>
+        <v>0.9769162781513385</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.944960102154309</v>
+        <v>0.9449601021543078</v>
       </c>
       <c r="D5">
         <v>1.022544241245466</v>
       </c>
       <c r="E5">
-        <v>0.9596684244561602</v>
+        <v>0.9596684244561594</v>
       </c>
       <c r="F5">
-        <v>0.9694980706154551</v>
+        <v>0.9694980706154539</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046989029610738</v>
       </c>
       <c r="J5">
-        <v>0.9653875751233899</v>
+        <v>0.9653875751233887</v>
       </c>
       <c r="K5">
         <v>1.032160007497179</v>
       </c>
       <c r="L5">
-        <v>0.9700417481397502</v>
+        <v>0.9700417481397492</v>
       </c>
       <c r="M5">
-        <v>0.9797448742676089</v>
+        <v>0.9797448742676078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9455337054039549</v>
+        <v>0.9455337054039555</v>
       </c>
       <c r="D6">
-        <v>1.022751119482514</v>
+        <v>1.022751119482513</v>
       </c>
       <c r="E6">
-        <v>0.9601582159687443</v>
+        <v>0.9601582159687452</v>
       </c>
       <c r="F6">
-        <v>0.9700139685277934</v>
+        <v>0.970013968527794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047070299746245</v>
+        <v>1.047070299746246</v>
       </c>
       <c r="J6">
-        <v>0.9658612616233673</v>
+        <v>0.9658612616233681</v>
       </c>
       <c r="K6">
         <v>1.032327995723472</v>
       </c>
       <c r="L6">
-        <v>0.9704853136569295</v>
+        <v>0.9704853136569301</v>
       </c>
       <c r="M6">
-        <v>0.980214927231048</v>
+        <v>0.9802149272310484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9415555079268365</v>
+        <v>0.9415555079268358</v>
       </c>
       <c r="D7">
-        <v>1.021317364979375</v>
+        <v>1.021317364979374</v>
       </c>
       <c r="E7">
-        <v>0.9567620111876748</v>
+        <v>0.9567620111876743</v>
       </c>
       <c r="F7">
-        <v>0.9664364211319046</v>
+        <v>0.966436421131904</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046505117983634</v>
       </c>
       <c r="J7">
-        <v>0.9625756616591769</v>
+        <v>0.9625756616591762</v>
       </c>
       <c r="K7">
         <v>1.0311622224645</v>
       </c>
       <c r="L7">
-        <v>0.9674087113538505</v>
+        <v>0.9674087113538499</v>
       </c>
       <c r="M7">
-        <v>0.9769544060085179</v>
+        <v>0.976954406008517</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.924001712311892</v>
+        <v>0.9240017123118932</v>
       </c>
       <c r="D8">
-        <v>1.015027760795681</v>
+        <v>1.015027760795682</v>
       </c>
       <c r="E8">
-        <v>0.9417977582443935</v>
+        <v>0.941797758244394</v>
       </c>
       <c r="F8">
-        <v>0.9506686563153155</v>
+        <v>0.9506686563153165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043976043336356</v>
+        <v>1.043976043336357</v>
       </c>
       <c r="J8">
-        <v>0.9480702097145148</v>
+        <v>0.9480702097145157</v>
       </c>
       <c r="K8">
         <v>1.026007947558321</v>
       </c>
       <c r="L8">
-        <v>0.9538284302285047</v>
+        <v>0.9538284302285054</v>
       </c>
       <c r="M8">
-        <v>0.9625610823807237</v>
+        <v>0.9625610823807246</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8886016074672086</v>
+        <v>0.8886016074672077</v>
       </c>
       <c r="D9">
         <v>1.002617601371764</v>
       </c>
       <c r="E9">
-        <v>0.9117448930331247</v>
+        <v>0.9117448930331237</v>
       </c>
       <c r="F9">
-        <v>0.919032512923064</v>
+        <v>0.9190325129230632</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038788515408956</v>
       </c>
       <c r="J9">
-        <v>0.9188101751186968</v>
+        <v>0.9188101751186958</v>
       </c>
       <c r="K9">
-        <v>1.015668352100651</v>
+        <v>1.01566835210065</v>
       </c>
       <c r="L9">
-        <v>0.9264529023474679</v>
+        <v>0.9264529023474669</v>
       </c>
       <c r="M9">
-        <v>0.9335916945157402</v>
+        <v>0.9335916945157392</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8606355485035369</v>
+        <v>0.8606355485035385</v>
       </c>
       <c r="D10">
-        <v>0.9931731700394645</v>
+        <v>0.9931731700394651</v>
       </c>
       <c r="E10">
-        <v>0.8881460014588746</v>
+        <v>0.8881460014588759</v>
       </c>
       <c r="F10">
-        <v>0.8942788381909283</v>
+        <v>0.89427883819093</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034701033534808</v>
       </c>
       <c r="J10">
-        <v>0.8957239131721296</v>
+        <v>0.8957239131721312</v>
       </c>
       <c r="K10">
-        <v>1.007666788785246</v>
+        <v>1.007666788785247</v>
       </c>
       <c r="L10">
-        <v>0.9048782700947363</v>
+        <v>0.9048782700947379</v>
       </c>
       <c r="M10">
-        <v>0.9108609307492831</v>
+        <v>0.9108609307492848</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8470074433097188</v>
+        <v>0.8470074433097187</v>
       </c>
       <c r="D11">
-        <v>0.9887110721468287</v>
+        <v>0.9887110721468289</v>
       </c>
       <c r="E11">
-        <v>0.8766995241056189</v>
+        <v>0.8766995241056192</v>
       </c>
       <c r="F11">
-        <v>0.8823162894769074</v>
+        <v>0.882316289476908</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.003849068142762</v>
       </c>
       <c r="L11">
-        <v>0.8943927797638964</v>
+        <v>0.8943927797638965</v>
       </c>
       <c r="M11">
-        <v>0.8998604195045663</v>
+        <v>0.8998604195045667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.8416532398268255</v>
       </c>
       <c r="D12">
-        <v>0.9869855247885554</v>
+        <v>0.9869855247885553</v>
       </c>
       <c r="E12">
         <v>0.8722129202758041</v>
       </c>
       <c r="F12">
-        <v>0.8776368803189027</v>
+        <v>0.8776368803189024</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031969096153461</v>
       </c>
       <c r="J12">
-        <v>0.8800849600237817</v>
+        <v>0.8800849600237814</v>
       </c>
       <c r="K12">
         <v>1.002366382475531</v>
       </c>
       <c r="L12">
-        <v>0.890279451856734</v>
+        <v>0.8902794518567337</v>
       </c>
       <c r="M12">
-        <v>0.8955549278093438</v>
+        <v>0.8955549278093436</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8428162983967677</v>
+        <v>0.8428162983967667</v>
       </c>
       <c r="D13">
-        <v>0.9873589942847755</v>
+        <v>0.9873589942847764</v>
       </c>
       <c r="E13">
-        <v>0.8731869961641754</v>
+        <v>0.8731869961641747</v>
       </c>
       <c r="F13">
-        <v>0.8786523332627869</v>
+        <v>0.8786523332627867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032135097879399</v>
+        <v>1.0321350978794</v>
       </c>
       <c r="J13">
-        <v>0.8810422440483313</v>
+        <v>0.8810422440483308</v>
       </c>
       <c r="K13">
-        <v>1.002687587223985</v>
+        <v>1.002687587223986</v>
       </c>
       <c r="L13">
-        <v>0.8911726442226517</v>
+        <v>0.891172644222651</v>
       </c>
       <c r="M13">
-        <v>0.896489348509203</v>
+        <v>0.8964893485092029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8465712949662669</v>
+        <v>0.8465712949662663</v>
       </c>
       <c r="D14">
-        <v>0.9885699159251411</v>
+        <v>0.9885699159251402</v>
       </c>
       <c r="E14">
-        <v>0.876333822512626</v>
+        <v>0.8763338225126254</v>
       </c>
       <c r="F14">
-        <v>0.881934662554984</v>
+        <v>0.8819346625549829</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032672377648754</v>
+        <v>1.032672377648753</v>
       </c>
       <c r="J14">
-        <v>0.8841337647958381</v>
+        <v>0.8841337647958373</v>
       </c>
       <c r="K14">
-        <v>1.003727911359112</v>
+        <v>1.003727911359111</v>
       </c>
       <c r="L14">
-        <v>0.8940575735953658</v>
+        <v>0.8940575735953653</v>
       </c>
       <c r="M14">
-        <v>0.8995093359903205</v>
+        <v>0.8995093359903197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8488437711282495</v>
+        <v>0.8488437711282504</v>
       </c>
       <c r="D15">
-        <v>0.9893065296817384</v>
+        <v>0.9893065296817386</v>
       </c>
       <c r="E15">
-        <v>0.8782396838794503</v>
+        <v>0.8782396838794511</v>
       </c>
       <c r="F15">
-        <v>0.8839239178337209</v>
+        <v>0.8839239178337213</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032998485429054</v>
       </c>
       <c r="J15">
-        <v>0.886005344802404</v>
+        <v>0.8860053448024047</v>
       </c>
       <c r="K15">
         <v>1.004359899766433</v>
       </c>
       <c r="L15">
-        <v>0.8958043697331761</v>
+        <v>0.895804369733177</v>
       </c>
       <c r="M15">
-        <v>0.9013392849199754</v>
+        <v>0.9013392849199757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8615031400906779</v>
+        <v>0.8615031400906786</v>
       </c>
       <c r="D16">
-        <v>0.9934605226659817</v>
+        <v>0.9934605226659825</v>
       </c>
       <c r="E16">
-        <v>0.8888759556655579</v>
+        <v>0.8888759556655589</v>
       </c>
       <c r="F16">
-        <v>0.8950427969046219</v>
+        <v>0.8950427969046232</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034826922013759</v>
       </c>
       <c r="J16">
-        <v>0.8964393970798046</v>
+        <v>0.8964393970798056</v>
       </c>
       <c r="K16">
         <v>1.007911833573536</v>
       </c>
       <c r="L16">
-        <v>0.9055465034216025</v>
+        <v>0.9055465034216034</v>
       </c>
       <c r="M16">
-        <v>0.9115631344124587</v>
+        <v>0.9115631344124601</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8690000256081005</v>
+        <v>0.8690000256081021</v>
       </c>
       <c r="D17">
-        <v>0.9959592497697978</v>
+        <v>0.9959592497697988</v>
       </c>
       <c r="E17">
-        <v>0.895189482896069</v>
+        <v>0.8951894828960704</v>
       </c>
       <c r="F17">
-        <v>0.9016554379648622</v>
+        <v>0.901655437964864</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035917743419031</v>
+        <v>1.035917743419032</v>
       </c>
       <c r="J17">
-        <v>0.9026241067715177</v>
+        <v>0.9026241067715192</v>
       </c>
       <c r="K17">
-        <v>1.010038500866233</v>
+        <v>1.010038500866234</v>
       </c>
       <c r="L17">
-        <v>0.9113239104516924</v>
+        <v>0.9113239104516937</v>
       </c>
       <c r="M17">
-        <v>0.9176395453568844</v>
+        <v>0.917639545356886</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,10 +1032,10 @@
         <v>0.8732316761520191</v>
       </c>
       <c r="D18">
-        <v>0.9973817726294036</v>
+        <v>0.9973817726294031</v>
       </c>
       <c r="E18">
-        <v>0.8987577921788936</v>
+        <v>0.8987577921788937</v>
       </c>
       <c r="F18">
         <v>0.9053965500245362</v>
@@ -1044,19 +1044,19 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036535569984451</v>
+        <v>1.03653556998445</v>
       </c>
       <c r="J18">
-        <v>0.9061166940066883</v>
+        <v>0.9061166940066884</v>
       </c>
       <c r="K18">
-        <v>1.011245853651782</v>
+        <v>1.011245853651781</v>
       </c>
       <c r="L18">
-        <v>0.9145873560795598</v>
+        <v>0.91458735607956</v>
       </c>
       <c r="M18">
-        <v>0.9210758877108494</v>
+        <v>0.9210758877108491</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8746521547933661</v>
+        <v>0.8746521547933678</v>
       </c>
       <c r="D19">
-        <v>0.9978611866226376</v>
+        <v>0.9978611866226378</v>
       </c>
       <c r="E19">
-        <v>0.8999563273512201</v>
+        <v>0.8999563273512213</v>
       </c>
       <c r="F19">
-        <v>0.9066536968600435</v>
+        <v>0.9066536968600444</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03674325410649</v>
+        <v>1.036743254106491</v>
       </c>
       <c r="J19">
-        <v>0.9072893202054538</v>
+        <v>0.9072893202054554</v>
       </c>
       <c r="K19">
         <v>1.011652198909349</v>
       </c>
       <c r="L19">
-        <v>0.9156831836875169</v>
+        <v>0.9156831836875181</v>
       </c>
       <c r="M19">
-        <v>0.9222303852499969</v>
+        <v>0.9222303852499979</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682106603323659</v>
+        <v>0.8682106603323627</v>
       </c>
       <c r="D20">
-        <v>0.9956948473677737</v>
+        <v>0.9956948473677735</v>
       </c>
       <c r="E20">
-        <v>0.8945242195641793</v>
+        <v>0.8945242195641762</v>
       </c>
       <c r="F20">
-        <v>0.9009582479521622</v>
+        <v>0.9009582479521595</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035802651293571</v>
       </c>
       <c r="J20">
-        <v>0.9019727272330605</v>
+        <v>0.9019727272330575</v>
       </c>
       <c r="K20">
         <v>1.009813822480266</v>
       </c>
       <c r="L20">
-        <v>0.9107153345453258</v>
+        <v>0.9107153345453228</v>
       </c>
       <c r="M20">
-        <v>0.9169990380868308</v>
+        <v>0.9169990380868285</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,25 +1143,25 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8454742632507039</v>
+        <v>0.845474263250704</v>
       </c>
       <c r="D21">
-        <v>0.9882153330998873</v>
+        <v>0.9882153330998864</v>
       </c>
       <c r="E21">
-        <v>0.8754141603415507</v>
+        <v>0.8754141603415506</v>
       </c>
       <c r="F21">
-        <v>0.8809751140077351</v>
+        <v>0.8809751140077345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032515203457839</v>
+        <v>1.032515203457838</v>
       </c>
       <c r="J21">
-        <v>0.8832304328526864</v>
+        <v>0.8832304328526865</v>
       </c>
       <c r="K21">
         <v>1.003423462817597</v>
@@ -1170,7 +1170,7 @@
         <v>0.8932145458381749</v>
       </c>
       <c r="M21">
-        <v>0.8986265460238846</v>
+        <v>0.898626546023884</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8294322187887212</v>
+        <v>0.8294322187887209</v>
       </c>
       <c r="D22">
-        <v>0.9831081258689582</v>
+        <v>0.983108125868958</v>
       </c>
       <c r="E22">
-        <v>0.8619956791768141</v>
+        <v>0.8619956791768135</v>
       </c>
       <c r="F22">
-        <v>0.8670026963582631</v>
+        <v>0.8670026963582629</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030237633134798</v>
       </c>
       <c r="J22">
-        <v>0.870034506254131</v>
+        <v>0.8700345062541308</v>
       </c>
       <c r="K22">
-        <v>0.9990218091011741</v>
+        <v>0.999021809101174</v>
       </c>
       <c r="L22">
-        <v>0.8809054954180801</v>
+        <v>0.8809054954180796</v>
       </c>
       <c r="M22">
-        <v>0.8857658472330385</v>
+        <v>0.8857658472330383</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381318943027988</v>
+        <v>0.8381318943027986</v>
       </c>
       <c r="D23">
-        <v>0.9858594530401774</v>
+        <v>0.9858594530401775</v>
       </c>
       <c r="E23">
-        <v>0.8692655377238672</v>
+        <v>0.8692655377238671</v>
       </c>
       <c r="F23">
-        <v>0.8745659761344334</v>
+        <v>0.8745659761344331</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0.8875762843215339</v>
       </c>
       <c r="M23">
-        <v>0.8927287177140439</v>
+        <v>0.8927287177140437</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8685677722748781</v>
+        <v>0.8685677722748796</v>
       </c>
       <c r="D24">
-        <v>0.9958144265615794</v>
+        <v>0.9958144265615798</v>
       </c>
       <c r="E24">
-        <v>0.8948251730195649</v>
+        <v>0.8948251730195663</v>
       </c>
       <c r="F24">
-        <v>0.9012736329319863</v>
+        <v>0.9012736329319878</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035854713005002</v>
       </c>
       <c r="J24">
-        <v>0.9022674089779209</v>
+        <v>0.9022674089779221</v>
       </c>
       <c r="K24">
-        <v>1.00991544643618</v>
+        <v>1.009915446436181</v>
       </c>
       <c r="L24">
-        <v>0.9109906493999929</v>
+        <v>0.9109906493999943</v>
       </c>
       <c r="M24">
-        <v>0.9172887860945054</v>
+        <v>0.9172887860945067</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8983991271796304</v>
+        <v>0.8983991271796309</v>
       </c>
       <c r="D25">
         <v>1.006007434836145</v>
       </c>
       <c r="E25">
-        <v>0.9200439060280301</v>
+        <v>0.9200439060280305</v>
       </c>
       <c r="F25">
-        <v>0.9277598470480374</v>
+        <v>0.9277598470480376</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040228194949844</v>
       </c>
       <c r="J25">
-        <v>0.9269064534531926</v>
+        <v>0.9269064534531929</v>
       </c>
       <c r="K25">
         <v>1.018513203464038</v>
       </c>
       <c r="L25">
-        <v>0.9340247120690496</v>
+        <v>0.9340247120690499</v>
       </c>
       <c r="M25">
-        <v>0.9415936676737198</v>
+        <v>0.9415936676737202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9192171668733068</v>
+        <v>0.919217166873307</v>
       </c>
       <c r="D2">
-        <v>1.013326441408768</v>
+        <v>1.013326441408767</v>
       </c>
       <c r="E2">
-        <v>0.9377255983837532</v>
+        <v>0.9377255983837534</v>
       </c>
       <c r="F2">
-        <v>0.9463780575518642</v>
+        <v>0.946378057551864</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.043279260965947</v>
       </c>
       <c r="J2">
-        <v>0.9441152119550517</v>
+        <v>0.9441152119550519</v>
       </c>
       <c r="K2">
         <v>1.024603187999281</v>
       </c>
       <c r="L2">
-        <v>0.9501265497405892</v>
+        <v>0.9501265497405894</v>
       </c>
       <c r="M2">
-        <v>0.9586386759384048</v>
+        <v>0.9586386759384045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9330495565961425</v>
+        <v>0.9330495565961452</v>
       </c>
       <c r="D3">
-        <v>1.018261225874215</v>
+        <v>1.018261225874216</v>
       </c>
       <c r="E3">
-        <v>0.9495063154818372</v>
+        <v>0.9495063154818396</v>
       </c>
       <c r="F3">
-        <v>0.9587915161101693</v>
+        <v>0.9587915161101713</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.045285891799418</v>
       </c>
       <c r="J3">
-        <v>0.9555481017676085</v>
+        <v>0.955548101767611</v>
       </c>
       <c r="K3">
         <v>1.028665663337287</v>
       </c>
       <c r="L3">
-        <v>0.9608288144258156</v>
+        <v>0.9608288144258178</v>
       </c>
       <c r="M3">
-        <v>0.9699803099225766</v>
+        <v>0.9699803099225784</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9415089952294629</v>
+        <v>0.9415089952294635</v>
       </c>
       <c r="D4">
         <v>1.02130061669952</v>
       </c>
       <c r="E4">
-        <v>0.9567223131652191</v>
+        <v>0.9567223131652198</v>
       </c>
       <c r="F4">
-        <v>0.9663945993482587</v>
+        <v>0.9663945993482594</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046498489356456</v>
       </c>
       <c r="J4">
-        <v>0.9625372418474533</v>
+        <v>0.9625372418474539</v>
       </c>
       <c r="K4">
-        <v>1.031148583487218</v>
+        <v>1.031148583487219</v>
       </c>
       <c r="L4">
-        <v>0.9673727364625236</v>
+        <v>0.9673727364625242</v>
       </c>
       <c r="M4">
-        <v>0.9769162781513385</v>
+        <v>0.9769162781513391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9449601021543078</v>
+        <v>0.944960102154309</v>
       </c>
       <c r="D5">
         <v>1.022544241245466</v>
       </c>
       <c r="E5">
-        <v>0.9596684244561594</v>
+        <v>0.9596684244561602</v>
       </c>
       <c r="F5">
-        <v>0.9694980706154539</v>
+        <v>0.9694980706154551</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046989029610738</v>
       </c>
       <c r="J5">
-        <v>0.9653875751233887</v>
+        <v>0.9653875751233899</v>
       </c>
       <c r="K5">
         <v>1.032160007497179</v>
       </c>
       <c r="L5">
-        <v>0.9700417481397492</v>
+        <v>0.9700417481397502</v>
       </c>
       <c r="M5">
-        <v>0.9797448742676078</v>
+        <v>0.9797448742676089</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9455337054039555</v>
+        <v>0.9455337054039549</v>
       </c>
       <c r="D6">
-        <v>1.022751119482513</v>
+        <v>1.022751119482514</v>
       </c>
       <c r="E6">
-        <v>0.9601582159687452</v>
+        <v>0.9601582159687443</v>
       </c>
       <c r="F6">
-        <v>0.970013968527794</v>
+        <v>0.9700139685277934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047070299746246</v>
+        <v>1.047070299746245</v>
       </c>
       <c r="J6">
-        <v>0.9658612616233681</v>
+        <v>0.9658612616233673</v>
       </c>
       <c r="K6">
         <v>1.032327995723472</v>
       </c>
       <c r="L6">
-        <v>0.9704853136569301</v>
+        <v>0.9704853136569295</v>
       </c>
       <c r="M6">
-        <v>0.9802149272310484</v>
+        <v>0.980214927231048</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9415555079268358</v>
+        <v>0.9415555079268365</v>
       </c>
       <c r="D7">
-        <v>1.021317364979374</v>
+        <v>1.021317364979375</v>
       </c>
       <c r="E7">
-        <v>0.9567620111876743</v>
+        <v>0.9567620111876748</v>
       </c>
       <c r="F7">
-        <v>0.966436421131904</v>
+        <v>0.9664364211319046</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046505117983634</v>
       </c>
       <c r="J7">
-        <v>0.9625756616591762</v>
+        <v>0.9625756616591769</v>
       </c>
       <c r="K7">
         <v>1.0311622224645</v>
       </c>
       <c r="L7">
-        <v>0.9674087113538499</v>
+        <v>0.9674087113538505</v>
       </c>
       <c r="M7">
-        <v>0.976954406008517</v>
+        <v>0.9769544060085179</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9240017123118932</v>
+        <v>0.924001712311892</v>
       </c>
       <c r="D8">
-        <v>1.015027760795682</v>
+        <v>1.015027760795681</v>
       </c>
       <c r="E8">
-        <v>0.941797758244394</v>
+        <v>0.9417977582443935</v>
       </c>
       <c r="F8">
-        <v>0.9506686563153165</v>
+        <v>0.9506686563153155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043976043336357</v>
+        <v>1.043976043336356</v>
       </c>
       <c r="J8">
-        <v>0.9480702097145157</v>
+        <v>0.9480702097145148</v>
       </c>
       <c r="K8">
         <v>1.026007947558321</v>
       </c>
       <c r="L8">
-        <v>0.9538284302285054</v>
+        <v>0.9538284302285047</v>
       </c>
       <c r="M8">
-        <v>0.9625610823807246</v>
+        <v>0.9625610823807237</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8886016074672077</v>
+        <v>0.8886016074672086</v>
       </c>
       <c r="D9">
         <v>1.002617601371764</v>
       </c>
       <c r="E9">
-        <v>0.9117448930331237</v>
+        <v>0.9117448930331247</v>
       </c>
       <c r="F9">
-        <v>0.9190325129230632</v>
+        <v>0.919032512923064</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038788515408956</v>
       </c>
       <c r="J9">
-        <v>0.9188101751186958</v>
+        <v>0.9188101751186968</v>
       </c>
       <c r="K9">
-        <v>1.01566835210065</v>
+        <v>1.015668352100651</v>
       </c>
       <c r="L9">
-        <v>0.9264529023474669</v>
+        <v>0.9264529023474679</v>
       </c>
       <c r="M9">
-        <v>0.9335916945157392</v>
+        <v>0.9335916945157402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8606355485035385</v>
+        <v>0.8606355485035369</v>
       </c>
       <c r="D10">
-        <v>0.9931731700394651</v>
+        <v>0.9931731700394645</v>
       </c>
       <c r="E10">
-        <v>0.8881460014588759</v>
+        <v>0.8881460014588746</v>
       </c>
       <c r="F10">
-        <v>0.89427883819093</v>
+        <v>0.8942788381909283</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034701033534808</v>
       </c>
       <c r="J10">
-        <v>0.8957239131721312</v>
+        <v>0.8957239131721296</v>
       </c>
       <c r="K10">
-        <v>1.007666788785247</v>
+        <v>1.007666788785246</v>
       </c>
       <c r="L10">
-        <v>0.9048782700947379</v>
+        <v>0.9048782700947363</v>
       </c>
       <c r="M10">
-        <v>0.9108609307492848</v>
+        <v>0.9108609307492831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8470074433097187</v>
+        <v>0.8470074433097188</v>
       </c>
       <c r="D11">
-        <v>0.9887110721468289</v>
+        <v>0.9887110721468287</v>
       </c>
       <c r="E11">
-        <v>0.8766995241056192</v>
+        <v>0.8766995241056189</v>
       </c>
       <c r="F11">
-        <v>0.882316289476908</v>
+        <v>0.8823162894769074</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.003849068142762</v>
       </c>
       <c r="L11">
-        <v>0.8943927797638965</v>
+        <v>0.8943927797638964</v>
       </c>
       <c r="M11">
-        <v>0.8998604195045667</v>
+        <v>0.8998604195045663</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.8416532398268255</v>
       </c>
       <c r="D12">
-        <v>0.9869855247885553</v>
+        <v>0.9869855247885554</v>
       </c>
       <c r="E12">
         <v>0.8722129202758041</v>
       </c>
       <c r="F12">
-        <v>0.8776368803189024</v>
+        <v>0.8776368803189027</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031969096153461</v>
       </c>
       <c r="J12">
-        <v>0.8800849600237814</v>
+        <v>0.8800849600237817</v>
       </c>
       <c r="K12">
         <v>1.002366382475531</v>
       </c>
       <c r="L12">
-        <v>0.8902794518567337</v>
+        <v>0.890279451856734</v>
       </c>
       <c r="M12">
-        <v>0.8955549278093436</v>
+        <v>0.8955549278093438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8428162983967667</v>
+        <v>0.8428162983967677</v>
       </c>
       <c r="D13">
-        <v>0.9873589942847764</v>
+        <v>0.9873589942847755</v>
       </c>
       <c r="E13">
-        <v>0.8731869961641747</v>
+        <v>0.8731869961641754</v>
       </c>
       <c r="F13">
-        <v>0.8786523332627867</v>
+        <v>0.8786523332627869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0321350978794</v>
+        <v>1.032135097879399</v>
       </c>
       <c r="J13">
-        <v>0.8810422440483308</v>
+        <v>0.8810422440483313</v>
       </c>
       <c r="K13">
-        <v>1.002687587223986</v>
+        <v>1.002687587223985</v>
       </c>
       <c r="L13">
-        <v>0.891172644222651</v>
+        <v>0.8911726442226517</v>
       </c>
       <c r="M13">
-        <v>0.8964893485092029</v>
+        <v>0.896489348509203</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8465712949662663</v>
+        <v>0.8465712949662669</v>
       </c>
       <c r="D14">
-        <v>0.9885699159251402</v>
+        <v>0.9885699159251411</v>
       </c>
       <c r="E14">
-        <v>0.8763338225126254</v>
+        <v>0.876333822512626</v>
       </c>
       <c r="F14">
-        <v>0.8819346625549829</v>
+        <v>0.881934662554984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032672377648753</v>
+        <v>1.032672377648754</v>
       </c>
       <c r="J14">
-        <v>0.8841337647958373</v>
+        <v>0.8841337647958381</v>
       </c>
       <c r="K14">
-        <v>1.003727911359111</v>
+        <v>1.003727911359112</v>
       </c>
       <c r="L14">
-        <v>0.8940575735953653</v>
+        <v>0.8940575735953658</v>
       </c>
       <c r="M14">
-        <v>0.8995093359903197</v>
+        <v>0.8995093359903205</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8488437711282504</v>
+        <v>0.8488437711282495</v>
       </c>
       <c r="D15">
-        <v>0.9893065296817386</v>
+        <v>0.9893065296817384</v>
       </c>
       <c r="E15">
-        <v>0.8782396838794511</v>
+        <v>0.8782396838794503</v>
       </c>
       <c r="F15">
-        <v>0.8839239178337213</v>
+        <v>0.8839239178337209</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032998485429054</v>
       </c>
       <c r="J15">
-        <v>0.8860053448024047</v>
+        <v>0.886005344802404</v>
       </c>
       <c r="K15">
         <v>1.004359899766433</v>
       </c>
       <c r="L15">
-        <v>0.895804369733177</v>
+        <v>0.8958043697331761</v>
       </c>
       <c r="M15">
-        <v>0.9013392849199757</v>
+        <v>0.9013392849199754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8615031400906786</v>
+        <v>0.8615031400906779</v>
       </c>
       <c r="D16">
-        <v>0.9934605226659825</v>
+        <v>0.9934605226659817</v>
       </c>
       <c r="E16">
-        <v>0.8888759556655589</v>
+        <v>0.8888759556655579</v>
       </c>
       <c r="F16">
-        <v>0.8950427969046232</v>
+        <v>0.8950427969046219</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034826922013759</v>
       </c>
       <c r="J16">
-        <v>0.8964393970798056</v>
+        <v>0.8964393970798046</v>
       </c>
       <c r="K16">
         <v>1.007911833573536</v>
       </c>
       <c r="L16">
-        <v>0.9055465034216034</v>
+        <v>0.9055465034216025</v>
       </c>
       <c r="M16">
-        <v>0.9115631344124601</v>
+        <v>0.9115631344124587</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8690000256081021</v>
+        <v>0.8690000256081005</v>
       </c>
       <c r="D17">
-        <v>0.9959592497697988</v>
+        <v>0.9959592497697978</v>
       </c>
       <c r="E17">
-        <v>0.8951894828960704</v>
+        <v>0.895189482896069</v>
       </c>
       <c r="F17">
-        <v>0.901655437964864</v>
+        <v>0.9016554379648622</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035917743419032</v>
+        <v>1.035917743419031</v>
       </c>
       <c r="J17">
-        <v>0.9026241067715192</v>
+        <v>0.9026241067715177</v>
       </c>
       <c r="K17">
-        <v>1.010038500866234</v>
+        <v>1.010038500866233</v>
       </c>
       <c r="L17">
-        <v>0.9113239104516937</v>
+        <v>0.9113239104516924</v>
       </c>
       <c r="M17">
-        <v>0.917639545356886</v>
+        <v>0.9176395453568844</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,10 +1032,10 @@
         <v>0.8732316761520191</v>
       </c>
       <c r="D18">
-        <v>0.9973817726294031</v>
+        <v>0.9973817726294036</v>
       </c>
       <c r="E18">
-        <v>0.8987577921788937</v>
+        <v>0.8987577921788936</v>
       </c>
       <c r="F18">
         <v>0.9053965500245362</v>
@@ -1044,19 +1044,19 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03653556998445</v>
+        <v>1.036535569984451</v>
       </c>
       <c r="J18">
-        <v>0.9061166940066884</v>
+        <v>0.9061166940066883</v>
       </c>
       <c r="K18">
-        <v>1.011245853651781</v>
+        <v>1.011245853651782</v>
       </c>
       <c r="L18">
-        <v>0.91458735607956</v>
+        <v>0.9145873560795598</v>
       </c>
       <c r="M18">
-        <v>0.9210758877108491</v>
+        <v>0.9210758877108494</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8746521547933678</v>
+        <v>0.8746521547933661</v>
       </c>
       <c r="D19">
-        <v>0.9978611866226378</v>
+        <v>0.9978611866226376</v>
       </c>
       <c r="E19">
-        <v>0.8999563273512213</v>
+        <v>0.8999563273512201</v>
       </c>
       <c r="F19">
-        <v>0.9066536968600444</v>
+        <v>0.9066536968600435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036743254106491</v>
+        <v>1.03674325410649</v>
       </c>
       <c r="J19">
-        <v>0.9072893202054554</v>
+        <v>0.9072893202054538</v>
       </c>
       <c r="K19">
         <v>1.011652198909349</v>
       </c>
       <c r="L19">
-        <v>0.9156831836875181</v>
+        <v>0.9156831836875169</v>
       </c>
       <c r="M19">
-        <v>0.9222303852499979</v>
+        <v>0.9222303852499969</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682106603323627</v>
+        <v>0.8682106603323659</v>
       </c>
       <c r="D20">
-        <v>0.9956948473677735</v>
+        <v>0.9956948473677737</v>
       </c>
       <c r="E20">
-        <v>0.8945242195641762</v>
+        <v>0.8945242195641793</v>
       </c>
       <c r="F20">
-        <v>0.9009582479521595</v>
+        <v>0.9009582479521622</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035802651293571</v>
       </c>
       <c r="J20">
-        <v>0.9019727272330575</v>
+        <v>0.9019727272330605</v>
       </c>
       <c r="K20">
         <v>1.009813822480266</v>
       </c>
       <c r="L20">
-        <v>0.9107153345453228</v>
+        <v>0.9107153345453258</v>
       </c>
       <c r="M20">
-        <v>0.9169990380868285</v>
+        <v>0.9169990380868308</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,25 +1143,25 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.845474263250704</v>
+        <v>0.8454742632507039</v>
       </c>
       <c r="D21">
-        <v>0.9882153330998864</v>
+        <v>0.9882153330998873</v>
       </c>
       <c r="E21">
-        <v>0.8754141603415506</v>
+        <v>0.8754141603415507</v>
       </c>
       <c r="F21">
-        <v>0.8809751140077345</v>
+        <v>0.8809751140077351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032515203457838</v>
+        <v>1.032515203457839</v>
       </c>
       <c r="J21">
-        <v>0.8832304328526865</v>
+        <v>0.8832304328526864</v>
       </c>
       <c r="K21">
         <v>1.003423462817597</v>
@@ -1170,7 +1170,7 @@
         <v>0.8932145458381749</v>
       </c>
       <c r="M21">
-        <v>0.898626546023884</v>
+        <v>0.8986265460238846</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8294322187887209</v>
+        <v>0.8294322187887212</v>
       </c>
       <c r="D22">
-        <v>0.983108125868958</v>
+        <v>0.9831081258689582</v>
       </c>
       <c r="E22">
-        <v>0.8619956791768135</v>
+        <v>0.8619956791768141</v>
       </c>
       <c r="F22">
-        <v>0.8670026963582629</v>
+        <v>0.8670026963582631</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030237633134798</v>
       </c>
       <c r="J22">
-        <v>0.8700345062541308</v>
+        <v>0.870034506254131</v>
       </c>
       <c r="K22">
-        <v>0.999021809101174</v>
+        <v>0.9990218091011741</v>
       </c>
       <c r="L22">
-        <v>0.8809054954180796</v>
+        <v>0.8809054954180801</v>
       </c>
       <c r="M22">
-        <v>0.8857658472330383</v>
+        <v>0.8857658472330385</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381318943027986</v>
+        <v>0.8381318943027988</v>
       </c>
       <c r="D23">
-        <v>0.9858594530401775</v>
+        <v>0.9858594530401774</v>
       </c>
       <c r="E23">
-        <v>0.8692655377238671</v>
+        <v>0.8692655377238672</v>
       </c>
       <c r="F23">
-        <v>0.8745659761344331</v>
+        <v>0.8745659761344334</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0.8875762843215339</v>
       </c>
       <c r="M23">
-        <v>0.8927287177140437</v>
+        <v>0.8927287177140439</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8685677722748796</v>
+        <v>0.8685677722748781</v>
       </c>
       <c r="D24">
-        <v>0.9958144265615798</v>
+        <v>0.9958144265615794</v>
       </c>
       <c r="E24">
-        <v>0.8948251730195663</v>
+        <v>0.8948251730195649</v>
       </c>
       <c r="F24">
-        <v>0.9012736329319878</v>
+        <v>0.9012736329319863</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035854713005002</v>
       </c>
       <c r="J24">
-        <v>0.9022674089779221</v>
+        <v>0.9022674089779209</v>
       </c>
       <c r="K24">
-        <v>1.009915446436181</v>
+        <v>1.00991544643618</v>
       </c>
       <c r="L24">
-        <v>0.9109906493999943</v>
+        <v>0.9109906493999929</v>
       </c>
       <c r="M24">
-        <v>0.9172887860945067</v>
+        <v>0.9172887860945054</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8983991271796309</v>
+        <v>0.8983991271796304</v>
       </c>
       <c r="D25">
         <v>1.006007434836145</v>
       </c>
       <c r="E25">
-        <v>0.9200439060280305</v>
+        <v>0.9200439060280301</v>
       </c>
       <c r="F25">
-        <v>0.9277598470480376</v>
+        <v>0.9277598470480374</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040228194949844</v>
       </c>
       <c r="J25">
-        <v>0.9269064534531929</v>
+        <v>0.9269064534531926</v>
       </c>
       <c r="K25">
         <v>1.018513203464038</v>
       </c>
       <c r="L25">
-        <v>0.9340247120690499</v>
+        <v>0.9340247120690496</v>
       </c>
       <c r="M25">
-        <v>0.9415936676737202</v>
+        <v>0.9415936676737198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.919217166873307</v>
+        <v>0.9193392287323685</v>
       </c>
       <c r="D2">
-        <v>1.013326441408767</v>
+        <v>1.01334795823721</v>
       </c>
       <c r="E2">
-        <v>0.9377255983837534</v>
+        <v>0.9378321346423135</v>
       </c>
       <c r="F2">
-        <v>0.946378057551864</v>
+        <v>0.9464710611328826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043279260965947</v>
+        <v>1.043290181026455</v>
       </c>
       <c r="J2">
-        <v>0.9441152119550519</v>
+        <v>0.9442326586911849</v>
       </c>
       <c r="K2">
-        <v>1.024603187999281</v>
+        <v>1.024624414903751</v>
       </c>
       <c r="L2">
-        <v>0.9501265497405894</v>
+        <v>0.9502313378575536</v>
       </c>
       <c r="M2">
-        <v>0.9586386759384045</v>
+        <v>0.9587301889822064</v>
+      </c>
+      <c r="N2">
+        <v>0.9627396218941335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9330495565961452</v>
+        <v>0.9331506771678483</v>
       </c>
       <c r="D3">
-        <v>1.018261225874216</v>
+        <v>1.018279044907631</v>
       </c>
       <c r="E3">
-        <v>0.9495063154818396</v>
+        <v>0.9495947915452172</v>
       </c>
       <c r="F3">
-        <v>0.9587915161101713</v>
+        <v>0.9588685695498922</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045285891799418</v>
+        <v>1.045294945604827</v>
       </c>
       <c r="J3">
-        <v>0.955548101767611</v>
+        <v>0.9556458871368628</v>
       </c>
       <c r="K3">
-        <v>1.028665663337287</v>
+        <v>1.028683264435468</v>
       </c>
       <c r="L3">
-        <v>0.9608288144258178</v>
+        <v>0.9609160007999505</v>
       </c>
       <c r="M3">
-        <v>0.9699803099225784</v>
+        <v>0.9700562675119682</v>
+      </c>
+      <c r="N3">
+        <v>0.9707605996432228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9415089952294635</v>
+        <v>0.9415979374810757</v>
       </c>
       <c r="D4">
-        <v>1.02130061669952</v>
+        <v>1.021316297256869</v>
       </c>
       <c r="E4">
-        <v>0.9567223131652198</v>
+        <v>0.9568002548473336</v>
       </c>
       <c r="F4">
-        <v>0.9663945993482594</v>
+        <v>0.9664623969706255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046498489356456</v>
+        <v>1.04650646254099</v>
       </c>
       <c r="J4">
-        <v>0.9625372418474539</v>
+        <v>0.9626235025634057</v>
       </c>
       <c r="K4">
-        <v>1.031148583487219</v>
+        <v>1.031164084419371</v>
       </c>
       <c r="L4">
-        <v>0.9673727364625242</v>
+        <v>0.9674496276123822</v>
       </c>
       <c r="M4">
-        <v>0.9769162781513391</v>
+        <v>0.9769831847447815</v>
+      </c>
+      <c r="N4">
+        <v>0.975658658409831</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.944960102154309</v>
+        <v>0.9450442010700254</v>
       </c>
       <c r="D5">
-        <v>1.022544241245466</v>
+        <v>1.022559074208311</v>
       </c>
       <c r="E5">
-        <v>0.9596684244561602</v>
+        <v>0.9597421705892025</v>
       </c>
       <c r="F5">
-        <v>0.9694980706154551</v>
+        <v>0.969562192266369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046989029610738</v>
+        <v>1.046996574176264</v>
       </c>
       <c r="J5">
-        <v>0.9653875751233899</v>
+        <v>0.9654692336057658</v>
       </c>
       <c r="K5">
-        <v>1.032160007497179</v>
+        <v>1.032174675280625</v>
       </c>
       <c r="L5">
-        <v>0.9700417481397502</v>
+        <v>0.9701145329837225</v>
       </c>
       <c r="M5">
-        <v>0.9797448742676089</v>
+        <v>0.979808181109683</v>
+      </c>
+      <c r="N5">
+        <v>0.9776548601042678</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9455337054039549</v>
+        <v>0.9456170060277013</v>
       </c>
       <c r="D6">
-        <v>1.022751119482514</v>
+        <v>1.022765812911675</v>
       </c>
       <c r="E6">
-        <v>0.9601582159687443</v>
+        <v>0.9602312702648207</v>
       </c>
       <c r="F6">
-        <v>0.9700139685277934</v>
+        <v>0.9700774846006752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047070299746245</v>
+        <v>1.047077773733196</v>
       </c>
       <c r="J6">
-        <v>0.9658612616233673</v>
+        <v>0.9659421605152194</v>
       </c>
       <c r="K6">
-        <v>1.032327995723472</v>
+        <v>1.03234252630939</v>
       </c>
       <c r="L6">
-        <v>0.9704853136569295</v>
+        <v>0.9705574210460117</v>
       </c>
       <c r="M6">
-        <v>0.980214927231048</v>
+        <v>0.9802776407671189</v>
+      </c>
+      <c r="N6">
+        <v>0.9779865210159836</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9415555079268365</v>
+        <v>0.941644384434955</v>
       </c>
       <c r="D7">
-        <v>1.021317364979375</v>
+        <v>1.021333034019931</v>
       </c>
       <c r="E7">
-        <v>0.9567620111876748</v>
+        <v>0.9568398959416361</v>
       </c>
       <c r="F7">
-        <v>0.9664364211319046</v>
+        <v>0.9665041688359055</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046505117983634</v>
+        <v>1.046513085345487</v>
       </c>
       <c r="J7">
-        <v>0.9625756616591769</v>
+        <v>0.962661859976582</v>
       </c>
       <c r="K7">
-        <v>1.0311622224645</v>
+        <v>1.031177712079038</v>
       </c>
       <c r="L7">
-        <v>0.9674087113538505</v>
+        <v>0.9674855468096233</v>
       </c>
       <c r="M7">
-        <v>0.9769544060085179</v>
+        <v>0.9770212637383864</v>
+      </c>
+      <c r="N7">
+        <v>0.9756855707400083</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.924001712311892</v>
+        <v>0.924116377127924</v>
       </c>
       <c r="D8">
-        <v>1.015027760795681</v>
+        <v>1.01504796883175</v>
       </c>
       <c r="E8">
-        <v>0.9417977582443935</v>
+        <v>0.9418979232903373</v>
       </c>
       <c r="F8">
-        <v>0.9506686563153155</v>
+        <v>0.9507560216920635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043976043336356</v>
+        <v>1.043986303165783</v>
       </c>
       <c r="J8">
-        <v>0.9480702097145148</v>
+        <v>0.9481807337332785</v>
       </c>
       <c r="K8">
-        <v>1.026007947558321</v>
+        <v>1.026027891930714</v>
       </c>
       <c r="L8">
-        <v>0.9538284302285047</v>
+        <v>0.9539270156768114</v>
       </c>
       <c r="M8">
-        <v>0.9625610823807237</v>
+        <v>0.9626471026136569</v>
+      </c>
+      <c r="N8">
+        <v>0.9655154287004906</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8886016074672086</v>
+        <v>0.8887755468011814</v>
       </c>
       <c r="D9">
-        <v>1.002617601371764</v>
+        <v>1.002648351912718</v>
       </c>
       <c r="E9">
-        <v>0.9117448930331247</v>
+        <v>0.9118958446159736</v>
       </c>
       <c r="F9">
-        <v>0.919032512923064</v>
+        <v>0.9191651306544322</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038788515408956</v>
+        <v>1.038804085832337</v>
       </c>
       <c r="J9">
-        <v>0.9188101751186968</v>
+        <v>0.9189755214130727</v>
       </c>
       <c r="K9">
-        <v>1.015668352100651</v>
+        <v>1.015698607092336</v>
       </c>
       <c r="L9">
-        <v>0.9264529023474679</v>
+        <v>0.9266007393499363</v>
       </c>
       <c r="M9">
-        <v>0.9335916945157402</v>
+        <v>0.9337216327190517</v>
+      </c>
+      <c r="N9">
+        <v>0.9449588684781127</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8606355485035369</v>
+        <v>0.8608657045066563</v>
       </c>
       <c r="D10">
-        <v>0.9931731700394645</v>
+        <v>0.9932139710060962</v>
       </c>
       <c r="E10">
-        <v>0.8881460014588746</v>
+        <v>0.8883445320875296</v>
       </c>
       <c r="F10">
-        <v>0.8942788381909283</v>
+        <v>0.8944543928420683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034701033534808</v>
+        <v>1.03472165476642</v>
       </c>
       <c r="J10">
-        <v>0.8957239131721296</v>
+        <v>0.8959399875118577</v>
       </c>
       <c r="K10">
-        <v>1.007666788785246</v>
+        <v>1.007706839865364</v>
       </c>
       <c r="L10">
-        <v>0.9048782700947363</v>
+        <v>0.9050718955119461</v>
       </c>
       <c r="M10">
-        <v>0.9108609307492831</v>
+        <v>0.9110322273083575</v>
+      </c>
+      <c r="N10">
+        <v>0.9287196109500773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8470074433097188</v>
+        <v>0.847269083981261</v>
       </c>
       <c r="D11">
-        <v>0.9887110721468287</v>
+        <v>0.9887574965053497</v>
       </c>
       <c r="E11">
-        <v>0.8766995241056189</v>
+        <v>0.876924453239406</v>
       </c>
       <c r="F11">
-        <v>0.8823162894769074</v>
+        <v>0.8825158441717418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032734911915583</v>
+        <v>1.032758355885607</v>
       </c>
       <c r="J11">
-        <v>0.8844929343554708</v>
+        <v>0.8847369469642559</v>
       </c>
       <c r="K11">
-        <v>1.003849068142762</v>
+        <v>1.003894590653106</v>
       </c>
       <c r="L11">
-        <v>0.8943927797638964</v>
+        <v>0.8946116871025999</v>
       </c>
       <c r="M11">
-        <v>0.8998604195045663</v>
+        <v>0.9000547233617224</v>
+      </c>
+      <c r="N11">
+        <v>0.9208183143347612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8416532398268255</v>
+        <v>0.8419281468566404</v>
       </c>
       <c r="D12">
-        <v>0.9869855247885554</v>
+        <v>0.9870343147532874</v>
       </c>
       <c r="E12">
-        <v>0.8722129202758041</v>
+        <v>0.8724489210336304</v>
       </c>
       <c r="F12">
-        <v>0.8776368803189027</v>
+        <v>0.8778465322589247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031969096153461</v>
+        <v>1.031993727047324</v>
       </c>
       <c r="J12">
-        <v>0.8800849600237817</v>
+        <v>0.8803406527490228</v>
       </c>
       <c r="K12">
-        <v>1.002366382475531</v>
+        <v>1.002414205087492</v>
       </c>
       <c r="L12">
-        <v>0.890279451856734</v>
+        <v>0.8905089395660398</v>
       </c>
       <c r="M12">
-        <v>0.8955549278093438</v>
+        <v>0.895758890526309</v>
+      </c>
+      <c r="N12">
+        <v>0.9177174987879477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8428162983967677</v>
+        <v>0.8430882770615862</v>
       </c>
       <c r="D13">
-        <v>0.9873589942847755</v>
+        <v>0.9874072623141988</v>
       </c>
       <c r="E13">
-        <v>0.8731869961641754</v>
+        <v>0.8734205555957389</v>
       </c>
       <c r="F13">
-        <v>0.8786523332627869</v>
+        <v>0.8788597572424636</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032135097879399</v>
+        <v>1.032159466920138</v>
       </c>
       <c r="J13">
-        <v>0.8810422440483313</v>
+        <v>0.8812953630406217</v>
       </c>
       <c r="K13">
-        <v>1.002687587223985</v>
+        <v>1.00273490242503</v>
       </c>
       <c r="L13">
-        <v>0.8911726442226517</v>
+        <v>0.8913998000320107</v>
       </c>
       <c r="M13">
-        <v>0.896489348509203</v>
+        <v>0.8966911809934784</v>
+      </c>
+      <c r="N13">
+        <v>0.9183908811492963</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8465712949662669</v>
+        <v>0.8468339961509177</v>
       </c>
       <c r="D14">
-        <v>0.9885699159251411</v>
+        <v>0.9886165294890678</v>
       </c>
       <c r="E14">
-        <v>0.876333822512626</v>
+        <v>0.8765596378213812</v>
       </c>
       <c r="F14">
-        <v>0.881934662554984</v>
+        <v>0.8821350247875962</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032672377648754</v>
+        <v>1.032695916561474</v>
       </c>
       <c r="J14">
-        <v>0.8841337647958381</v>
+        <v>0.8843787130522225</v>
       </c>
       <c r="K14">
-        <v>1.003727911359112</v>
+        <v>1.003773617867174</v>
       </c>
       <c r="L14">
-        <v>0.8940575735953658</v>
+        <v>0.8942773282674943</v>
       </c>
       <c r="M14">
-        <v>0.8995093359903205</v>
+        <v>0.8997044127571456</v>
+      </c>
+      <c r="N14">
+        <v>0.9205656444058268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8488437711282495</v>
+        <v>0.8491009846108493</v>
       </c>
       <c r="D15">
-        <v>0.9893065296817384</v>
+        <v>0.9893521640168257</v>
       </c>
       <c r="E15">
-        <v>0.8782396838794503</v>
+        <v>0.8784609115120003</v>
       </c>
       <c r="F15">
-        <v>0.8839239178337209</v>
+        <v>0.8841201007470072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032998485429054</v>
+        <v>1.033021532947187</v>
       </c>
       <c r="J15">
-        <v>0.886005344802404</v>
+        <v>0.8862454477773292</v>
       </c>
       <c r="K15">
-        <v>1.004359899766433</v>
+        <v>1.004404653935973</v>
       </c>
       <c r="L15">
-        <v>0.8958043697331761</v>
+        <v>0.8960197368884079</v>
       </c>
       <c r="M15">
-        <v>0.9013392849199754</v>
+        <v>0.9015303607501847</v>
+      </c>
+      <c r="N15">
+        <v>0.9218822864926607</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8615031400906779</v>
+        <v>0.8617313931532772</v>
       </c>
       <c r="D16">
-        <v>0.9934605226659817</v>
+        <v>0.9935009834535973</v>
       </c>
       <c r="E16">
-        <v>0.8888759556655579</v>
+        <v>0.8890728851281083</v>
       </c>
       <c r="F16">
-        <v>0.8950427969046219</v>
+        <v>0.8952168995590667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034826922013759</v>
+        <v>1.034847372423802</v>
       </c>
       <c r="J16">
-        <v>0.8964393970798046</v>
+        <v>0.8966537725162851</v>
       </c>
       <c r="K16">
-        <v>1.007911833573536</v>
+        <v>1.007951553475996</v>
       </c>
       <c r="L16">
-        <v>0.9055465034216025</v>
+        <v>0.9057385927642281</v>
       </c>
       <c r="M16">
-        <v>0.9115631344124587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9117330366719739</v>
+      </c>
+      <c r="N16">
+        <v>0.929222984115794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8690000256081005</v>
+        <v>0.869212294335532</v>
       </c>
       <c r="D17">
-        <v>0.9959592497697978</v>
+        <v>0.9959968524117393</v>
       </c>
       <c r="E17">
-        <v>0.895189482896069</v>
+        <v>0.8953729370888701</v>
       </c>
       <c r="F17">
-        <v>0.9016554379648622</v>
+        <v>0.9018173389499434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035917743419031</v>
+        <v>1.03593675827438</v>
       </c>
       <c r="J17">
-        <v>0.9026241067715177</v>
+        <v>0.9028241630744354</v>
       </c>
       <c r="K17">
-        <v>1.010038500866233</v>
+        <v>1.010075437271853</v>
       </c>
       <c r="L17">
-        <v>0.9113239104516924</v>
+        <v>0.9115030596285975</v>
       </c>
       <c r="M17">
-        <v>0.9176395453568844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9177977194422763</v>
+      </c>
+      <c r="N17">
+        <v>0.9335740887820908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8732316761520191</v>
+        <v>0.873435266796152</v>
       </c>
       <c r="D18">
-        <v>0.9973817726294036</v>
+        <v>0.9974178233221757</v>
       </c>
       <c r="E18">
-        <v>0.8987577921788936</v>
+        <v>0.8989339110619903</v>
       </c>
       <c r="F18">
-        <v>0.9053965500245362</v>
+        <v>0.9055518232978741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036535569984451</v>
+        <v>1.03655380507817</v>
       </c>
       <c r="J18">
-        <v>0.9061166940066883</v>
+        <v>0.90630893891663</v>
       </c>
       <c r="K18">
-        <v>1.011245853651782</v>
+        <v>1.011281277855879</v>
       </c>
       <c r="L18">
-        <v>0.9145873560795598</v>
+        <v>0.9147594513665623</v>
       </c>
       <c r="M18">
-        <v>0.9210758877108494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9212276824775866</v>
+      </c>
+      <c r="N18">
+        <v>0.9360310652782577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8746521547933661</v>
+        <v>0.8748528850623651</v>
       </c>
       <c r="D19">
-        <v>0.9978611866226376</v>
+        <v>0.9978967257954607</v>
       </c>
       <c r="E19">
-        <v>0.8999563273512201</v>
+        <v>0.9001300254372322</v>
       </c>
       <c r="F19">
-        <v>0.9066536968600435</v>
+        <v>0.9068067851755837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03674325410649</v>
+        <v>1.036761232147451</v>
       </c>
       <c r="J19">
-        <v>0.9072893202054538</v>
+        <v>0.9074789844971082</v>
       </c>
       <c r="K19">
-        <v>1.011652198909349</v>
+        <v>1.011687124564158</v>
       </c>
       <c r="L19">
-        <v>0.9156831836875169</v>
+        <v>0.9158529494724381</v>
       </c>
       <c r="M19">
-        <v>0.9222303852499969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9223800755408335</v>
+      </c>
+      <c r="N19">
+        <v>0.9368559518859171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682106603323659</v>
+        <v>0.8684245745725984</v>
       </c>
       <c r="D20">
-        <v>0.9956948473677737</v>
+        <v>0.9957327442810994</v>
       </c>
       <c r="E20">
-        <v>0.8945242195641793</v>
+        <v>0.8947090631100353</v>
       </c>
       <c r="F20">
-        <v>0.9009582479521622</v>
+        <v>0.9011214054305627</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035802651293571</v>
+        <v>1.035821813980591</v>
       </c>
       <c r="J20">
-        <v>0.9019727272330605</v>
+        <v>0.9021742617034414</v>
       </c>
       <c r="K20">
-        <v>1.009813822480266</v>
+        <v>1.009851045555839</v>
       </c>
       <c r="L20">
-        <v>0.9107153345453258</v>
+        <v>0.9108958189752466</v>
       </c>
       <c r="M20">
-        <v>0.9169990380868308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9171584208634037</v>
+      </c>
+      <c r="N20">
+        <v>0.9331158392390614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8454742632507039</v>
+        <v>0.8457396474364366</v>
       </c>
       <c r="D21">
-        <v>0.9882153330998873</v>
+        <v>0.9882624252625021</v>
       </c>
       <c r="E21">
-        <v>0.8754141603415507</v>
+        <v>0.8756422167273047</v>
       </c>
       <c r="F21">
-        <v>0.8809751140077351</v>
+        <v>0.8811775189604891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032515203457839</v>
+        <v>1.032538982521631</v>
       </c>
       <c r="J21">
-        <v>0.8832304328526864</v>
+        <v>0.8834777466928821</v>
       </c>
       <c r="K21">
-        <v>1.003423462817597</v>
+        <v>1.003469634726347</v>
       </c>
       <c r="L21">
-        <v>0.8932145458381749</v>
+        <v>0.8934364429835189</v>
       </c>
       <c r="M21">
-        <v>0.8986265460238846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.898823577577071</v>
+      </c>
+      <c r="N21">
+        <v>0.9199301722209768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8294322187887212</v>
+        <v>0.8297395968333037</v>
       </c>
       <c r="D22">
-        <v>0.9831081258689582</v>
+        <v>0.9831626928022843</v>
       </c>
       <c r="E22">
-        <v>0.8619956791768141</v>
+        <v>0.8622586548273734</v>
       </c>
       <c r="F22">
-        <v>0.8670026963582631</v>
+        <v>0.867237017379716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030237633134798</v>
+        <v>1.030265161522023</v>
       </c>
       <c r="J22">
-        <v>0.870034506254131</v>
+        <v>0.8703185750089258</v>
       </c>
       <c r="K22">
-        <v>0.9990218091011741</v>
+        <v>0.9990752455120469</v>
       </c>
       <c r="L22">
-        <v>0.8809054954180801</v>
+        <v>0.8811607097806878</v>
       </c>
       <c r="M22">
-        <v>0.8857658472330385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8859933613980102</v>
+      </c>
+      <c r="N22">
+        <v>0.9106488606690224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381318943027988</v>
+        <v>0.8384158318180261</v>
       </c>
       <c r="D23">
-        <v>0.9858594530401774</v>
+        <v>0.9859098516249916</v>
       </c>
       <c r="E23">
-        <v>0.8692655377238672</v>
+        <v>0.869509057935939</v>
       </c>
       <c r="F23">
-        <v>0.8745659761344334</v>
+        <v>0.8747824954315746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031467742201084</v>
+        <v>1.031493180054644</v>
       </c>
       <c r="J23">
-        <v>0.8771874431082046</v>
+        <v>0.877451057048767</v>
       </c>
       <c r="K23">
-        <v>1.00139689621663</v>
+        <v>1.001446282443064</v>
       </c>
       <c r="L23">
-        <v>0.8875762843215339</v>
+        <v>0.8878129506345415</v>
       </c>
       <c r="M23">
-        <v>0.8927287177140439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8929392431063747</v>
+      </c>
+      <c r="N23">
+        <v>0.9156793983963203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8685677722748781</v>
+        <v>0.8687809410175685</v>
       </c>
       <c r="D24">
-        <v>0.9958144265615794</v>
+        <v>0.9958521901561703</v>
       </c>
       <c r="E24">
-        <v>0.8948251730195649</v>
+        <v>0.8950093871817206</v>
       </c>
       <c r="F24">
-        <v>0.9012736329319863</v>
+        <v>0.9014362211676114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035854713005002</v>
+        <v>1.035873808718192</v>
       </c>
       <c r="J24">
-        <v>0.9022674089779209</v>
+        <v>0.9024682738840278</v>
       </c>
       <c r="K24">
-        <v>1.00991544643618</v>
+        <v>1.009952539639316</v>
       </c>
       <c r="L24">
-        <v>0.9109906493999929</v>
+        <v>0.9111705289848868</v>
       </c>
       <c r="M24">
-        <v>0.9172887860945054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9174476213123741</v>
+      </c>
+      <c r="N24">
+        <v>0.9333231501744159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8983991271796304</v>
+        <v>0.8985555242714165</v>
       </c>
       <c r="D25">
-        <v>1.006007434836145</v>
+        <v>1.006035054916151</v>
       </c>
       <c r="E25">
-        <v>0.9200439060280301</v>
+        <v>0.9201798925022087</v>
       </c>
       <c r="F25">
-        <v>0.9277598470480374</v>
+        <v>0.9278790608378259</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040228194949844</v>
+        <v>1.040242190100273</v>
       </c>
       <c r="J25">
-        <v>0.9269064534531926</v>
+        <v>0.9270557264934048</v>
       </c>
       <c r="K25">
-        <v>1.018513203464038</v>
+        <v>1.018540401299536</v>
       </c>
       <c r="L25">
-        <v>0.9340247120690496</v>
+        <v>0.934158080110801</v>
       </c>
       <c r="M25">
-        <v>0.9415936676737198</v>
+        <v>0.9417106355426684</v>
+      </c>
+      <c r="N25">
+        <v>0.9506509143345914</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9193392287323685</v>
+        <v>1.005669803274955</v>
       </c>
       <c r="D2">
-        <v>1.01334795823721</v>
+        <v>1.040627474997408</v>
       </c>
       <c r="E2">
-        <v>0.9378321346423135</v>
+        <v>1.021526160108771</v>
       </c>
       <c r="F2">
-        <v>0.9464710611328826</v>
+        <v>1.035971956661149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043290181026455</v>
+        <v>1.050126854330587</v>
       </c>
       <c r="J2">
-        <v>0.9442326586911849</v>
+        <v>1.027682243944445</v>
       </c>
       <c r="K2">
-        <v>1.024624414903751</v>
+        <v>1.05154839812768</v>
       </c>
       <c r="L2">
-        <v>0.9502313378575536</v>
+        <v>1.03269353092046</v>
       </c>
       <c r="M2">
-        <v>0.9587301889822064</v>
+        <v>1.04695189946244</v>
       </c>
       <c r="N2">
-        <v>0.9627396218941335</v>
+        <v>1.029141670607647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9331506771678483</v>
+        <v>1.016100555626386</v>
       </c>
       <c r="D3">
-        <v>1.018279044907631</v>
+        <v>1.046421710054315</v>
       </c>
       <c r="E3">
-        <v>0.9495947915452172</v>
+        <v>1.030178115914833</v>
       </c>
       <c r="F3">
-        <v>0.9588685695498922</v>
+        <v>1.043998746792621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045294945604827</v>
+        <v>1.052574686625519</v>
       </c>
       <c r="J3">
-        <v>0.9556458871368628</v>
+        <v>1.036161722987302</v>
       </c>
       <c r="K3">
-        <v>1.028683264435468</v>
+        <v>1.056493169619581</v>
       </c>
       <c r="L3">
-        <v>0.9609160007999505</v>
+        <v>1.040438891158343</v>
       </c>
       <c r="M3">
-        <v>0.9700562675119682</v>
+        <v>1.054097983831567</v>
       </c>
       <c r="N3">
-        <v>0.9707605996432228</v>
+        <v>1.037633191483355</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9415979374810757</v>
+        <v>1.022595560961976</v>
       </c>
       <c r="D4">
-        <v>1.021316297256869</v>
+        <v>1.050037737330375</v>
       </c>
       <c r="E4">
-        <v>0.9568002548473336</v>
+        <v>1.035572677200493</v>
       </c>
       <c r="F4">
-        <v>0.9664623969706255</v>
+        <v>1.049006173612481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04650646254099</v>
+        <v>1.054086813214832</v>
       </c>
       <c r="J4">
-        <v>0.9626235025634057</v>
+        <v>1.0414384133818</v>
       </c>
       <c r="K4">
-        <v>1.031164084419371</v>
+        <v>1.059567550483695</v>
       </c>
       <c r="L4">
-        <v>0.9674496276123822</v>
+        <v>1.045259921917324</v>
       </c>
       <c r="M4">
-        <v>0.9769831847447815</v>
+        <v>1.058547037686794</v>
       </c>
       <c r="N4">
-        <v>0.975658658409831</v>
+        <v>1.042917375383458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9450442010700254</v>
+        <v>1.025269650473086</v>
       </c>
       <c r="D5">
-        <v>1.022559074208311</v>
+        <v>1.051528071868979</v>
       </c>
       <c r="E5">
-        <v>0.9597421705892025</v>
+        <v>1.037795212487374</v>
       </c>
       <c r="F5">
-        <v>0.969562192266369</v>
+        <v>1.051069740568812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046996574176264</v>
+        <v>1.054706329980923</v>
       </c>
       <c r="J5">
-        <v>0.9654692336057658</v>
+        <v>1.043609989509797</v>
       </c>
       <c r="K5">
-        <v>1.032174675280625</v>
+        <v>1.060831941480479</v>
       </c>
       <c r="L5">
-        <v>0.9701145329837225</v>
+        <v>1.047244201035657</v>
       </c>
       <c r="M5">
-        <v>0.979808181109683</v>
+        <v>1.060378378785449</v>
       </c>
       <c r="N5">
-        <v>0.9776548601042678</v>
+        <v>1.045092035398639</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9456170060277013</v>
+        <v>1.025715454967115</v>
       </c>
       <c r="D6">
-        <v>1.022765812911675</v>
+        <v>1.051776611100913</v>
       </c>
       <c r="E6">
-        <v>0.9602312702648207</v>
+        <v>1.038165820699763</v>
       </c>
       <c r="F6">
-        <v>0.9700774846006752</v>
+        <v>1.051413868940895</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047077773733196</v>
+        <v>1.05480942783787</v>
       </c>
       <c r="J6">
-        <v>0.9659421605152194</v>
+        <v>1.043971961469696</v>
       </c>
       <c r="K6">
-        <v>1.03234252630939</v>
+        <v>1.061042643071491</v>
       </c>
       <c r="L6">
-        <v>0.9705574210460117</v>
+        <v>1.047574964907864</v>
       </c>
       <c r="M6">
-        <v>0.9802776407671189</v>
+        <v>1.060683656342343</v>
       </c>
       <c r="N6">
-        <v>0.9779865210159836</v>
+        <v>1.045454521400241</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.941644384434955</v>
+        <v>1.02263150837939</v>
       </c>
       <c r="D7">
-        <v>1.021333034019931</v>
+        <v>1.05005776597003</v>
       </c>
       <c r="E7">
-        <v>0.9568398959416361</v>
+        <v>1.035602548689243</v>
       </c>
       <c r="F7">
-        <v>0.9665041688359055</v>
+        <v>1.049033906561762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046513085345487</v>
+        <v>1.054095153564059</v>
       </c>
       <c r="J7">
-        <v>0.962661859976582</v>
+        <v>1.041467609363395</v>
       </c>
       <c r="K7">
-        <v>1.031177712079038</v>
+        <v>1.059584553313572</v>
       </c>
       <c r="L7">
-        <v>0.9674855468096233</v>
+        <v>1.045286598939789</v>
       </c>
       <c r="M7">
-        <v>0.9770212637383864</v>
+        <v>1.058571658041963</v>
       </c>
       <c r="N7">
-        <v>0.9756855707400083</v>
+        <v>1.042946612826696</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.924116377127924</v>
+        <v>1.009250472526445</v>
       </c>
       <c r="D8">
-        <v>1.01504796883175</v>
+        <v>1.042614559986137</v>
       </c>
       <c r="E8">
-        <v>0.9418979232903373</v>
+        <v>1.024494545937329</v>
       </c>
       <c r="F8">
-        <v>0.9507560216920635</v>
+        <v>1.03872521992165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043986303165783</v>
+        <v>1.050969615608595</v>
       </c>
       <c r="J8">
-        <v>0.9481807337332785</v>
+        <v>1.030593699361086</v>
       </c>
       <c r="K8">
-        <v>1.026027891930714</v>
+        <v>1.053246646323734</v>
       </c>
       <c r="L8">
-        <v>0.9539270156768114</v>
+        <v>1.035352638212171</v>
       </c>
       <c r="M8">
-        <v>0.9626471026136569</v>
+        <v>1.04940498981491</v>
       </c>
       <c r="N8">
-        <v>0.9655154287004906</v>
+        <v>1.032057260624928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8887755468011814</v>
+        <v>0.9834886402721625</v>
       </c>
       <c r="D9">
-        <v>1.002648351912718</v>
+        <v>1.028372003587012</v>
       </c>
       <c r="E9">
-        <v>0.9118958446159736</v>
+        <v>1.003179725492549</v>
       </c>
       <c r="F9">
-        <v>0.9191651306544322</v>
+        <v>1.018972127557999</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038804085832337</v>
+        <v>1.044860124983912</v>
       </c>
       <c r="J9">
-        <v>0.9189755214130727</v>
+        <v>1.009638239743792</v>
       </c>
       <c r="K9">
-        <v>1.015698607092336</v>
+        <v>1.041020945184977</v>
       </c>
       <c r="L9">
-        <v>0.9266007393499363</v>
+        <v>1.01622142366886</v>
       </c>
       <c r="M9">
-        <v>0.9337216327190517</v>
+        <v>1.031764715818015</v>
       </c>
       <c r="N9">
-        <v>0.9449588684781127</v>
+        <v>1.011072041851353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8608657045066563</v>
+        <v>0.964453355136987</v>
       </c>
       <c r="D10">
-        <v>0.9932139710060962</v>
+        <v>1.017942916323743</v>
       </c>
       <c r="E10">
-        <v>0.8883445320875296</v>
+        <v>0.9874986465922228</v>
       </c>
       <c r="F10">
-        <v>0.8944543928420683</v>
+        <v>1.004469270025829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03472165476642</v>
+        <v>1.040295717714077</v>
       </c>
       <c r="J10">
-        <v>0.8959399875118577</v>
+        <v>0.9941519106497612</v>
       </c>
       <c r="K10">
-        <v>1.007706839865364</v>
+        <v>1.031995590801218</v>
       </c>
       <c r="L10">
-        <v>0.9050718955119461</v>
+        <v>1.002097345887776</v>
       </c>
       <c r="M10">
-        <v>0.9110322273083575</v>
+        <v>1.018758296578461</v>
       </c>
       <c r="N10">
-        <v>0.9287196109500773</v>
+        <v>0.9955637203937018</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.847269083981261</v>
+        <v>0.9556564152647115</v>
       </c>
       <c r="D11">
-        <v>0.9887574965053497</v>
+        <v>1.013155338434267</v>
       </c>
       <c r="E11">
-        <v>0.876924453239406</v>
+        <v>0.9802736452559185</v>
       </c>
       <c r="F11">
-        <v>0.8825158441717418</v>
+        <v>0.9977969155599933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032758355885607</v>
+        <v>1.038178030758232</v>
       </c>
       <c r="J11">
-        <v>0.8847369469642559</v>
+        <v>0.9869978136738632</v>
       </c>
       <c r="K11">
-        <v>1.003894590653106</v>
+        <v>1.027833356684718</v>
       </c>
       <c r="L11">
-        <v>0.8946116871025999</v>
+        <v>0.995577412935411</v>
       </c>
       <c r="M11">
-        <v>0.9000547233617224</v>
+        <v>1.012760498763308</v>
       </c>
       <c r="N11">
-        <v>0.9208183143347612</v>
+        <v>0.9883994637795114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8419281468566404</v>
+        <v>0.9522933596211373</v>
       </c>
       <c r="D12">
-        <v>0.9870343147532874</v>
+        <v>1.011330863607034</v>
       </c>
       <c r="E12">
-        <v>0.8724489210336304</v>
+        <v>0.9775154023711567</v>
       </c>
       <c r="F12">
-        <v>0.8778465322589247</v>
+        <v>0.9952514154877526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031993727047324</v>
+        <v>1.037367570942964</v>
       </c>
       <c r="J12">
-        <v>0.8803406527490228</v>
+        <v>0.9842635749705599</v>
       </c>
       <c r="K12">
-        <v>1.002414205087492</v>
+        <v>1.02624415481578</v>
       </c>
       <c r="L12">
-        <v>0.8905089395660398</v>
+        <v>0.9930864329280641</v>
       </c>
       <c r="M12">
-        <v>0.895758890526309</v>
+        <v>1.010470159873624</v>
       </c>
       <c r="N12">
-        <v>0.9177174987879477</v>
+        <v>0.9856613421436281</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8430882770615862</v>
+        <v>0.9530192912804496</v>
       </c>
       <c r="D13">
-        <v>0.9874072623141988</v>
+        <v>1.011724405916946</v>
       </c>
       <c r="E13">
-        <v>0.8734205555957389</v>
+        <v>0.9781105976923784</v>
       </c>
       <c r="F13">
-        <v>0.8788597572424636</v>
+        <v>0.995800618823626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032159466920138</v>
+        <v>1.037542545134259</v>
       </c>
       <c r="J13">
-        <v>0.8812953630406217</v>
+        <v>0.9848537328583553</v>
       </c>
       <c r="K13">
-        <v>1.00273490242503</v>
+        <v>1.026587088355799</v>
       </c>
       <c r="L13">
-        <v>0.8913998000320107</v>
+        <v>0.9936240431095281</v>
       </c>
       <c r="M13">
-        <v>0.8966911809934784</v>
+        <v>1.010964411016571</v>
       </c>
       <c r="N13">
-        <v>0.9183908811492963</v>
+        <v>0.9862523381233164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8468339961509177</v>
+        <v>0.9553804515372283</v>
       </c>
       <c r="D14">
-        <v>0.9886165294890678</v>
+        <v>1.013005503081985</v>
       </c>
       <c r="E14">
-        <v>0.8765596378213812</v>
+        <v>0.9800472291067871</v>
       </c>
       <c r="F14">
-        <v>0.8821350247875962</v>
+        <v>0.9975879253588904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032695916561474</v>
+        <v>1.038111541735417</v>
       </c>
       <c r="J14">
-        <v>0.8843787130522225</v>
+        <v>0.9867734314297306</v>
       </c>
       <c r="K14">
-        <v>1.003773617867174</v>
+        <v>1.027702905704968</v>
       </c>
       <c r="L14">
-        <v>0.8942773282674943</v>
+        <v>0.9953729745285281</v>
       </c>
       <c r="M14">
-        <v>0.8997044127571456</v>
+        <v>1.01257250247357</v>
       </c>
       <c r="N14">
-        <v>0.9205656444058268</v>
+        <v>0.9881747628868556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8491009846108493</v>
+        <v>0.9568221799382498</v>
       </c>
       <c r="D15">
-        <v>0.9893521640168257</v>
+        <v>1.013788535264103</v>
       </c>
       <c r="E15">
-        <v>0.8784609115120003</v>
+        <v>0.9812302641823122</v>
       </c>
       <c r="F15">
-        <v>0.8841201007470072</v>
+        <v>0.9986799822596895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033021532947187</v>
+        <v>1.03845887012743</v>
       </c>
       <c r="J15">
-        <v>0.8862454477773292</v>
+        <v>0.9879457136498986</v>
       </c>
       <c r="K15">
-        <v>1.004404653935973</v>
+        <v>1.028384511957064</v>
       </c>
       <c r="L15">
-        <v>0.8960197368884079</v>
+        <v>0.9964410972969406</v>
       </c>
       <c r="M15">
-        <v>0.9015303607501847</v>
+        <v>1.013554768874479</v>
       </c>
       <c r="N15">
-        <v>0.9218822864926607</v>
+        <v>0.9893487098822384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8617313931532772</v>
+        <v>0.9650245141078534</v>
       </c>
       <c r="D16">
-        <v>0.9935009834535973</v>
+        <v>1.018254496048578</v>
       </c>
       <c r="E16">
-        <v>0.8890728851281083</v>
+        <v>0.9879682381152838</v>
       </c>
       <c r="F16">
-        <v>0.8952168995590667</v>
+        <v>1.004903166199841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034847372423802</v>
+        <v>1.040433072433635</v>
       </c>
       <c r="J16">
-        <v>0.8966537725162851</v>
+        <v>0.9946164884654664</v>
       </c>
       <c r="K16">
-        <v>1.007951553475996</v>
+        <v>1.032266066947707</v>
       </c>
       <c r="L16">
-        <v>0.9057385927642281</v>
+        <v>1.002520853912251</v>
       </c>
       <c r="M16">
-        <v>0.9117330366719739</v>
+        <v>1.019148033947726</v>
       </c>
       <c r="N16">
-        <v>0.929222984115794</v>
+        <v>0.9960289579631934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.869212294335532</v>
+        <v>0.9700133310426658</v>
       </c>
       <c r="D17">
-        <v>0.9959968524117393</v>
+        <v>1.020979684675636</v>
       </c>
       <c r="E17">
-        <v>0.8953729370888701</v>
+        <v>0.9920724012631204</v>
       </c>
       <c r="F17">
-        <v>0.9018173389499434</v>
+        <v>1.008696479457206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03593675827438</v>
+        <v>1.041631916566972</v>
       </c>
       <c r="J17">
-        <v>0.9028241630744354</v>
+        <v>0.9986747061531928</v>
       </c>
       <c r="K17">
-        <v>1.010075437271853</v>
+        <v>1.034629598649217</v>
       </c>
       <c r="L17">
-        <v>0.9115030596285975</v>
+        <v>1.006220872606254</v>
       </c>
       <c r="M17">
-        <v>0.9177977194422763</v>
+        <v>1.022553726902266</v>
       </c>
       <c r="N17">
-        <v>0.9335740887820908</v>
+        <v>1.00009293878552</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.873435266796152</v>
+        <v>0.9728706604963711</v>
       </c>
       <c r="D18">
-        <v>0.9974178233221757</v>
+        <v>1.022543435138162</v>
       </c>
       <c r="E18">
-        <v>0.8989339110619903</v>
+        <v>0.9944250304241662</v>
       </c>
       <c r="F18">
-        <v>0.9055518232978741</v>
+        <v>1.010871808349833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03655380507817</v>
+        <v>1.042317754546189</v>
       </c>
       <c r="J18">
-        <v>0.90630893891663</v>
+        <v>1.000999265960221</v>
       </c>
       <c r="K18">
-        <v>1.011281277855879</v>
+        <v>1.035984063600777</v>
       </c>
       <c r="L18">
-        <v>0.9147594513665623</v>
+        <v>1.00834069402939</v>
       </c>
       <c r="M18">
-        <v>0.9212276824775866</v>
+        <v>1.024505482375296</v>
       </c>
       <c r="N18">
-        <v>0.9360310652782577</v>
+        <v>1.002420799734105</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8748528850623651</v>
+        <v>0.9738363498950021</v>
       </c>
       <c r="D19">
-        <v>0.9978967257954607</v>
+        <v>1.023072401701453</v>
       </c>
       <c r="E19">
-        <v>0.9001300254372322</v>
+        <v>0.9952204676250104</v>
       </c>
       <c r="F19">
-        <v>0.9068067851755837</v>
+        <v>1.011607442264324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036761232147451</v>
+        <v>1.042549401642256</v>
       </c>
       <c r="J19">
-        <v>0.9074789844971082</v>
+        <v>1.001784925151426</v>
       </c>
       <c r="K19">
-        <v>1.011687124564158</v>
+        <v>1.036441941321002</v>
       </c>
       <c r="L19">
-        <v>0.9158529494724381</v>
+        <v>1.009057225716711</v>
       </c>
       <c r="M19">
-        <v>0.9223800755408335</v>
+        <v>1.025165294232464</v>
       </c>
       <c r="N19">
-        <v>0.9368559518859171</v>
+        <v>1.003207574651478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8684245745725984</v>
+        <v>0.9694835949378914</v>
       </c>
       <c r="D20">
-        <v>0.9957327442810994</v>
+        <v>1.020690002136463</v>
       </c>
       <c r="E20">
-        <v>0.8947090631100353</v>
+        <v>0.9916363916428083</v>
       </c>
       <c r="F20">
-        <v>0.9011214054305627</v>
+        <v>1.008293398898704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035821813980591</v>
+        <v>1.041504698160045</v>
       </c>
       <c r="J20">
-        <v>0.9021742617034414</v>
+        <v>0.9982437594562837</v>
       </c>
       <c r="K20">
-        <v>1.009851045555839</v>
+        <v>1.034378544074972</v>
       </c>
       <c r="L20">
-        <v>0.9108958189752466</v>
+        <v>1.005827916720618</v>
       </c>
       <c r="M20">
-        <v>0.9171584208634037</v>
+        <v>1.022191969778773</v>
       </c>
       <c r="N20">
-        <v>0.9331158392390614</v>
+        <v>0.9996613800948715</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8457396474364366</v>
+        <v>0.9546878952768563</v>
       </c>
       <c r="D21">
-        <v>0.9882624252625021</v>
+        <v>1.012629574329368</v>
       </c>
       <c r="E21">
-        <v>0.8756422167273047</v>
+        <v>0.9794790811668498</v>
       </c>
       <c r="F21">
-        <v>0.8811775189604891</v>
+        <v>0.997063533854378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032538982521631</v>
+        <v>1.037944668852005</v>
       </c>
       <c r="J21">
-        <v>0.8834777466928821</v>
+        <v>0.9862103371393101</v>
       </c>
       <c r="K21">
-        <v>1.003469634726347</v>
+        <v>1.027375561908703</v>
       </c>
       <c r="L21">
-        <v>0.8934364429835189</v>
+        <v>0.9948599447235608</v>
       </c>
       <c r="M21">
-        <v>0.898823577577071</v>
+        <v>1.012100752864644</v>
       </c>
       <c r="N21">
-        <v>0.9199301722209768</v>
+        <v>0.9876108689379545</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8297395968333037</v>
+        <v>0.9448247231360259</v>
       </c>
       <c r="D22">
-        <v>0.9831626928022843</v>
+        <v>1.007291114290325</v>
       </c>
       <c r="E22">
-        <v>0.8622586548273734</v>
+        <v>0.9713978434679993</v>
       </c>
       <c r="F22">
-        <v>0.867237017379716</v>
+        <v>0.9896093422134496</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030265161522023</v>
+        <v>1.035566574331629</v>
       </c>
       <c r="J22">
-        <v>0.8703185750089258</v>
+        <v>0.9781932731545128</v>
       </c>
       <c r="K22">
-        <v>0.9990752455120469</v>
+        <v>1.022719503433683</v>
       </c>
       <c r="L22">
-        <v>0.8811607097806878</v>
+        <v>0.9875580366883674</v>
       </c>
       <c r="M22">
-        <v>0.8859933613980102</v>
+        <v>1.005389489100828</v>
       </c>
       <c r="N22">
-        <v>0.9106488606690224</v>
+        <v>0.9795824198027288</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8384158318180261</v>
+        <v>0.950111301578681</v>
       </c>
       <c r="D23">
-        <v>0.9859098516249916</v>
+        <v>1.010148863166578</v>
       </c>
       <c r="E23">
-        <v>0.869509057935939</v>
+        <v>0.9757269390863508</v>
       </c>
       <c r="F23">
-        <v>0.8747824954315746</v>
+        <v>0.9936014344980446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031493180054644</v>
+        <v>1.036841525746661</v>
       </c>
       <c r="J23">
-        <v>0.877451057048767</v>
+        <v>0.9824897781510035</v>
       </c>
       <c r="K23">
-        <v>1.001446282443064</v>
+        <v>1.02521369687595</v>
       </c>
       <c r="L23">
-        <v>0.8878129506345415</v>
+        <v>0.9914707189100941</v>
       </c>
       <c r="M23">
-        <v>0.8929392431063747</v>
+        <v>1.008984944660569</v>
       </c>
       <c r="N23">
-        <v>0.9156793983963203</v>
+        <v>0.9838850263291303</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8687809410175685</v>
+        <v>0.9697231214223467</v>
       </c>
       <c r="D24">
-        <v>0.9958521901561703</v>
+        <v>1.020820976562519</v>
       </c>
       <c r="E24">
-        <v>0.8950093871817206</v>
+        <v>0.9918335324505181</v>
       </c>
       <c r="F24">
-        <v>0.9014362211676114</v>
+        <v>1.00847564815849</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035873808718192</v>
+        <v>1.041562223983343</v>
       </c>
       <c r="J24">
-        <v>0.9024682738840278</v>
+        <v>0.998438616448702</v>
       </c>
       <c r="K24">
-        <v>1.009952539639316</v>
+        <v>1.034492059074075</v>
       </c>
       <c r="L24">
-        <v>0.9111705289848868</v>
+        <v>1.0060055944199</v>
       </c>
       <c r="M24">
-        <v>0.9174476213123741</v>
+        <v>1.022355539017251</v>
       </c>
       <c r="N24">
-        <v>0.9333231501744159</v>
+        <v>0.9998565138065694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8985555242714165</v>
+        <v>0.9904437806380016</v>
       </c>
       <c r="D25">
-        <v>1.006035054916151</v>
+        <v>1.032204005801677</v>
       </c>
       <c r="E25">
-        <v>0.9201798925022087</v>
+        <v>1.008924358629276</v>
       </c>
       <c r="F25">
-        <v>0.9278790608378259</v>
+        <v>1.024291725427362</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040242190100273</v>
+        <v>1.046518971762777</v>
       </c>
       <c r="J25">
-        <v>0.9270557264934048</v>
+        <v>1.015297085808162</v>
       </c>
       <c r="K25">
-        <v>1.018540401299536</v>
+        <v>1.044322150093778</v>
       </c>
       <c r="L25">
-        <v>0.934158080110801</v>
+        <v>1.021385697264641</v>
       </c>
       <c r="M25">
-        <v>0.9417106355426684</v>
+        <v>1.036524294035462</v>
       </c>
       <c r="N25">
-        <v>0.9506509143345914</v>
+        <v>1.016738924126213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005669803274955</v>
+        <v>0.9749491308488929</v>
       </c>
       <c r="D2">
-        <v>1.040627474997408</v>
+        <v>1.037496400881087</v>
       </c>
       <c r="E2">
-        <v>1.021526160108771</v>
+        <v>0.9897557883784253</v>
       </c>
       <c r="F2">
-        <v>1.035971956661149</v>
+        <v>0.9888292197222133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050126854330587</v>
+        <v>1.050131970073169</v>
       </c>
       <c r="J2">
-        <v>1.027682243944445</v>
+        <v>0.997905826952298</v>
       </c>
       <c r="K2">
-        <v>1.05154839812768</v>
+        <v>1.048456944929191</v>
       </c>
       <c r="L2">
-        <v>1.03269353092046</v>
+        <v>1.001359710682702</v>
       </c>
       <c r="M2">
-        <v>1.04695189946244</v>
+        <v>1.00044640670387</v>
       </c>
       <c r="N2">
-        <v>1.029141670607647</v>
+        <v>1.003427008348558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016100555626386</v>
+        <v>0.9805998678612787</v>
       </c>
       <c r="D3">
-        <v>1.046421710054315</v>
+        <v>1.041080545550367</v>
       </c>
       <c r="E3">
-        <v>1.030178115914833</v>
+        <v>0.9951079674497384</v>
       </c>
       <c r="F3">
-        <v>1.043998746792621</v>
+        <v>0.9960518445217856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052574686625519</v>
+        <v>1.052286180409151</v>
       </c>
       <c r="J3">
-        <v>1.036161722987302</v>
+        <v>1.001633744172239</v>
       </c>
       <c r="K3">
-        <v>1.056493169619581</v>
+        <v>1.051213449664893</v>
       </c>
       <c r="L3">
-        <v>1.040438891158343</v>
+        <v>1.005803827813317</v>
       </c>
       <c r="M3">
-        <v>1.054097983831567</v>
+        <v>1.006735493245381</v>
       </c>
       <c r="N3">
-        <v>1.037633191483355</v>
+        <v>1.004662349474524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022595560961976</v>
+        <v>0.9841363466429346</v>
       </c>
       <c r="D4">
-        <v>1.050037737330375</v>
+        <v>1.043298233184784</v>
       </c>
       <c r="E4">
-        <v>1.035572677200493</v>
+        <v>0.9984464787013183</v>
       </c>
       <c r="F4">
-        <v>1.049006173612481</v>
+        <v>1.000522725824063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054086813214832</v>
+        <v>1.053588632197861</v>
       </c>
       <c r="J4">
-        <v>1.0414384133818</v>
+        <v>1.003954739403955</v>
       </c>
       <c r="K4">
-        <v>1.059567550483695</v>
+        <v>1.052900729779785</v>
       </c>
       <c r="L4">
-        <v>1.045259921917324</v>
+        <v>1.008563689589125</v>
       </c>
       <c r="M4">
-        <v>1.058547037686794</v>
+        <v>1.010614846097275</v>
       </c>
       <c r="N4">
-        <v>1.042917375383458</v>
+        <v>1.00543144919432</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025269650473086</v>
+        <v>0.985596081081731</v>
       </c>
       <c r="D5">
-        <v>1.051528071868979</v>
+        <v>1.044207438651112</v>
       </c>
       <c r="E5">
-        <v>1.037795212487374</v>
+        <v>0.9998219380788158</v>
       </c>
       <c r="F5">
-        <v>1.051069740568812</v>
+        <v>1.002356743827497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054706329980923</v>
+        <v>1.054115304975226</v>
       </c>
       <c r="J5">
-        <v>1.043609989509797</v>
+        <v>1.004909931332632</v>
       </c>
       <c r="K5">
-        <v>1.060831941480479</v>
+        <v>1.053588086320932</v>
       </c>
       <c r="L5">
-        <v>1.047244201035657</v>
+        <v>1.009697858460759</v>
       </c>
       <c r="M5">
-        <v>1.060378378785449</v>
+        <v>1.012202919571981</v>
       </c>
       <c r="N5">
-        <v>1.045092035398639</v>
+        <v>1.005747958462712</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025715454967115</v>
+        <v>0.9858396398901709</v>
       </c>
       <c r="D6">
-        <v>1.051776611100913</v>
+        <v>1.044358774971902</v>
       </c>
       <c r="E6">
-        <v>1.038165820699763</v>
+        <v>1.000051287558471</v>
       </c>
       <c r="F6">
-        <v>1.051413868940895</v>
+        <v>1.002662092963006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05480942783787</v>
+        <v>1.054202538666405</v>
       </c>
       <c r="J6">
-        <v>1.043971961469696</v>
+        <v>1.005069141583512</v>
       </c>
       <c r="K6">
-        <v>1.061042643071491</v>
+        <v>1.053702237166322</v>
       </c>
       <c r="L6">
-        <v>1.047574964907864</v>
+        <v>1.009886805467993</v>
       </c>
       <c r="M6">
-        <v>1.060683656342343</v>
+        <v>1.012467126637868</v>
       </c>
       <c r="N6">
-        <v>1.045454521400241</v>
+        <v>1.00580071319749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02263150837939</v>
+        <v>0.9841559556565633</v>
       </c>
       <c r="D7">
-        <v>1.05005776597003</v>
+        <v>1.043310471373468</v>
       </c>
       <c r="E7">
-        <v>1.035602548689243</v>
+        <v>0.9984649656415022</v>
       </c>
       <c r="F7">
-        <v>1.049033906561762</v>
+        <v>1.000547407334186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054095153564059</v>
+        <v>1.053595750405767</v>
       </c>
       <c r="J7">
-        <v>1.041467609363395</v>
+        <v>1.003967581900004</v>
       </c>
       <c r="K7">
-        <v>1.059584553313572</v>
+        <v>1.052909999273369</v>
       </c>
       <c r="L7">
-        <v>1.045286598939789</v>
+        <v>1.008578944843358</v>
       </c>
       <c r="M7">
-        <v>1.058571658041963</v>
+        <v>1.010636230872878</v>
       </c>
       <c r="N7">
-        <v>1.042946612826696</v>
+        <v>1.005435704683299</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009250472526445</v>
+        <v>0.9768847444701458</v>
       </c>
       <c r="D8">
-        <v>1.042614559986137</v>
+        <v>1.038729455492888</v>
       </c>
       <c r="E8">
-        <v>1.024494545937329</v>
+        <v>0.9915915570495355</v>
       </c>
       <c r="F8">
-        <v>1.03872521992165</v>
+        <v>0.9913140022893616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050969615608595</v>
+        <v>1.050879589494813</v>
       </c>
       <c r="J8">
-        <v>1.030593699361086</v>
+        <v>0.9991854009228118</v>
       </c>
       <c r="K8">
-        <v>1.053246646323734</v>
+        <v>1.049409173216111</v>
       </c>
       <c r="L8">
-        <v>1.035352638212171</v>
+        <v>1.002886643707094</v>
       </c>
       <c r="M8">
-        <v>1.04940498981491</v>
+        <v>1.002612930779824</v>
       </c>
       <c r="N8">
-        <v>1.032057260624928</v>
+        <v>1.003851030084214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9834886402721625</v>
+        <v>0.9630653839995299</v>
       </c>
       <c r="D9">
-        <v>1.028372003587012</v>
+        <v>1.029817704143517</v>
       </c>
       <c r="E9">
-        <v>1.003179725492549</v>
+        <v>0.9784308966484736</v>
       </c>
       <c r="F9">
-        <v>1.018972127557999</v>
+        <v>0.9733361705832756</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044860124983912</v>
+        <v>1.045339179173242</v>
       </c>
       <c r="J9">
-        <v>1.009638239743792</v>
+        <v>0.9899933769439667</v>
       </c>
       <c r="K9">
-        <v>1.041020945184977</v>
+        <v>1.042444849142979</v>
       </c>
       <c r="L9">
-        <v>1.01622142366886</v>
+        <v>0.9918838875073563</v>
       </c>
       <c r="M9">
-        <v>1.031764715818015</v>
+        <v>0.9868771894266634</v>
       </c>
       <c r="N9">
-        <v>1.011072041851353</v>
+        <v>1.00080509386067</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.964453355136987</v>
+        <v>0.953030641116542</v>
       </c>
       <c r="D10">
-        <v>1.017942916323743</v>
+        <v>1.023208249886242</v>
       </c>
       <c r="E10">
-        <v>0.9874986465922228</v>
+        <v>0.9687960510649328</v>
       </c>
       <c r="F10">
-        <v>1.004469270025829</v>
+        <v>0.9599425945085142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040295717714077</v>
+        <v>1.041048062976983</v>
       </c>
       <c r="J10">
-        <v>0.9941519106497612</v>
+        <v>0.9832402172949866</v>
       </c>
       <c r="K10">
-        <v>1.031995590801218</v>
+        <v>1.037170745147951</v>
       </c>
       <c r="L10">
-        <v>1.002097345887776</v>
+        <v>0.9837525232374047</v>
       </c>
       <c r="M10">
-        <v>1.018758296578461</v>
+        <v>0.9750748290730243</v>
       </c>
       <c r="N10">
-        <v>0.9955637203937018</v>
+        <v>0.9985676740963059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9556564152647115</v>
+        <v>0.9484498839934232</v>
       </c>
       <c r="D11">
-        <v>1.013155338434267</v>
+        <v>1.020158097176591</v>
       </c>
       <c r="E11">
-        <v>0.9802736452559185</v>
+        <v>0.9643755818060182</v>
       </c>
       <c r="F11">
-        <v>0.9977969155599933</v>
+        <v>0.9537343993223836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038178030758232</v>
+        <v>1.039022199134334</v>
       </c>
       <c r="J11">
-        <v>0.9869978136738632</v>
+        <v>0.9801363877912859</v>
       </c>
       <c r="K11">
-        <v>1.027833356684718</v>
+        <v>1.034709617208607</v>
       </c>
       <c r="L11">
-        <v>0.995577412935411</v>
+        <v>0.9800021152479313</v>
       </c>
       <c r="M11">
-        <v>1.012760498763308</v>
+        <v>0.9695849415188273</v>
       </c>
       <c r="N11">
-        <v>0.9883994637795114</v>
+        <v>0.9975395025580889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9522933596211373</v>
+        <v>0.9467087078933422</v>
       </c>
       <c r="D12">
-        <v>1.011330863607034</v>
+        <v>1.018993693396601</v>
       </c>
       <c r="E12">
-        <v>0.9775154023711567</v>
+        <v>0.9626915893374809</v>
       </c>
       <c r="F12">
-        <v>0.9952514154877526</v>
+        <v>0.9513590225200012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037367570942964</v>
+        <v>1.038241702483133</v>
       </c>
       <c r="J12">
-        <v>0.9842635749705599</v>
+        <v>0.9789531690149164</v>
       </c>
       <c r="K12">
-        <v>1.02624415481578</v>
+        <v>1.033765832020658</v>
       </c>
       <c r="L12">
-        <v>0.9930864329280641</v>
+        <v>0.9785702505274735</v>
       </c>
       <c r="M12">
-        <v>1.010470159873624</v>
+        <v>0.9674814562246556</v>
       </c>
       <c r="N12">
-        <v>0.9856613421436281</v>
+        <v>0.9971475850803295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9530192912804496</v>
+        <v>0.9470840693556442</v>
       </c>
       <c r="D13">
-        <v>1.011724405916946</v>
+        <v>1.019244942672457</v>
       </c>
       <c r="E13">
-        <v>0.9781105976923784</v>
+        <v>0.9630547993570709</v>
       </c>
       <c r="F13">
-        <v>0.995800618823626</v>
+        <v>0.9518718346550222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037542545134259</v>
+        <v>1.038410440045339</v>
       </c>
       <c r="J13">
-        <v>0.9848537328583553</v>
+        <v>0.9792084061537776</v>
       </c>
       <c r="K13">
-        <v>1.026587088355799</v>
+        <v>1.033969671457376</v>
       </c>
       <c r="L13">
-        <v>0.9936240431095281</v>
+        <v>0.978879225035846</v>
       </c>
       <c r="M13">
-        <v>1.010964411016571</v>
+        <v>0.9679357044508751</v>
       </c>
       <c r="N13">
-        <v>0.9862523381233164</v>
+        <v>0.9972321255605917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553804515372283</v>
+        <v>0.9483067949513327</v>
       </c>
       <c r="D14">
-        <v>1.013005503081985</v>
+        <v>1.020062509207506</v>
       </c>
       <c r="E14">
-        <v>0.9800472291067871</v>
+        <v>0.9642372704814373</v>
       </c>
       <c r="F14">
-        <v>0.9975879253588904</v>
+        <v>0.9535395172648173</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038111541735417</v>
+        <v>1.038958272494494</v>
       </c>
       <c r="J14">
-        <v>0.9867734314297306</v>
+        <v>0.9800392226612403</v>
       </c>
       <c r="K14">
-        <v>1.027702905704968</v>
+        <v>1.034632227035336</v>
       </c>
       <c r="L14">
-        <v>0.9953729745285281</v>
+        <v>0.9798845764334113</v>
       </c>
       <c r="M14">
-        <v>1.01257250247357</v>
+        <v>0.9694124260611308</v>
       </c>
       <c r="N14">
-        <v>0.9881747628868556</v>
+        <v>0.9975073178091904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9568221799382498</v>
+        <v>0.9490547568155847</v>
       </c>
       <c r="D15">
-        <v>1.013788535264103</v>
+        <v>1.020561967026417</v>
       </c>
       <c r="E15">
-        <v>0.9812302641823122</v>
+        <v>0.9649601035985552</v>
       </c>
       <c r="F15">
-        <v>0.9986799822596895</v>
+        <v>0.9545575717643305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03845887012743</v>
+        <v>1.039292006300281</v>
       </c>
       <c r="J15">
-        <v>0.9879457136498986</v>
+        <v>0.980546987881234</v>
       </c>
       <c r="K15">
-        <v>1.028384511957064</v>
+        <v>1.035036426481487</v>
       </c>
       <c r="L15">
-        <v>0.9964410972969406</v>
+        <v>0.9804987215657074</v>
       </c>
       <c r="M15">
-        <v>1.013554768874479</v>
+        <v>0.9703135189188175</v>
       </c>
       <c r="N15">
-        <v>0.9893487098822384</v>
+        <v>0.9976755102133221</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9650245141078534</v>
+        <v>0.953329339190821</v>
       </c>
       <c r="D16">
-        <v>1.018254496048578</v>
+        <v>1.023406457111045</v>
       </c>
       <c r="E16">
-        <v>0.9879682381152838</v>
+        <v>0.9690838069336249</v>
       </c>
       <c r="F16">
-        <v>1.004903166199841</v>
+        <v>0.9603453568843663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040433072433635</v>
+        <v>1.041178752314619</v>
       </c>
       <c r="J16">
-        <v>0.9946164884654664</v>
+        <v>0.9834421536230739</v>
       </c>
       <c r="K16">
-        <v>1.032266066947707</v>
+        <v>1.037330105201197</v>
       </c>
       <c r="L16">
-        <v>1.002520853912251</v>
+        <v>0.9839962412240153</v>
       </c>
       <c r="M16">
-        <v>1.019148033947726</v>
+        <v>0.975430591977501</v>
       </c>
       <c r="N16">
-        <v>0.9960289579631934</v>
+        <v>0.9986345715571796</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9700133310426658</v>
+        <v>0.9559448065909694</v>
       </c>
       <c r="D17">
-        <v>1.020979684675636</v>
+        <v>1.025138296608074</v>
       </c>
       <c r="E17">
-        <v>0.9920724012631204</v>
+        <v>0.9716009245091245</v>
       </c>
       <c r="F17">
-        <v>1.008696479457206</v>
+        <v>0.9638613201371948</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041631916566972</v>
+        <v>1.042315538268371</v>
       </c>
       <c r="J17">
-        <v>0.9986747061531928</v>
+        <v>0.9852079610231886</v>
       </c>
       <c r="K17">
-        <v>1.034629598649217</v>
+        <v>1.038719463720469</v>
       </c>
       <c r="L17">
-        <v>1.006220872606254</v>
+        <v>0.9861259148667542</v>
       </c>
       <c r="M17">
-        <v>1.022553726902266</v>
+        <v>0.9785341188085321</v>
       </c>
       <c r="N17">
-        <v>1.00009293878552</v>
+        <v>0.9992195683563456</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9728706604963711</v>
+        <v>0.9574479550931835</v>
       </c>
       <c r="D18">
-        <v>1.022543435138162</v>
+        <v>1.026130532963717</v>
       </c>
       <c r="E18">
-        <v>0.9944250304241662</v>
+        <v>0.9730454993498979</v>
       </c>
       <c r="F18">
-        <v>1.010871808349833</v>
+        <v>0.9658733049051959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042317754546189</v>
+        <v>1.042962633521072</v>
       </c>
       <c r="J18">
-        <v>1.000999265960221</v>
+        <v>0.9862208468903553</v>
       </c>
       <c r="K18">
-        <v>1.035984063600777</v>
+        <v>1.039512964259513</v>
       </c>
       <c r="L18">
-        <v>1.00834069402939</v>
+        <v>0.9873463091883392</v>
       </c>
       <c r="M18">
-        <v>1.024505482375296</v>
+        <v>0.9803083114329312</v>
       </c>
       <c r="N18">
-        <v>1.002420799734105</v>
+        <v>0.9995551441595554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9738363498950021</v>
+        <v>0.9579568060118154</v>
       </c>
       <c r="D19">
-        <v>1.023072401701453</v>
+        <v>1.026465907127708</v>
       </c>
       <c r="E19">
-        <v>0.9952204676250104</v>
+        <v>0.9735341842127664</v>
       </c>
       <c r="F19">
-        <v>1.011607442264324</v>
+        <v>0.9665529724079336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042549401642256</v>
+        <v>1.043180642847602</v>
       </c>
       <c r="J19">
-        <v>1.001784925151426</v>
+        <v>0.9865634085142317</v>
       </c>
       <c r="K19">
-        <v>1.036441941321002</v>
+        <v>1.03978074324282</v>
       </c>
       <c r="L19">
-        <v>1.009057225716711</v>
+        <v>0.9877588507226953</v>
       </c>
       <c r="M19">
-        <v>1.025165294232464</v>
+        <v>0.9809073501450153</v>
       </c>
       <c r="N19">
-        <v>1.003207574651478</v>
+        <v>0.9996686394810441</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694835949378914</v>
+        <v>0.9556665379513217</v>
       </c>
       <c r="D20">
-        <v>1.020690002136463</v>
+        <v>1.024954360657312</v>
       </c>
       <c r="E20">
-        <v>0.9916363916428083</v>
+        <v>0.9713333354783512</v>
       </c>
       <c r="F20">
-        <v>1.008293398898704</v>
+        <v>0.963488158118385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041504698160045</v>
+        <v>1.042195242411647</v>
       </c>
       <c r="J20">
-        <v>0.9982437594562837</v>
+        <v>0.9850202952104753</v>
       </c>
       <c r="K20">
-        <v>1.034378544074972</v>
+        <v>1.038572165079445</v>
       </c>
       <c r="L20">
-        <v>1.005827916720618</v>
+        <v>0.9858997052799673</v>
       </c>
       <c r="M20">
-        <v>1.022191969778773</v>
+        <v>0.9782049157964816</v>
       </c>
       <c r="N20">
-        <v>0.9996613800948715</v>
+        <v>0.9991573946244205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9546878952768563</v>
+        <v>0.9479478665571677</v>
       </c>
       <c r="D21">
-        <v>1.012629574329368</v>
+        <v>1.019822652841223</v>
       </c>
       <c r="E21">
-        <v>0.9794790811668498</v>
+        <v>0.9638902650117133</v>
       </c>
       <c r="F21">
-        <v>0.997063533854378</v>
+        <v>0.9530504138324527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037944668852005</v>
+        <v>1.038797747825715</v>
       </c>
       <c r="J21">
-        <v>0.9862103371393101</v>
+        <v>0.979795434900097</v>
       </c>
       <c r="K21">
-        <v>1.027375561908703</v>
+        <v>1.034437965242442</v>
       </c>
       <c r="L21">
-        <v>0.9948599447235608</v>
+        <v>0.9795896355947276</v>
       </c>
       <c r="M21">
-        <v>1.012100752864644</v>
+        <v>0.9689794095238495</v>
       </c>
       <c r="N21">
-        <v>0.9876108689379545</v>
+        <v>0.9974265667086237</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9448247231360259</v>
+        <v>0.9428624910010922</v>
       </c>
       <c r="D22">
-        <v>1.007291114290325</v>
+        <v>1.016412153974913</v>
       </c>
       <c r="E22">
-        <v>0.9713978434679993</v>
+        <v>0.9589642423308512</v>
       </c>
       <c r="F22">
-        <v>0.9896093422134496</v>
+        <v>0.9460811303848472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035566574331629</v>
+        <v>1.0364977565781</v>
       </c>
       <c r="J22">
-        <v>0.9781932731545128</v>
+        <v>0.9763327698957338</v>
       </c>
       <c r="K22">
-        <v>1.022719503433683</v>
+        <v>1.031665346621392</v>
       </c>
       <c r="L22">
-        <v>0.9875580366883674</v>
+        <v>0.975394943074879</v>
       </c>
       <c r="M22">
-        <v>1.005389489100828</v>
+        <v>0.9628021430032567</v>
       </c>
       <c r="N22">
-        <v>0.9795824198027288</v>
+        <v>0.9962797046941545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.950111301578681</v>
+        <v>0.9455820249577256</v>
       </c>
       <c r="D23">
-        <v>1.010148863166578</v>
+        <v>1.018238801058291</v>
       </c>
       <c r="E23">
-        <v>0.9757269390863508</v>
+        <v>0.961600795345755</v>
       </c>
       <c r="F23">
-        <v>0.9936014344980446</v>
+        <v>0.9498173513967439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036841525746661</v>
+        <v>1.037733652642928</v>
       </c>
       <c r="J23">
-        <v>0.9824897781510035</v>
+        <v>0.9781865233974744</v>
       </c>
       <c r="K23">
-        <v>1.02521369687595</v>
+        <v>1.03315274873046</v>
       </c>
       <c r="L23">
-        <v>0.9914707189100941</v>
+        <v>0.9776418623236721</v>
       </c>
       <c r="M23">
-        <v>1.008984944660569</v>
+        <v>0.9661154088284295</v>
       </c>
       <c r="N23">
-        <v>0.9838850263291303</v>
+        <v>0.9968936599796708</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697231214223467</v>
+        <v>0.9557923445107412</v>
       </c>
       <c r="D24">
-        <v>1.020820976562519</v>
+        <v>1.025037528531962</v>
       </c>
       <c r="E24">
-        <v>0.9918335324505181</v>
+        <v>0.9714543200846264</v>
       </c>
       <c r="F24">
-        <v>1.00847564815849</v>
+        <v>0.9636568933465479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041562223983343</v>
+        <v>1.042249648087783</v>
       </c>
       <c r="J24">
-        <v>0.998438616448702</v>
+        <v>0.9851051458517912</v>
       </c>
       <c r="K24">
-        <v>1.034492059074075</v>
+        <v>1.038638774970226</v>
       </c>
       <c r="L24">
-        <v>1.0060055944199</v>
+        <v>0.9860019867338186</v>
       </c>
       <c r="M24">
-        <v>1.022355539017251</v>
+        <v>0.9783537793153291</v>
       </c>
       <c r="N24">
-        <v>0.9998565138065694</v>
+        <v>0.9991855056162658</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9904437806380016</v>
+        <v>0.9667708806142116</v>
       </c>
       <c r="D25">
-        <v>1.032204005801677</v>
+        <v>1.032230727429776</v>
       </c>
       <c r="E25">
-        <v>1.008924358629276</v>
+        <v>0.9819720511189577</v>
       </c>
       <c r="F25">
-        <v>1.024291725427362</v>
+        <v>0.9782103565138627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046518971762777</v>
+        <v>1.046869248375898</v>
       </c>
       <c r="J25">
-        <v>1.015297085808162</v>
+        <v>0.9924707263456882</v>
       </c>
       <c r="K25">
-        <v>1.044322150093778</v>
+        <v>1.044348489046822</v>
       </c>
       <c r="L25">
-        <v>1.021385697264641</v>
+        <v>0.9948568268077639</v>
       </c>
       <c r="M25">
-        <v>1.036524294035462</v>
+        <v>0.9911566167077964</v>
       </c>
       <c r="N25">
-        <v>1.016738924126213</v>
+        <v>1.001625971876678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9749491308488929</v>
+        <v>1.02008666070398</v>
       </c>
       <c r="D2">
-        <v>1.037496400881087</v>
+        <v>1.034261023275327</v>
       </c>
       <c r="E2">
-        <v>0.9897557883784253</v>
+        <v>1.030171700409559</v>
       </c>
       <c r="F2">
-        <v>0.9888292197222133</v>
+        <v>1.038915499678274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050131970073169</v>
+        <v>1.033509080966286</v>
       </c>
       <c r="J2">
-        <v>0.997905826952298</v>
+        <v>1.02528575741646</v>
       </c>
       <c r="K2">
-        <v>1.048456944929191</v>
+        <v>1.037061006112029</v>
       </c>
       <c r="L2">
-        <v>1.001359710682702</v>
+        <v>1.032983483861769</v>
       </c>
       <c r="M2">
-        <v>1.00044640670387</v>
+        <v>1.041702173788075</v>
       </c>
       <c r="N2">
-        <v>1.003427008348558</v>
+        <v>1.012507370540426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9805998678612787</v>
+        <v>1.021155830324076</v>
       </c>
       <c r="D3">
-        <v>1.041080545550367</v>
+        <v>1.034790527288608</v>
       </c>
       <c r="E3">
-        <v>0.9951079674497384</v>
+        <v>1.031177595475883</v>
       </c>
       <c r="F3">
-        <v>0.9960518445217856</v>
+        <v>1.040148260606695</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052286180409151</v>
+        <v>1.033686467330915</v>
       </c>
       <c r="J3">
-        <v>1.001633744172239</v>
+        <v>1.025991337788148</v>
       </c>
       <c r="K3">
-        <v>1.051213449664893</v>
+        <v>1.03740040677212</v>
       </c>
       <c r="L3">
-        <v>1.005803827813317</v>
+        <v>1.033797146900308</v>
       </c>
       <c r="M3">
-        <v>1.006735493245381</v>
+        <v>1.042743930934674</v>
       </c>
       <c r="N3">
-        <v>1.004662349474524</v>
+        <v>1.012740635244039</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9841363466429346</v>
+        <v>1.021845376943543</v>
       </c>
       <c r="D4">
-        <v>1.043298233184784</v>
+        <v>1.035128666886632</v>
       </c>
       <c r="E4">
-        <v>0.9984464787013183</v>
+        <v>1.031825018975338</v>
       </c>
       <c r="F4">
-        <v>1.000522725824063</v>
+        <v>1.040938105465185</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053588632197861</v>
+        <v>1.033795598235654</v>
       </c>
       <c r="J4">
-        <v>1.003954739403955</v>
+        <v>1.026445102742728</v>
       </c>
       <c r="K4">
-        <v>1.052900729779785</v>
+        <v>1.037614837095609</v>
       </c>
       <c r="L4">
-        <v>1.008563689589125</v>
+        <v>1.034319587825441</v>
       </c>
       <c r="M4">
-        <v>1.010614846097275</v>
+        <v>1.043409646010229</v>
       </c>
       <c r="N4">
-        <v>1.00543144919432</v>
+        <v>1.012890625720032</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.985596081081731</v>
+        <v>1.022134720737394</v>
       </c>
       <c r="D5">
-        <v>1.044207438651112</v>
+        <v>1.035269746425396</v>
       </c>
       <c r="E5">
-        <v>0.9998219380788158</v>
+        <v>1.032096371687901</v>
       </c>
       <c r="F5">
-        <v>1.002356743827497</v>
+        <v>1.041268287298641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054115304975226</v>
+        <v>1.033840123913095</v>
       </c>
       <c r="J5">
-        <v>1.004909931332632</v>
+        <v>1.026635199619279</v>
       </c>
       <c r="K5">
-        <v>1.053588086320932</v>
+        <v>1.037703741881792</v>
       </c>
       <c r="L5">
-        <v>1.009697858460759</v>
+        <v>1.034538254932535</v>
       </c>
       <c r="M5">
-        <v>1.012202919571981</v>
+        <v>1.043687513970806</v>
       </c>
       <c r="N5">
-        <v>1.005747958462712</v>
+        <v>1.01295345578354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9858396398901709</v>
+        <v>1.022183271175306</v>
       </c>
       <c r="D6">
-        <v>1.044358774971902</v>
+        <v>1.035293371275693</v>
       </c>
       <c r="E6">
-        <v>1.000051287558471</v>
+        <v>1.03214188477611</v>
       </c>
       <c r="F6">
-        <v>1.002662092963006</v>
+        <v>1.041323616862526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054202538666405</v>
+        <v>1.033847520616611</v>
       </c>
       <c r="J6">
-        <v>1.005069141583512</v>
+        <v>1.026667078745182</v>
       </c>
       <c r="K6">
-        <v>1.053702237166322</v>
+        <v>1.037718596550657</v>
       </c>
       <c r="L6">
-        <v>1.009886805467993</v>
+        <v>1.034574913484265</v>
       </c>
       <c r="M6">
-        <v>1.012467126637868</v>
+        <v>1.043734052169367</v>
       </c>
       <c r="N6">
-        <v>1.00580071319749</v>
+        <v>1.012963992002775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9841559556565633</v>
+        <v>1.021849245292398</v>
       </c>
       <c r="D7">
-        <v>1.043310471373468</v>
+        <v>1.035130556220414</v>
       </c>
       <c r="E7">
-        <v>0.9984649656415022</v>
+        <v>1.031828648036589</v>
       </c>
       <c r="F7">
-        <v>1.000547407334186</v>
+        <v>1.040942524705643</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053595750405767</v>
+        <v>1.033796198506435</v>
       </c>
       <c r="J7">
-        <v>1.003967581900004</v>
+        <v>1.026447645439275</v>
       </c>
       <c r="K7">
-        <v>1.052909999273369</v>
+        <v>1.037616029925324</v>
       </c>
       <c r="L7">
-        <v>1.008578944843358</v>
+        <v>1.034322513461178</v>
       </c>
       <c r="M7">
-        <v>1.010636230872878</v>
+        <v>1.043413366741228</v>
       </c>
       <c r="N7">
-        <v>1.005435704683299</v>
+        <v>1.012891466144934</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9768847444701458</v>
+        <v>1.020448465455977</v>
       </c>
       <c r="D8">
-        <v>1.038729455492888</v>
+        <v>1.034440899964539</v>
       </c>
       <c r="E8">
-        <v>0.9915915570495355</v>
+        <v>1.030512365656282</v>
       </c>
       <c r="F8">
-        <v>0.9913140022893616</v>
+        <v>1.03933374316892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050879589494813</v>
+        <v>1.033570199253946</v>
       </c>
       <c r="J8">
-        <v>0.9991854009228118</v>
+        <v>1.025524791539767</v>
       </c>
       <c r="K8">
-        <v>1.049409173216111</v>
+        <v>1.037176781438759</v>
       </c>
       <c r="L8">
-        <v>1.002886643707094</v>
+        <v>1.033259306509276</v>
       </c>
       <c r="M8">
-        <v>1.002612930779824</v>
+        <v>1.04205597734812</v>
       </c>
       <c r="N8">
-        <v>1.003851030084214</v>
+        <v>1.012586400150322</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9630653839995299</v>
+        <v>1.017962491892162</v>
       </c>
       <c r="D9">
-        <v>1.029817704143517</v>
+        <v>1.033191300838135</v>
       </c>
       <c r="E9">
-        <v>0.9784308966484736</v>
+        <v>1.02816624177109</v>
       </c>
       <c r="F9">
-        <v>0.9733361705832756</v>
+        <v>1.036438542379633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045339179173242</v>
+        <v>1.033128687448099</v>
       </c>
       <c r="J9">
-        <v>0.9899933769439667</v>
+        <v>1.02387708395726</v>
       </c>
       <c r="K9">
-        <v>1.042444849142979</v>
+        <v>1.03636306825862</v>
       </c>
       <c r="L9">
-        <v>0.9918838875073563</v>
+        <v>1.031354587844049</v>
       </c>
       <c r="M9">
-        <v>0.9868771894266634</v>
+        <v>1.039599690239053</v>
       </c>
       <c r="N9">
-        <v>1.00080509386067</v>
+        <v>1.012041535903474</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.953030641116542</v>
+        <v>1.016293062297336</v>
       </c>
       <c r="D10">
-        <v>1.023208249886242</v>
+        <v>1.032335138774957</v>
       </c>
       <c r="E10">
-        <v>0.9687960510649328</v>
+        <v>1.026583947588735</v>
       </c>
       <c r="F10">
-        <v>0.9599425945085142</v>
+        <v>1.034467349400126</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041048062976983</v>
+        <v>1.032805226359944</v>
       </c>
       <c r="J10">
-        <v>0.9832402172949866</v>
+        <v>1.022763938810997</v>
       </c>
       <c r="K10">
-        <v>1.037170745147951</v>
+        <v>1.035793882773077</v>
       </c>
       <c r="L10">
-        <v>0.9837525232374047</v>
+        <v>1.030063529428932</v>
       </c>
       <c r="M10">
-        <v>0.9750748290730243</v>
+        <v>1.03791843290678</v>
       </c>
       <c r="N10">
-        <v>0.9985676740963059</v>
+        <v>1.01167331908334</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9484498839934232</v>
+        <v>1.015567242599783</v>
       </c>
       <c r="D11">
-        <v>1.020158097176591</v>
+        <v>1.031958923136209</v>
       </c>
       <c r="E11">
-        <v>0.9643755818060182</v>
+        <v>1.0258944066485</v>
       </c>
       <c r="F11">
-        <v>0.9537343993223836</v>
+        <v>1.03360393688068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039022199134334</v>
+        <v>1.032658244274816</v>
       </c>
       <c r="J11">
-        <v>0.9801363877912859</v>
+        <v>1.022278403564963</v>
       </c>
       <c r="K11">
-        <v>1.034709617208607</v>
+        <v>1.035541072570493</v>
       </c>
       <c r="L11">
-        <v>0.9800021152479313</v>
+        <v>1.029499382103658</v>
       </c>
       <c r="M11">
-        <v>0.9695849415188273</v>
+        <v>1.037179945828323</v>
       </c>
       <c r="N11">
-        <v>0.9975395025580889</v>
+        <v>1.011512680791613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9467087078933422</v>
+        <v>1.015297192276918</v>
       </c>
       <c r="D12">
-        <v>1.018993693396601</v>
+        <v>1.031818353362765</v>
       </c>
       <c r="E12">
-        <v>0.9626915893374809</v>
+        <v>1.025637613188654</v>
       </c>
       <c r="F12">
-        <v>0.9513590225200012</v>
+        <v>1.033281731904073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038241702483133</v>
+        <v>1.032602607056793</v>
       </c>
       <c r="J12">
-        <v>0.9789531690149164</v>
+        <v>1.022097518129406</v>
       </c>
       <c r="K12">
-        <v>1.033765832020658</v>
+        <v>1.035446212162626</v>
       </c>
       <c r="L12">
-        <v>0.9785702505274735</v>
+        <v>1.029289058673161</v>
       </c>
       <c r="M12">
-        <v>0.9674814562246556</v>
+        <v>1.036904052001708</v>
       </c>
       <c r="N12">
-        <v>0.9971475850803295</v>
+        <v>1.011452831034523</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9470840693556442</v>
+        <v>1.015355139386082</v>
       </c>
       <c r="D13">
-        <v>1.019244942672457</v>
+        <v>1.031848543485352</v>
       </c>
       <c r="E13">
-        <v>0.9630547993570709</v>
+        <v>1.025692726562464</v>
       </c>
       <c r="F13">
-        <v>0.9518718346550222</v>
+        <v>1.033350913819724</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038410440045339</v>
+        <v>1.032614588590354</v>
       </c>
       <c r="J13">
-        <v>0.9792084061537776</v>
+        <v>1.02213634300507</v>
       </c>
       <c r="K13">
-        <v>1.033969671457376</v>
+        <v>1.035466603306138</v>
       </c>
       <c r="L13">
-        <v>0.978879225035846</v>
+        <v>1.029334208891159</v>
       </c>
       <c r="M13">
-        <v>0.9679357044508751</v>
+        <v>1.036963304149364</v>
       </c>
       <c r="N13">
-        <v>0.9972321255605917</v>
+        <v>1.011465677251726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9483067949513327</v>
+        <v>1.015544929342329</v>
       </c>
       <c r="D14">
-        <v>1.020062509207506</v>
+        <v>1.031947320465446</v>
       </c>
       <c r="E14">
-        <v>0.9642372704814373</v>
+        <v>1.025873193672457</v>
       </c>
       <c r="F14">
-        <v>0.9535395172648173</v>
+        <v>1.0335773338877</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038958272494494</v>
+        <v>1.032653666542648</v>
       </c>
       <c r="J14">
-        <v>0.9800392226612403</v>
+        <v>1.022263462481764</v>
       </c>
       <c r="K14">
-        <v>1.034632227035336</v>
+        <v>1.035533250880427</v>
       </c>
       <c r="L14">
-        <v>0.9798845764334113</v>
+        <v>1.029482012529699</v>
       </c>
       <c r="M14">
-        <v>0.9694124260611308</v>
+        <v>1.037157172793444</v>
       </c>
       <c r="N14">
-        <v>0.9975073178091904</v>
+        <v>1.011507737304775</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9490547568155847</v>
+        <v>1.015661805573681</v>
       </c>
       <c r="D15">
-        <v>1.020561967026417</v>
+        <v>1.032008070650371</v>
       </c>
       <c r="E15">
-        <v>0.9649601035985552</v>
+        <v>1.025984296792834</v>
       </c>
       <c r="F15">
-        <v>0.9545575717643305</v>
+        <v>1.03371664028068</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039292006300281</v>
+        <v>1.032677605690945</v>
       </c>
       <c r="J15">
-        <v>0.980546987881234</v>
+        <v>1.022341713810815</v>
       </c>
       <c r="K15">
-        <v>1.035036426481487</v>
+        <v>1.035574187993385</v>
       </c>
       <c r="L15">
-        <v>0.9804987215657074</v>
+        <v>1.029572976476065</v>
       </c>
       <c r="M15">
-        <v>0.9703135189188175</v>
+        <v>1.037276411062534</v>
       </c>
       <c r="N15">
-        <v>0.9976755102133221</v>
+        <v>1.011533627787268</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.953329339190821</v>
+        <v>1.016341169991031</v>
       </c>
       <c r="D16">
-        <v>1.023406457111045</v>
+        <v>1.032359991144896</v>
       </c>
       <c r="E16">
-        <v>0.9690838069336249</v>
+        <v>1.026629616949708</v>
       </c>
       <c r="F16">
-        <v>0.9603453568843663</v>
+        <v>1.034524442239873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041178752314619</v>
+        <v>1.032814835116433</v>
       </c>
       <c r="J16">
-        <v>0.9834421536230739</v>
+        <v>1.022796087283963</v>
       </c>
       <c r="K16">
-        <v>1.037330105201197</v>
+        <v>1.035810527058813</v>
       </c>
       <c r="L16">
-        <v>0.9839962412240153</v>
+        <v>1.030100861835409</v>
       </c>
       <c r="M16">
-        <v>0.975430591977501</v>
+        <v>1.037967221926741</v>
       </c>
       <c r="N16">
-        <v>0.9986345715571796</v>
+        <v>1.011683954746405</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9559448065909694</v>
+        <v>1.0167665245403</v>
       </c>
       <c r="D17">
-        <v>1.025138296608074</v>
+        <v>1.032579270332431</v>
       </c>
       <c r="E17">
-        <v>0.9716009245091245</v>
+        <v>1.027033227431947</v>
       </c>
       <c r="F17">
-        <v>0.9638613201371948</v>
+        <v>1.035028503662955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042315538268371</v>
+        <v>1.032899061389043</v>
       </c>
       <c r="J17">
-        <v>0.9852079610231886</v>
+        <v>1.023080153767819</v>
       </c>
       <c r="K17">
-        <v>1.038719463720469</v>
+        <v>1.035957075465264</v>
       </c>
       <c r="L17">
-        <v>0.9861259148667542</v>
+        <v>1.030430617882377</v>
       </c>
       <c r="M17">
-        <v>0.9785341188085321</v>
+        <v>1.038397733163747</v>
       </c>
       <c r="N17">
-        <v>0.9992195683563456</v>
+        <v>1.011777929068172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9574479550931835</v>
+        <v>1.017014342861455</v>
       </c>
       <c r="D18">
-        <v>1.026130532963717</v>
+        <v>1.032706642410045</v>
       </c>
       <c r="E18">
-        <v>0.9730454993498979</v>
+        <v>1.027268222810066</v>
       </c>
       <c r="F18">
-        <v>0.9658733049051959</v>
+        <v>1.035321562405718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042962633521072</v>
+        <v>1.032947521476122</v>
       </c>
       <c r="J18">
-        <v>0.9862208468903553</v>
+        <v>1.023245504102349</v>
       </c>
       <c r="K18">
-        <v>1.039512964259513</v>
+        <v>1.036041942196901</v>
       </c>
       <c r="L18">
-        <v>0.9873463091883392</v>
+        <v>1.030622466355763</v>
       </c>
       <c r="M18">
-        <v>0.9803083114329312</v>
+        <v>1.03864783155784</v>
       </c>
       <c r="N18">
-        <v>0.9995551441595554</v>
+        <v>1.011832627223095</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9579568060118154</v>
+        <v>1.017098794546182</v>
       </c>
       <c r="D19">
-        <v>1.026465907127708</v>
+        <v>1.032749983178288</v>
       </c>
       <c r="E19">
-        <v>0.9735341842127664</v>
+        <v>1.027348278473906</v>
       </c>
       <c r="F19">
-        <v>0.9665529724079336</v>
+        <v>1.03542132677543</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043180642847602</v>
+        <v>1.032963931910208</v>
       </c>
       <c r="J19">
-        <v>0.9865634085142317</v>
+        <v>1.023301826621103</v>
       </c>
       <c r="K19">
-        <v>1.03978074324282</v>
+        <v>1.036070775714601</v>
       </c>
       <c r="L19">
-        <v>0.9877588507226953</v>
+        <v>1.030687798346809</v>
       </c>
       <c r="M19">
-        <v>0.9809073501450153</v>
+        <v>1.038732937384243</v>
       </c>
       <c r="N19">
-        <v>0.9996686394810441</v>
+        <v>1.011851258339239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9556665379513217</v>
+        <v>1.016720917419459</v>
       </c>
       <c r="D20">
-        <v>1.024954360657312</v>
+        <v>1.032555798556416</v>
       </c>
       <c r="E20">
-        <v>0.9713333354783512</v>
+        <v>1.026989967728409</v>
       </c>
       <c r="F20">
-        <v>0.963488158118385</v>
+        <v>1.034974521171172</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042195242411647</v>
+        <v>1.032890093779005</v>
       </c>
       <c r="J20">
-        <v>0.9850202952104753</v>
+        <v>1.023049711411041</v>
       </c>
       <c r="K20">
-        <v>1.038572165079445</v>
+        <v>1.035941415569771</v>
       </c>
       <c r="L20">
-        <v>0.9858997052799673</v>
+        <v>1.030395289180356</v>
       </c>
       <c r="M20">
-        <v>0.9782049157964816</v>
+        <v>1.038351648084304</v>
       </c>
       <c r="N20">
-        <v>0.9991573946244205</v>
+        <v>1.011767858468235</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9479478665571677</v>
+        <v>1.015489053362996</v>
       </c>
       <c r="D21">
-        <v>1.019822652841223</v>
+        <v>1.031918255936345</v>
       </c>
       <c r="E21">
-        <v>0.9638902650117133</v>
+        <v>1.025820069081123</v>
       </c>
       <c r="F21">
-        <v>0.9530504138324527</v>
+        <v>1.033510700192068</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038797747825715</v>
+        <v>1.032642187825908</v>
       </c>
       <c r="J21">
-        <v>0.979795434900097</v>
+        <v>1.022226043800826</v>
       </c>
       <c r="K21">
-        <v>1.034437965242442</v>
+        <v>1.035513651219849</v>
       </c>
       <c r="L21">
-        <v>0.9795896355947276</v>
+        <v>1.029438509459661</v>
       </c>
       <c r="M21">
-        <v>0.9689794095238495</v>
+        <v>1.037100127202935</v>
       </c>
       <c r="N21">
-        <v>0.9974265667086237</v>
+        <v>1.011495356691895</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9428624910010922</v>
+        <v>1.014711933073946</v>
       </c>
       <c r="D22">
-        <v>1.016412153974913</v>
+        <v>1.031512624571788</v>
       </c>
       <c r="E22">
-        <v>0.9589642423308512</v>
+        <v>1.025080643299531</v>
       </c>
       <c r="F22">
-        <v>0.9460811303848472</v>
+        <v>1.03258168117708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0364977565781</v>
+        <v>1.03248029251175</v>
       </c>
       <c r="J22">
-        <v>0.9763327698957338</v>
+        <v>1.021705067446951</v>
       </c>
       <c r="K22">
-        <v>1.031665346621392</v>
+        <v>1.035239169909103</v>
       </c>
       <c r="L22">
-        <v>0.975394943074879</v>
+        <v>1.028832462648646</v>
       </c>
       <c r="M22">
-        <v>0.9628021430032567</v>
+        <v>1.036304059627949</v>
       </c>
       <c r="N22">
-        <v>0.9962797046941545</v>
+        <v>1.011322972823664</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9455820249577256</v>
+        <v>1.015124147625916</v>
       </c>
       <c r="D23">
-        <v>1.018238801058291</v>
+        <v>1.03172811137241</v>
       </c>
       <c r="E23">
-        <v>0.961600795345755</v>
+        <v>1.025472995475404</v>
       </c>
       <c r="F23">
-        <v>0.9498173513967439</v>
+        <v>1.03307499640879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037733652642928</v>
+        <v>1.032566688209097</v>
       </c>
       <c r="J23">
-        <v>0.9781865233974744</v>
+        <v>1.021981542737744</v>
       </c>
       <c r="K23">
-        <v>1.03315274873046</v>
+        <v>1.035385202318755</v>
       </c>
       <c r="L23">
-        <v>0.9776418623236721</v>
+        <v>1.029154166479358</v>
       </c>
       <c r="M23">
-        <v>0.9661154088284295</v>
+        <v>1.036726944619314</v>
       </c>
       <c r="N23">
-        <v>0.9968936599796708</v>
+        <v>1.01141445695669</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9557923445107412</v>
+        <v>1.016741526191386</v>
       </c>
       <c r="D24">
-        <v>1.025037528531962</v>
+        <v>1.032566406078993</v>
       </c>
       <c r="E24">
-        <v>0.9714543200846264</v>
+        <v>1.02700951623605</v>
       </c>
       <c r="F24">
-        <v>0.9636568933465479</v>
+        <v>1.034998916476587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042249648087783</v>
+        <v>1.032894147919266</v>
       </c>
       <c r="J24">
-        <v>0.9851051458517912</v>
+        <v>1.023063468055032</v>
       </c>
       <c r="K24">
-        <v>1.038638774970226</v>
+        <v>1.035948493495287</v>
       </c>
       <c r="L24">
-        <v>0.9860019867338186</v>
+        <v>1.030411254222527</v>
       </c>
       <c r="M24">
-        <v>0.9783537793153291</v>
+        <v>1.038372475073713</v>
       </c>
       <c r="N24">
-        <v>0.9991855056162658</v>
+        <v>1.011772409295737</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9667708806142116</v>
+        <v>1.018607290259752</v>
       </c>
       <c r="D25">
-        <v>1.032230727429776</v>
+        <v>1.033518421075894</v>
       </c>
       <c r="E25">
-        <v>0.9819720511189577</v>
+        <v>1.028775958886752</v>
       </c>
       <c r="F25">
-        <v>0.9782103565138627</v>
+        <v>1.037194218860303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046869248375898</v>
+        <v>1.033247958362286</v>
       </c>
       <c r="J25">
-        <v>0.9924707263456882</v>
+        <v>1.024305626268873</v>
       </c>
       <c r="K25">
-        <v>1.044348489046822</v>
+        <v>1.036578138019562</v>
       </c>
       <c r="L25">
-        <v>0.9948568268077639</v>
+        <v>1.031850727598841</v>
       </c>
       <c r="M25">
-        <v>0.9911566167077964</v>
+        <v>1.040242372947193</v>
       </c>
       <c r="N25">
-        <v>1.001625971876678</v>
+        <v>1.012183267885265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02008666070398</v>
+        <v>0.9749491308488926</v>
       </c>
       <c r="D2">
-        <v>1.034261023275327</v>
+        <v>1.037496400881087</v>
       </c>
       <c r="E2">
-        <v>1.030171700409559</v>
+        <v>0.9897557883784247</v>
       </c>
       <c r="F2">
-        <v>1.038915499678274</v>
+        <v>0.9888292197222125</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033509080966286</v>
+        <v>1.050131970073169</v>
       </c>
       <c r="J2">
-        <v>1.02528575741646</v>
+        <v>0.9979058269522978</v>
       </c>
       <c r="K2">
-        <v>1.037061006112029</v>
+        <v>1.048456944929191</v>
       </c>
       <c r="L2">
-        <v>1.032983483861769</v>
+        <v>1.001359710682701</v>
       </c>
       <c r="M2">
-        <v>1.041702173788075</v>
+        <v>1.000446406703869</v>
       </c>
       <c r="N2">
-        <v>1.012507370540426</v>
+        <v>1.003427008348558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021155830324076</v>
+        <v>0.9805998678612784</v>
       </c>
       <c r="D3">
-        <v>1.034790527288608</v>
+        <v>1.041080545550367</v>
       </c>
       <c r="E3">
-        <v>1.031177595475883</v>
+        <v>0.995107967449738</v>
       </c>
       <c r="F3">
-        <v>1.040148260606695</v>
+        <v>0.9960518445217854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033686467330915</v>
+        <v>1.052286180409151</v>
       </c>
       <c r="J3">
-        <v>1.025991337788148</v>
+        <v>1.001633744172239</v>
       </c>
       <c r="K3">
-        <v>1.03740040677212</v>
+        <v>1.051213449664894</v>
       </c>
       <c r="L3">
-        <v>1.033797146900308</v>
+        <v>1.005803827813317</v>
       </c>
       <c r="M3">
-        <v>1.042743930934674</v>
+        <v>1.00673549324538</v>
       </c>
       <c r="N3">
-        <v>1.012740635244039</v>
+        <v>1.004662349474524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021845376943543</v>
+        <v>0.9841363466429351</v>
       </c>
       <c r="D4">
-        <v>1.035128666886632</v>
+        <v>1.043298233184784</v>
       </c>
       <c r="E4">
-        <v>1.031825018975338</v>
+        <v>0.9984464787013186</v>
       </c>
       <c r="F4">
-        <v>1.040938105465185</v>
+        <v>1.000522725824063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033795598235654</v>
+        <v>1.053588632197862</v>
       </c>
       <c r="J4">
-        <v>1.026445102742728</v>
+        <v>1.003954739403955</v>
       </c>
       <c r="K4">
-        <v>1.037614837095609</v>
+        <v>1.052900729779785</v>
       </c>
       <c r="L4">
-        <v>1.034319587825441</v>
+        <v>1.008563689589125</v>
       </c>
       <c r="M4">
-        <v>1.043409646010229</v>
+        <v>1.010614846097275</v>
       </c>
       <c r="N4">
-        <v>1.012890625720032</v>
+        <v>1.00543144919432</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022134720737394</v>
+        <v>0.9855960810817306</v>
       </c>
       <c r="D5">
-        <v>1.035269746425396</v>
+        <v>1.044207438651112</v>
       </c>
       <c r="E5">
-        <v>1.032096371687901</v>
+        <v>0.9998219380788154</v>
       </c>
       <c r="F5">
-        <v>1.041268287298641</v>
+        <v>1.002356743827497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033840123913095</v>
+        <v>1.054115304975226</v>
       </c>
       <c r="J5">
-        <v>1.026635199619279</v>
+        <v>1.004909931332631</v>
       </c>
       <c r="K5">
-        <v>1.037703741881792</v>
+        <v>1.053588086320933</v>
       </c>
       <c r="L5">
-        <v>1.034538254932535</v>
+        <v>1.009697858460759</v>
       </c>
       <c r="M5">
-        <v>1.043687513970806</v>
+        <v>1.01220291957198</v>
       </c>
       <c r="N5">
-        <v>1.01295345578354</v>
+        <v>1.005747958462711</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022183271175306</v>
+        <v>0.9858396398901712</v>
       </c>
       <c r="D6">
-        <v>1.035293371275693</v>
+        <v>1.044358774971901</v>
       </c>
       <c r="E6">
-        <v>1.03214188477611</v>
+        <v>1.000051287558471</v>
       </c>
       <c r="F6">
-        <v>1.041323616862526</v>
+        <v>1.002662092963007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033847520616611</v>
+        <v>1.054202538666405</v>
       </c>
       <c r="J6">
-        <v>1.026667078745182</v>
+        <v>1.005069141583513</v>
       </c>
       <c r="K6">
-        <v>1.037718596550657</v>
+        <v>1.053702237166322</v>
       </c>
       <c r="L6">
-        <v>1.034574913484265</v>
+        <v>1.009886805467994</v>
       </c>
       <c r="M6">
-        <v>1.043734052169367</v>
+        <v>1.012467126637869</v>
       </c>
       <c r="N6">
-        <v>1.012963992002775</v>
+        <v>1.005800713197491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021849245292398</v>
+        <v>0.9841559556565629</v>
       </c>
       <c r="D7">
-        <v>1.035130556220414</v>
+        <v>1.043310471373468</v>
       </c>
       <c r="E7">
-        <v>1.031828648036589</v>
+        <v>0.9984649656415019</v>
       </c>
       <c r="F7">
-        <v>1.040942524705643</v>
+        <v>1.000547407334186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033796198506435</v>
+        <v>1.053595750405766</v>
       </c>
       <c r="J7">
-        <v>1.026447645439275</v>
+        <v>1.003967581900004</v>
       </c>
       <c r="K7">
-        <v>1.037616029925324</v>
+        <v>1.052909999273369</v>
       </c>
       <c r="L7">
-        <v>1.034322513461178</v>
+        <v>1.008578944843358</v>
       </c>
       <c r="M7">
-        <v>1.043413366741228</v>
+        <v>1.010636230872878</v>
       </c>
       <c r="N7">
-        <v>1.012891466144934</v>
+        <v>1.005435704683299</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020448465455977</v>
+        <v>0.9768847444701451</v>
       </c>
       <c r="D8">
-        <v>1.034440899964539</v>
+        <v>1.038729455492888</v>
       </c>
       <c r="E8">
-        <v>1.030512365656282</v>
+        <v>0.9915915570495346</v>
       </c>
       <c r="F8">
-        <v>1.03933374316892</v>
+        <v>0.991314002289361</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033570199253946</v>
+        <v>1.050879589494813</v>
       </c>
       <c r="J8">
-        <v>1.025524791539767</v>
+        <v>0.9991854009228111</v>
       </c>
       <c r="K8">
-        <v>1.037176781438759</v>
+        <v>1.049409173216111</v>
       </c>
       <c r="L8">
-        <v>1.033259306509276</v>
+        <v>1.002886643707094</v>
       </c>
       <c r="M8">
-        <v>1.04205597734812</v>
+        <v>1.002612930779823</v>
       </c>
       <c r="N8">
-        <v>1.012586400150322</v>
+        <v>1.003851030084214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017962491892162</v>
+        <v>0.9630653839995297</v>
       </c>
       <c r="D9">
-        <v>1.033191300838135</v>
+        <v>1.029817704143517</v>
       </c>
       <c r="E9">
-        <v>1.02816624177109</v>
+        <v>0.9784308966484729</v>
       </c>
       <c r="F9">
-        <v>1.036438542379633</v>
+        <v>0.9733361705832747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033128687448099</v>
+        <v>1.045339179173242</v>
       </c>
       <c r="J9">
-        <v>1.02387708395726</v>
+        <v>0.9899933769439665</v>
       </c>
       <c r="K9">
-        <v>1.03636306825862</v>
+        <v>1.042444849142979</v>
       </c>
       <c r="L9">
-        <v>1.031354587844049</v>
+        <v>0.9918838875073558</v>
       </c>
       <c r="M9">
-        <v>1.039599690239053</v>
+        <v>0.9868771894266627</v>
       </c>
       <c r="N9">
-        <v>1.012041535903474</v>
+        <v>1.00080509386067</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016293062297336</v>
+        <v>0.9530306411165427</v>
       </c>
       <c r="D10">
-        <v>1.032335138774957</v>
+        <v>1.023208249886242</v>
       </c>
       <c r="E10">
-        <v>1.026583947588735</v>
+        <v>0.9687960510649334</v>
       </c>
       <c r="F10">
-        <v>1.034467349400126</v>
+        <v>0.959942594508515</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032805226359944</v>
+        <v>1.041048062976983</v>
       </c>
       <c r="J10">
-        <v>1.022763938810997</v>
+        <v>0.9832402172949872</v>
       </c>
       <c r="K10">
-        <v>1.035793882773077</v>
+        <v>1.037170745147951</v>
       </c>
       <c r="L10">
-        <v>1.030063529428932</v>
+        <v>0.9837525232374056</v>
       </c>
       <c r="M10">
-        <v>1.03791843290678</v>
+        <v>0.9750748290730252</v>
       </c>
       <c r="N10">
-        <v>1.01167331908334</v>
+        <v>0.9985676740963062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015567242599783</v>
+        <v>0.9484498839934239</v>
       </c>
       <c r="D11">
-        <v>1.031958923136209</v>
+        <v>1.020158097176591</v>
       </c>
       <c r="E11">
-        <v>1.0258944066485</v>
+        <v>0.9643755818060182</v>
       </c>
       <c r="F11">
-        <v>1.03360393688068</v>
+        <v>0.9537343993223839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032658244274816</v>
+        <v>1.039022199134334</v>
       </c>
       <c r="J11">
-        <v>1.022278403564963</v>
+        <v>0.9801363877912862</v>
       </c>
       <c r="K11">
-        <v>1.035541072570493</v>
+        <v>1.034709617208607</v>
       </c>
       <c r="L11">
-        <v>1.029499382103658</v>
+        <v>0.9800021152479316</v>
       </c>
       <c r="M11">
-        <v>1.037179945828323</v>
+        <v>0.9695849415188277</v>
       </c>
       <c r="N11">
-        <v>1.011512680791613</v>
+        <v>0.997539502558089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015297192276918</v>
+        <v>0.9467087078933425</v>
       </c>
       <c r="D12">
-        <v>1.031818353362765</v>
+        <v>1.018993693396601</v>
       </c>
       <c r="E12">
-        <v>1.025637613188654</v>
+        <v>0.9626915893374813</v>
       </c>
       <c r="F12">
-        <v>1.033281731904073</v>
+        <v>0.9513590225200018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032602607056793</v>
+        <v>1.038241702483133</v>
       </c>
       <c r="J12">
-        <v>1.022097518129406</v>
+        <v>0.9789531690149168</v>
       </c>
       <c r="K12">
-        <v>1.035446212162626</v>
+        <v>1.033765832020658</v>
       </c>
       <c r="L12">
-        <v>1.029289058673161</v>
+        <v>0.9785702505274738</v>
       </c>
       <c r="M12">
-        <v>1.036904052001708</v>
+        <v>0.9674814562246563</v>
       </c>
       <c r="N12">
-        <v>1.011452831034523</v>
+        <v>0.9971475850803297</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015355139386082</v>
+        <v>0.9470840693556435</v>
       </c>
       <c r="D13">
-        <v>1.031848543485352</v>
+        <v>1.019244942672456</v>
       </c>
       <c r="E13">
-        <v>1.025692726562464</v>
+        <v>0.9630547993570704</v>
       </c>
       <c r="F13">
-        <v>1.033350913819724</v>
+        <v>0.9518718346550212</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032614588590354</v>
+        <v>1.038410440045338</v>
       </c>
       <c r="J13">
-        <v>1.02213634300507</v>
+        <v>0.9792084061537772</v>
       </c>
       <c r="K13">
-        <v>1.035466603306138</v>
+        <v>1.033969671457375</v>
       </c>
       <c r="L13">
-        <v>1.029334208891159</v>
+        <v>0.9788792250358455</v>
       </c>
       <c r="M13">
-        <v>1.036963304149364</v>
+        <v>0.9679357044508741</v>
       </c>
       <c r="N13">
-        <v>1.011465677251726</v>
+        <v>0.9972321255605916</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015544929342329</v>
+        <v>0.9483067949513327</v>
       </c>
       <c r="D14">
-        <v>1.031947320465446</v>
+        <v>1.020062509207506</v>
       </c>
       <c r="E14">
-        <v>1.025873193672457</v>
+        <v>0.9642372704814374</v>
       </c>
       <c r="F14">
-        <v>1.0335773338877</v>
+        <v>0.9535395172648176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032653666542648</v>
+        <v>1.038958272494493</v>
       </c>
       <c r="J14">
-        <v>1.022263462481764</v>
+        <v>0.9800392226612404</v>
       </c>
       <c r="K14">
-        <v>1.035533250880427</v>
+        <v>1.034632227035335</v>
       </c>
       <c r="L14">
-        <v>1.029482012529699</v>
+        <v>0.9798845764334114</v>
       </c>
       <c r="M14">
-        <v>1.037157172793444</v>
+        <v>0.9694124260611309</v>
       </c>
       <c r="N14">
-        <v>1.011507737304775</v>
+        <v>0.9975073178091904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015661805573681</v>
+        <v>0.9490547568155854</v>
       </c>
       <c r="D15">
-        <v>1.032008070650371</v>
+        <v>1.020561967026418</v>
       </c>
       <c r="E15">
-        <v>1.025984296792834</v>
+        <v>0.9649601035985559</v>
       </c>
       <c r="F15">
-        <v>1.03371664028068</v>
+        <v>0.9545575717643316</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032677605690945</v>
+        <v>1.039292006300282</v>
       </c>
       <c r="J15">
-        <v>1.022341713810815</v>
+        <v>0.9805469878812344</v>
       </c>
       <c r="K15">
-        <v>1.035574187993385</v>
+        <v>1.035036426481487</v>
       </c>
       <c r="L15">
-        <v>1.029572976476065</v>
+        <v>0.9804987215657082</v>
       </c>
       <c r="M15">
-        <v>1.037276411062534</v>
+        <v>0.9703135189188186</v>
       </c>
       <c r="N15">
-        <v>1.011533627787268</v>
+        <v>0.9976755102133223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016341169991031</v>
+        <v>0.953329339190821</v>
       </c>
       <c r="D16">
-        <v>1.032359991144896</v>
+        <v>1.023406457111044</v>
       </c>
       <c r="E16">
-        <v>1.026629616949708</v>
+        <v>0.9690838069336248</v>
       </c>
       <c r="F16">
-        <v>1.034524442239873</v>
+        <v>0.9603453568843662</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032814835116433</v>
+        <v>1.041178752314619</v>
       </c>
       <c r="J16">
-        <v>1.022796087283963</v>
+        <v>0.9834421536230739</v>
       </c>
       <c r="K16">
-        <v>1.035810527058813</v>
+        <v>1.037330105201197</v>
       </c>
       <c r="L16">
-        <v>1.030100861835409</v>
+        <v>0.9839962412240152</v>
       </c>
       <c r="M16">
-        <v>1.037967221926741</v>
+        <v>0.9754305919775009</v>
       </c>
       <c r="N16">
-        <v>1.011683954746405</v>
+        <v>0.9986345715571795</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0167665245403</v>
+        <v>0.9559448065909696</v>
       </c>
       <c r="D17">
-        <v>1.032579270332431</v>
+        <v>1.025138296608074</v>
       </c>
       <c r="E17">
-        <v>1.027033227431947</v>
+        <v>0.9716009245091245</v>
       </c>
       <c r="F17">
-        <v>1.035028503662955</v>
+        <v>0.9638613201371947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032899061389043</v>
+        <v>1.042315538268371</v>
       </c>
       <c r="J17">
-        <v>1.023080153767819</v>
+        <v>0.9852079610231886</v>
       </c>
       <c r="K17">
-        <v>1.035957075465264</v>
+        <v>1.038719463720468</v>
       </c>
       <c r="L17">
-        <v>1.030430617882377</v>
+        <v>0.9861259148667542</v>
       </c>
       <c r="M17">
-        <v>1.038397733163747</v>
+        <v>0.9785341188085319</v>
       </c>
       <c r="N17">
-        <v>1.011777929068172</v>
+        <v>0.9992195683563457</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017014342861455</v>
+        <v>0.9574479550931844</v>
       </c>
       <c r="D18">
-        <v>1.032706642410045</v>
+        <v>1.026130532963717</v>
       </c>
       <c r="E18">
-        <v>1.027268222810066</v>
+        <v>0.973045499349899</v>
       </c>
       <c r="F18">
-        <v>1.035321562405718</v>
+        <v>0.9658733049051969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032947521476122</v>
+        <v>1.042962633521072</v>
       </c>
       <c r="J18">
-        <v>1.023245504102349</v>
+        <v>0.9862208468903562</v>
       </c>
       <c r="K18">
-        <v>1.036041942196901</v>
+        <v>1.039512964259513</v>
       </c>
       <c r="L18">
-        <v>1.030622466355763</v>
+        <v>0.9873463091883402</v>
       </c>
       <c r="M18">
-        <v>1.03864783155784</v>
+        <v>0.9803083114329323</v>
       </c>
       <c r="N18">
-        <v>1.011832627223095</v>
+        <v>0.9995551441595557</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017098794546182</v>
+        <v>0.9579568060118157</v>
       </c>
       <c r="D19">
-        <v>1.032749983178288</v>
+        <v>1.026465907127708</v>
       </c>
       <c r="E19">
-        <v>1.027348278473906</v>
+        <v>0.9735341842127664</v>
       </c>
       <c r="F19">
-        <v>1.03542132677543</v>
+        <v>0.9665529724079339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032963931910208</v>
+        <v>1.043180642847602</v>
       </c>
       <c r="J19">
-        <v>1.023301826621103</v>
+        <v>0.9865634085142319</v>
       </c>
       <c r="K19">
-        <v>1.036070775714601</v>
+        <v>1.03978074324282</v>
       </c>
       <c r="L19">
-        <v>1.030687798346809</v>
+        <v>0.9877588507226953</v>
       </c>
       <c r="M19">
-        <v>1.038732937384243</v>
+        <v>0.9809073501450157</v>
       </c>
       <c r="N19">
-        <v>1.011851258339239</v>
+        <v>0.9996686394810441</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016720917419459</v>
+        <v>0.9556665379513221</v>
       </c>
       <c r="D20">
-        <v>1.032555798556416</v>
+        <v>1.024954360657312</v>
       </c>
       <c r="E20">
-        <v>1.026989967728409</v>
+        <v>0.9713333354783518</v>
       </c>
       <c r="F20">
-        <v>1.034974521171172</v>
+        <v>0.9634881581183855</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032890093779005</v>
+        <v>1.042195242411647</v>
       </c>
       <c r="J20">
-        <v>1.023049711411041</v>
+        <v>0.9850202952104755</v>
       </c>
       <c r="K20">
-        <v>1.035941415569771</v>
+        <v>1.038572165079445</v>
       </c>
       <c r="L20">
-        <v>1.030395289180356</v>
+        <v>0.9858997052799678</v>
       </c>
       <c r="M20">
-        <v>1.038351648084304</v>
+        <v>0.9782049157964823</v>
       </c>
       <c r="N20">
-        <v>1.011767858468235</v>
+        <v>0.9991573946244205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015489053362996</v>
+        <v>0.9479478665571677</v>
       </c>
       <c r="D21">
-        <v>1.031918255936345</v>
+        <v>1.019822652841223</v>
       </c>
       <c r="E21">
-        <v>1.025820069081123</v>
+        <v>0.9638902650117129</v>
       </c>
       <c r="F21">
-        <v>1.033510700192068</v>
+        <v>0.9530504138324526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032642187825908</v>
+        <v>1.038797747825715</v>
       </c>
       <c r="J21">
-        <v>1.022226043800826</v>
+        <v>0.9797954349000968</v>
       </c>
       <c r="K21">
-        <v>1.035513651219849</v>
+        <v>1.034437965242442</v>
       </c>
       <c r="L21">
-        <v>1.029438509459661</v>
+        <v>0.9795896355947272</v>
       </c>
       <c r="M21">
-        <v>1.037100127202935</v>
+        <v>0.9689794095238494</v>
       </c>
       <c r="N21">
-        <v>1.011495356691895</v>
+        <v>0.9974265667086236</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014711933073946</v>
+        <v>0.9428624910010927</v>
       </c>
       <c r="D22">
-        <v>1.031512624571788</v>
+        <v>1.016412153974914</v>
       </c>
       <c r="E22">
-        <v>1.025080643299531</v>
+        <v>0.9589642423308518</v>
       </c>
       <c r="F22">
-        <v>1.03258168117708</v>
+        <v>0.9460811303848481</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03248029251175</v>
+        <v>1.036497756578101</v>
       </c>
       <c r="J22">
-        <v>1.021705067446951</v>
+        <v>0.9763327698957343</v>
       </c>
       <c r="K22">
-        <v>1.035239169909103</v>
+        <v>1.031665346621393</v>
       </c>
       <c r="L22">
-        <v>1.028832462648646</v>
+        <v>0.9753949430748795</v>
       </c>
       <c r="M22">
-        <v>1.036304059627949</v>
+        <v>0.9628021430032574</v>
       </c>
       <c r="N22">
-        <v>1.011322972823664</v>
+        <v>0.9962797046941547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015124147625916</v>
+        <v>0.9455820249577256</v>
       </c>
       <c r="D23">
-        <v>1.03172811137241</v>
+        <v>1.018238801058291</v>
       </c>
       <c r="E23">
-        <v>1.025472995475404</v>
+        <v>0.9616007953457548</v>
       </c>
       <c r="F23">
-        <v>1.03307499640879</v>
+        <v>0.9498173513967438</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032566688209097</v>
+        <v>1.037733652642928</v>
       </c>
       <c r="J23">
-        <v>1.021981542737744</v>
+        <v>0.9781865233974744</v>
       </c>
       <c r="K23">
-        <v>1.035385202318755</v>
+        <v>1.03315274873046</v>
       </c>
       <c r="L23">
-        <v>1.029154166479358</v>
+        <v>0.9776418623236719</v>
       </c>
       <c r="M23">
-        <v>1.036726944619314</v>
+        <v>0.9661154088284294</v>
       </c>
       <c r="N23">
-        <v>1.01141445695669</v>
+        <v>0.9968936599796709</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016741526191386</v>
+        <v>0.9557923445107415</v>
       </c>
       <c r="D24">
-        <v>1.032566406078993</v>
+        <v>1.025037528531961</v>
       </c>
       <c r="E24">
-        <v>1.02700951623605</v>
+        <v>0.9714543200846267</v>
       </c>
       <c r="F24">
-        <v>1.034998916476587</v>
+        <v>0.9636568933465481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032894147919266</v>
+        <v>1.042249648087782</v>
       </c>
       <c r="J24">
-        <v>1.023063468055032</v>
+        <v>0.9851051458517915</v>
       </c>
       <c r="K24">
-        <v>1.035948493495287</v>
+        <v>1.038638774970225</v>
       </c>
       <c r="L24">
-        <v>1.030411254222527</v>
+        <v>0.9860019867338188</v>
       </c>
       <c r="M24">
-        <v>1.038372475073713</v>
+        <v>0.9783537793153296</v>
       </c>
       <c r="N24">
-        <v>1.011772409295737</v>
+        <v>0.9991855056162661</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018607290259752</v>
+        <v>0.966770880614211</v>
       </c>
       <c r="D25">
-        <v>1.033518421075894</v>
+        <v>1.032230727429776</v>
       </c>
       <c r="E25">
-        <v>1.028775958886752</v>
+        <v>0.9819720511189574</v>
       </c>
       <c r="F25">
-        <v>1.037194218860303</v>
+        <v>0.9782103565138618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033247958362286</v>
+        <v>1.046869248375898</v>
       </c>
       <c r="J25">
-        <v>1.024305626268873</v>
+        <v>0.9924707263456878</v>
       </c>
       <c r="K25">
-        <v>1.036578138019562</v>
+        <v>1.044348489046822</v>
       </c>
       <c r="L25">
-        <v>1.031850727598841</v>
+        <v>0.9948568268077633</v>
       </c>
       <c r="M25">
-        <v>1.040242372947193</v>
+        <v>0.9911566167077958</v>
       </c>
       <c r="N25">
-        <v>1.012183267885265</v>
+        <v>1.001625971876677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749491308488926</v>
+        <v>1.016731147429317</v>
       </c>
       <c r="D2">
-        <v>1.037496400881087</v>
+        <v>1.044051727359832</v>
       </c>
       <c r="E2">
-        <v>0.9897557883784247</v>
+        <v>1.031466477159395</v>
       </c>
       <c r="F2">
-        <v>0.9888292197222125</v>
+        <v>1.043914778597518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050131970073169</v>
+        <v>1.052658699220516</v>
       </c>
       <c r="J2">
-        <v>0.9979058269522978</v>
+        <v>1.038422694591731</v>
       </c>
       <c r="K2">
-        <v>1.048456944929191</v>
+        <v>1.054929658827789</v>
       </c>
       <c r="L2">
-        <v>1.001359710682701</v>
+        <v>1.042504171951286</v>
       </c>
       <c r="M2">
-        <v>1.000446406703869</v>
+        <v>1.054794422714652</v>
       </c>
       <c r="N2">
-        <v>1.003427008348558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016290668755367</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051938411526536</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049910205737167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9805998678612784</v>
+        <v>1.020932314650205</v>
       </c>
       <c r="D3">
-        <v>1.041080545550367</v>
+        <v>1.046268481976555</v>
       </c>
       <c r="E3">
-        <v>0.995107967449738</v>
+        <v>1.034661344949194</v>
       </c>
       <c r="F3">
-        <v>0.9960518445217854</v>
+        <v>1.046706006505939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052286180409151</v>
+        <v>1.053573413402512</v>
       </c>
       <c r="J3">
-        <v>1.001633744172239</v>
+        <v>1.040868164999621</v>
       </c>
       <c r="K3">
-        <v>1.051213449664894</v>
+        <v>1.056341693485299</v>
       </c>
       <c r="L3">
-        <v>1.005803827813317</v>
+        <v>1.044869134024137</v>
       </c>
       <c r="M3">
-        <v>1.00673549324538</v>
+        <v>1.056774217225169</v>
       </c>
       <c r="N3">
-        <v>1.004662349474524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017141943790652</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05350526015368</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050905981245952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9841363466429351</v>
+        <v>1.023601010292032</v>
       </c>
       <c r="D4">
-        <v>1.043298233184784</v>
+        <v>1.047683250865764</v>
       </c>
       <c r="E4">
-        <v>0.9984464787013186</v>
+        <v>1.036697281028605</v>
       </c>
       <c r="F4">
-        <v>1.000522725824063</v>
+        <v>1.048487148992546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053588632197862</v>
+        <v>1.054147320457207</v>
       </c>
       <c r="J4">
-        <v>1.003954739403955</v>
+        <v>1.042419678476987</v>
       </c>
       <c r="K4">
-        <v>1.052900729779785</v>
+        <v>1.057238326160272</v>
       </c>
       <c r="L4">
-        <v>1.008563689589125</v>
+        <v>1.046372092477456</v>
       </c>
       <c r="M4">
-        <v>1.010614846097275</v>
+        <v>1.058033583341829</v>
       </c>
       <c r="N4">
-        <v>1.00543144919432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017681701398461</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05450194577458</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.05154083973979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9855960810817306</v>
+        <v>1.024713887567106</v>
       </c>
       <c r="D5">
-        <v>1.044207438651112</v>
+        <v>1.048278551346986</v>
       </c>
       <c r="E5">
-        <v>0.9998219380788154</v>
+        <v>1.037548503283457</v>
       </c>
       <c r="F5">
-        <v>1.002356743827497</v>
+        <v>1.049233148843778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054115304975226</v>
+        <v>1.054386767926123</v>
       </c>
       <c r="J5">
-        <v>1.004909931332631</v>
+        <v>1.043067167598298</v>
       </c>
       <c r="K5">
-        <v>1.053588086320933</v>
+        <v>1.057616339859829</v>
       </c>
       <c r="L5">
-        <v>1.009697858460759</v>
+        <v>1.047000141911414</v>
       </c>
       <c r="M5">
-        <v>1.01220291957198</v>
+        <v>1.05856094652357</v>
       </c>
       <c r="N5">
-        <v>1.005747958462711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017907312276197</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05491931035412</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051815177076266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9858396398901712</v>
+        <v>1.024903102380762</v>
       </c>
       <c r="D6">
-        <v>1.044358774971901</v>
+        <v>1.048384460405273</v>
       </c>
       <c r="E6">
-        <v>1.000051287558471</v>
+        <v>1.037694172111485</v>
       </c>
       <c r="F6">
-        <v>1.002662092963007</v>
+        <v>1.049361738457819</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054202538666405</v>
+        <v>1.054429653329595</v>
       </c>
       <c r="J6">
-        <v>1.005069141583513</v>
+        <v>1.043178420842404</v>
       </c>
       <c r="K6">
-        <v>1.053702237166322</v>
+        <v>1.057685734881439</v>
       </c>
       <c r="L6">
-        <v>1.009886805467994</v>
+        <v>1.047108357934041</v>
       </c>
       <c r="M6">
-        <v>1.012467126637869</v>
+        <v>1.05865283104341</v>
       </c>
       <c r="N6">
-        <v>1.005800713197491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017946608264688</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05499202937004</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051872851189696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9841559556565629</v>
+        <v>1.023624084962173</v>
       </c>
       <c r="D7">
-        <v>1.043310471373468</v>
+        <v>1.047707915977165</v>
       </c>
       <c r="E7">
-        <v>0.9984649656415019</v>
+        <v>1.036717222995159</v>
       </c>
       <c r="F7">
-        <v>1.000547407334186</v>
+        <v>1.048506996697973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053595750405766</v>
+        <v>1.054158407843146</v>
       </c>
       <c r="J7">
-        <v>1.003967581900004</v>
+        <v>1.042436321873527</v>
       </c>
       <c r="K7">
-        <v>1.052909999273369</v>
+        <v>1.057259906034619</v>
       </c>
       <c r="L7">
-        <v>1.008578944843358</v>
+        <v>1.046388954585889</v>
       </c>
       <c r="M7">
-        <v>1.010636230872878</v>
+        <v>1.058050400888712</v>
       </c>
       <c r="N7">
-        <v>1.005435704683299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017688961930668</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054515255483137</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051575895624557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9768847444701451</v>
+        <v>1.018171812245181</v>
       </c>
       <c r="D8">
-        <v>1.038729455492888</v>
+        <v>1.044825720626207</v>
       </c>
       <c r="E8">
-        <v>0.9915915570495346</v>
+        <v>1.032563605043371</v>
       </c>
       <c r="F8">
-        <v>0.991314002289361</v>
+        <v>1.04487563352345</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050879589494813</v>
+        <v>1.052981430397349</v>
       </c>
       <c r="J8">
-        <v>0.9991854009228111</v>
+        <v>1.039265707058427</v>
       </c>
       <c r="K8">
-        <v>1.049409173216111</v>
+        <v>1.05543089465169</v>
       </c>
       <c r="L8">
-        <v>1.002886643707094</v>
+        <v>1.043319833095771</v>
       </c>
       <c r="M8">
-        <v>1.002612930779823</v>
+        <v>1.055480201686002</v>
       </c>
       <c r="N8">
-        <v>1.003851030084214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016586104798675</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052481150969745</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.05028716705962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9630653839995297</v>
+        <v>1.008151848478739</v>
       </c>
       <c r="D9">
-        <v>1.029817704143517</v>
+        <v>1.039564593755264</v>
       </c>
       <c r="E9">
-        <v>0.9784308966484729</v>
+        <v>1.024979923325507</v>
       </c>
       <c r="F9">
-        <v>0.9733361705832747</v>
+        <v>1.03826171620615</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045339179173242</v>
+        <v>1.050753577867142</v>
       </c>
       <c r="J9">
-        <v>0.9899933769439665</v>
+        <v>1.033419991959863</v>
       </c>
       <c r="K9">
-        <v>1.042444849142979</v>
+        <v>1.052046795570746</v>
       </c>
       <c r="L9">
-        <v>0.9918838875073558</v>
+        <v>1.037680314510961</v>
       </c>
       <c r="M9">
-        <v>0.9868771894266627</v>
+        <v>1.050763092591081</v>
       </c>
       <c r="N9">
-        <v>1.00080509386067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014547888624569</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048747926819946</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047891329784875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9530306411165427</v>
+        <v>1.001248878502409</v>
       </c>
       <c r="D10">
-        <v>1.023208249886242</v>
+        <v>1.036011552860095</v>
       </c>
       <c r="E10">
-        <v>0.9687960510649334</v>
+        <v>1.019820106512948</v>
       </c>
       <c r="F10">
-        <v>0.959942594508515</v>
+        <v>1.033812817952846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041048062976983</v>
+        <v>1.049208837353543</v>
       </c>
       <c r="J10">
-        <v>0.9832402172949872</v>
+        <v>1.029413033982501</v>
       </c>
       <c r="K10">
-        <v>1.037170745147951</v>
+        <v>1.04975968672658</v>
       </c>
       <c r="L10">
-        <v>0.9837525232374056</v>
+        <v>1.03384049235139</v>
       </c>
       <c r="M10">
-        <v>0.9750748290730252</v>
+        <v>1.04759727838716</v>
       </c>
       <c r="N10">
-        <v>0.9985676740963062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013158035350863</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046293376331279</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046290814368513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9484498839934239</v>
+        <v>0.9987600344216433</v>
       </c>
       <c r="D11">
-        <v>1.020158097176591</v>
+        <v>1.034969232895079</v>
       </c>
       <c r="E11">
-        <v>0.9643755818060182</v>
+        <v>1.018173519225662</v>
       </c>
       <c r="F11">
-        <v>0.9537343993223839</v>
+        <v>1.032688548895749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039022199134334</v>
+        <v>1.048836367129884</v>
       </c>
       <c r="J11">
-        <v>0.9801363877912862</v>
+        <v>1.02818448854685</v>
       </c>
       <c r="K11">
-        <v>1.034709617208607</v>
+        <v>1.04926049668462</v>
       </c>
       <c r="L11">
-        <v>0.9800021152479316</v>
+        <v>1.032760659164897</v>
       </c>
       <c r="M11">
-        <v>0.9695849415188277</v>
+        <v>1.047019258804867</v>
       </c>
       <c r="N11">
-        <v>0.997539502558089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012802117813995</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046268264702448</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045970243840383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9467087078933425</v>
+        <v>0.9980427287846151</v>
       </c>
       <c r="D12">
-        <v>1.018993693396601</v>
+        <v>1.034766141170413</v>
       </c>
       <c r="E12">
-        <v>0.9626915893374813</v>
+        <v>1.01779204961357</v>
       </c>
       <c r="F12">
-        <v>0.9513590225200018</v>
+        <v>1.032574685371493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038241702483133</v>
+        <v>1.048813098472266</v>
       </c>
       <c r="J12">
-        <v>0.9789531690149168</v>
+        <v>1.027930155459254</v>
       </c>
       <c r="K12">
-        <v>1.033765832020658</v>
+        <v>1.049256269938177</v>
       </c>
       <c r="L12">
-        <v>0.9785702505274738</v>
+        <v>1.032586140068224</v>
       </c>
       <c r="M12">
-        <v>0.9674814562246563</v>
+        <v>1.047103329015211</v>
       </c>
       <c r="N12">
-        <v>0.9971475850803297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012770672758086</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046658506158756</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045967255475138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9470840693556435</v>
+        <v>0.9986547039707907</v>
       </c>
       <c r="D13">
-        <v>1.019244942672456</v>
+        <v>1.035217095286127</v>
       </c>
       <c r="E13">
-        <v>0.9630547993570704</v>
+        <v>1.018372330819544</v>
       </c>
       <c r="F13">
-        <v>0.9518718346550212</v>
+        <v>1.033252322810421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038410440045338</v>
+        <v>1.049071615699552</v>
       </c>
       <c r="J13">
-        <v>0.9792084061537772</v>
+        <v>1.028423278718982</v>
       </c>
       <c r="K13">
-        <v>1.033969671457375</v>
+        <v>1.049657447660539</v>
       </c>
       <c r="L13">
-        <v>0.9788792250358455</v>
+        <v>1.033112930461404</v>
       </c>
       <c r="M13">
-        <v>0.9679357044508741</v>
+        <v>1.047727042527187</v>
       </c>
       <c r="N13">
-        <v>0.9972321255605916</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012993679454701</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047426325369428</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046248437647406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9483067949513327</v>
+        <v>0.9996851040204923</v>
       </c>
       <c r="D14">
-        <v>1.020062509207506</v>
+        <v>1.035831114096782</v>
       </c>
       <c r="E14">
-        <v>0.9642372704814374</v>
+        <v>1.019213917050435</v>
       </c>
       <c r="F14">
-        <v>0.9535395172648176</v>
+        <v>1.034085664311967</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038958272494493</v>
+        <v>1.049380485875197</v>
       </c>
       <c r="J14">
-        <v>0.9800392226612404</v>
+        <v>1.029106661693697</v>
       </c>
       <c r="K14">
-        <v>1.034632227035335</v>
+        <v>1.050123655326613</v>
       </c>
       <c r="L14">
-        <v>0.9798845764334114</v>
+        <v>1.033798867218483</v>
       </c>
       <c r="M14">
-        <v>0.9694124260611309</v>
+        <v>1.048408348324102</v>
       </c>
       <c r="N14">
-        <v>0.9975073178091904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013265024265279</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048137095183354</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04657945607656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9490547568155854</v>
+        <v>1.000229459831601</v>
       </c>
       <c r="D15">
-        <v>1.020561967026418</v>
+        <v>1.036131919606687</v>
       </c>
       <c r="E15">
-        <v>0.9649601035985559</v>
+        <v>1.019635363230546</v>
       </c>
       <c r="F15">
-        <v>0.9545575717643316</v>
+        <v>1.034473271833423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039292006300282</v>
+        <v>1.049521593192789</v>
       </c>
       <c r="J15">
-        <v>0.9805469878812344</v>
+        <v>1.029441664993706</v>
       </c>
       <c r="K15">
-        <v>1.035036426481487</v>
+        <v>1.050334832470076</v>
       </c>
       <c r="L15">
-        <v>0.9804987215657082</v>
+        <v>1.034126322466502</v>
       </c>
       <c r="M15">
-        <v>0.9703135189188186</v>
+        <v>1.048704609371873</v>
       </c>
       <c r="N15">
-        <v>0.9976755102133223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01338900708426</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04840857568949</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046734543994251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953329339190821</v>
+        <v>1.003037053767638</v>
       </c>
       <c r="D16">
-        <v>1.023406457111044</v>
+        <v>1.037556896201292</v>
       </c>
       <c r="E16">
-        <v>0.9690838069336248</v>
+        <v>1.021712235336454</v>
       </c>
       <c r="F16">
-        <v>0.9603453568843662</v>
+        <v>1.036250925680711</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041178752314619</v>
+        <v>1.050141599669246</v>
       </c>
       <c r="J16">
-        <v>0.9834421536230739</v>
+        <v>1.031054289723768</v>
       </c>
       <c r="K16">
-        <v>1.037330105201197</v>
+        <v>1.051244830133172</v>
       </c>
       <c r="L16">
-        <v>0.9839962412240152</v>
+        <v>1.035664670471246</v>
       </c>
       <c r="M16">
-        <v>0.9754305919775009</v>
+        <v>1.049960267341418</v>
       </c>
       <c r="N16">
-        <v>0.9986345715571795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01393831401323</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049362573473924</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047381047126229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9559448065909696</v>
+        <v>1.004651621132689</v>
       </c>
       <c r="D17">
-        <v>1.025138296608074</v>
+        <v>1.038329357185418</v>
       </c>
       <c r="E17">
-        <v>0.9716009245091245</v>
+        <v>1.022865358337105</v>
       </c>
       <c r="F17">
-        <v>0.9638613201371947</v>
+        <v>1.037174872298722</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042315538268371</v>
+        <v>1.050453130770763</v>
       </c>
       <c r="J17">
-        <v>0.9852079610231886</v>
+        <v>1.031932210584972</v>
       </c>
       <c r="K17">
-        <v>1.038719463720468</v>
+        <v>1.051697129581395</v>
       </c>
       <c r="L17">
-        <v>0.9861259148667542</v>
+        <v>1.036484010702553</v>
       </c>
       <c r="M17">
-        <v>0.9785341188085319</v>
+        <v>1.050561043225973</v>
       </c>
       <c r="N17">
-        <v>0.9992195683563457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014217013976619</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049709270004345</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047703381489532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9574479550931844</v>
+        <v>1.005382229027136</v>
       </c>
       <c r="D18">
-        <v>1.026130532963717</v>
+        <v>1.038586907424878</v>
       </c>
       <c r="E18">
-        <v>0.973045499349899</v>
+        <v>1.02330981922229</v>
       </c>
       <c r="F18">
-        <v>0.9658733049051969</v>
+        <v>1.037412379843618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042962633521072</v>
+        <v>1.050516494268241</v>
       </c>
       <c r="J18">
-        <v>0.9862208468903562</v>
+        <v>1.032243433013338</v>
       </c>
       <c r="K18">
-        <v>1.039512964259513</v>
+        <v>1.051771239428607</v>
       </c>
       <c r="L18">
-        <v>0.9873463091883402</v>
+        <v>1.036737969823201</v>
       </c>
       <c r="M18">
-        <v>0.9803083114329323</v>
+        <v>1.050615130979998</v>
       </c>
       <c r="N18">
-        <v>0.9995551441595557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014281166866272</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049516145441428</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047744317955717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9579568060118157</v>
+        <v>1.00532638997239</v>
       </c>
       <c r="D19">
-        <v>1.026465907127708</v>
+        <v>1.038405675408918</v>
       </c>
       <c r="E19">
-        <v>0.9735341842127664</v>
+        <v>1.023124503923175</v>
       </c>
       <c r="F19">
-        <v>0.9665529724079339</v>
+        <v>1.037041158124856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043180642847602</v>
+        <v>1.050370568467724</v>
       </c>
       <c r="J19">
-        <v>0.9865634085142319</v>
+        <v>1.032056211943084</v>
       </c>
       <c r="K19">
-        <v>1.03978074324282</v>
+        <v>1.051531675115879</v>
       </c>
       <c r="L19">
-        <v>0.9877588507226953</v>
+        <v>1.036493200130314</v>
       </c>
       <c r="M19">
-        <v>0.9809073501450157</v>
+        <v>1.050188457266371</v>
       </c>
       <c r="N19">
-        <v>0.9996686394810441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014162715039109</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048856078493519</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047581242758864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9556665379513221</v>
+        <v>1.003062266500319</v>
       </c>
       <c r="D20">
-        <v>1.024954360657312</v>
+        <v>1.036973588426205</v>
       </c>
       <c r="E20">
-        <v>0.9713333354783518</v>
+        <v>1.021180088336313</v>
       </c>
       <c r="F20">
-        <v>0.9634881581183855</v>
+        <v>1.034991655776065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042195242411647</v>
+        <v>1.049633421312028</v>
       </c>
       <c r="J20">
-        <v>0.9850202952104755</v>
+        <v>1.030475651150514</v>
       </c>
       <c r="K20">
-        <v>1.038572165079445</v>
+        <v>1.050396031873674</v>
       </c>
       <c r="L20">
-        <v>0.9858997052799678</v>
+        <v>1.034860461983263</v>
       </c>
       <c r="M20">
-        <v>0.9782049157964823</v>
+        <v>1.048445912794476</v>
       </c>
       <c r="N20">
-        <v>0.9991573946244205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013531416830259</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046954524134392</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046782185961998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479478665571677</v>
+        <v>0.9977651130033661</v>
       </c>
       <c r="D21">
-        <v>1.019822652841223</v>
+        <v>1.034213895226808</v>
       </c>
       <c r="E21">
-        <v>0.9638902650117129</v>
+        <v>1.017194870458268</v>
       </c>
       <c r="F21">
-        <v>0.9530504138324526</v>
+        <v>1.031502747083159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038797747825715</v>
+        <v>1.048397919178919</v>
       </c>
       <c r="J21">
-        <v>0.9797954349000968</v>
+        <v>1.027356572014561</v>
       </c>
       <c r="K21">
-        <v>1.034437965242442</v>
+        <v>1.048574826662621</v>
       </c>
       <c r="L21">
-        <v>0.9795896355947272</v>
+        <v>1.031857642576792</v>
       </c>
       <c r="M21">
-        <v>0.9689794095238494</v>
+        <v>1.045910898183605</v>
       </c>
       <c r="N21">
-        <v>0.9974265667086236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012436131927012</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044907773592782</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045497739201617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9428624910010927</v>
+        <v>0.9943895195935296</v>
       </c>
       <c r="D22">
-        <v>1.016412153974914</v>
+        <v>1.032466646884134</v>
       </c>
       <c r="E22">
-        <v>0.9589642423308518</v>
+        <v>1.014674647594086</v>
       </c>
       <c r="F22">
-        <v>0.9460811303848481</v>
+        <v>1.029315983433157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036497756578101</v>
+        <v>1.047609292132052</v>
       </c>
       <c r="J22">
-        <v>0.9763327698957343</v>
+        <v>1.025377952728099</v>
       </c>
       <c r="K22">
-        <v>1.031665346621393</v>
+        <v>1.047421250881278</v>
       </c>
       <c r="L22">
-        <v>0.9753949430748795</v>
+        <v>1.02996089647922</v>
       </c>
       <c r="M22">
-        <v>0.9628021430032574</v>
+        <v>1.044328227986327</v>
       </c>
       <c r="N22">
-        <v>0.9962797046941547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011743219415084</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043655202772478</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044668816398588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9455820249577256</v>
+        <v>0.9961777584758933</v>
       </c>
       <c r="D23">
-        <v>1.018238801058291</v>
+        <v>1.033380395408505</v>
       </c>
       <c r="E23">
-        <v>0.9616007953457548</v>
+        <v>1.016006540978892</v>
       </c>
       <c r="F23">
-        <v>0.9498173513967438</v>
+        <v>1.030469498108118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037733652642928</v>
+        <v>1.048022214683014</v>
       </c>
       <c r="J23">
-        <v>0.9781865233974744</v>
+        <v>1.026423178329817</v>
       </c>
       <c r="K23">
-        <v>1.03315274873046</v>
+        <v>1.048020174337835</v>
       </c>
       <c r="L23">
-        <v>0.9776418623236719</v>
+        <v>1.030961809642376</v>
       </c>
       <c r="M23">
-        <v>0.9661154088284294</v>
+        <v>1.04516117216625</v>
       </c>
       <c r="N23">
-        <v>0.9968936599796709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012107632374853</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044314419076704</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.045082770236802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557923445107415</v>
+        <v>1.003082039938686</v>
       </c>
       <c r="D24">
-        <v>1.025037528531961</v>
+        <v>1.036945638691019</v>
       </c>
       <c r="E24">
-        <v>0.9714543200846267</v>
+        <v>1.021171619744263</v>
       </c>
       <c r="F24">
-        <v>0.9636568933465481</v>
+        <v>1.034952589248263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042249648087782</v>
+        <v>1.049611575719877</v>
       </c>
       <c r="J24">
-        <v>0.9851051458517915</v>
+        <v>1.030461963277051</v>
       </c>
       <c r="K24">
-        <v>1.038638774970225</v>
+        <v>1.050353591102472</v>
       </c>
       <c r="L24">
-        <v>0.9860019867338188</v>
+        <v>1.034836866460087</v>
       </c>
       <c r="M24">
-        <v>0.9783537793153296</v>
+        <v>1.048392495503214</v>
       </c>
       <c r="N24">
-        <v>0.9991855056162661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013518045004435</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046871776943671</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04672516930679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.966770880614211</v>
+        <v>1.010805649950673</v>
       </c>
       <c r="D25">
-        <v>1.032230727429776</v>
+        <v>1.040970214241228</v>
       </c>
       <c r="E25">
-        <v>0.9819720511189574</v>
+        <v>1.02698569965922</v>
       </c>
       <c r="F25">
-        <v>0.9782103565138618</v>
+        <v>1.040011988272345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046869248375898</v>
+        <v>1.051359369531099</v>
       </c>
       <c r="J25">
-        <v>0.9924707263456878</v>
+        <v>1.034974753913182</v>
       </c>
       <c r="K25">
-        <v>1.044348489046822</v>
+        <v>1.052964150622194</v>
       </c>
       <c r="L25">
-        <v>0.9948568268077633</v>
+        <v>1.039179058092875</v>
       </c>
       <c r="M25">
-        <v>0.9911566167077958</v>
+        <v>1.052019372938503</v>
       </c>
       <c r="N25">
-        <v>1.001625971876677</v>
+        <v>1.015092804762441</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049742176610809</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.048568097829524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016731147429317</v>
+        <v>1.015930655079412</v>
       </c>
       <c r="D2">
-        <v>1.044051727359832</v>
+        <v>1.041034854440496</v>
       </c>
       <c r="E2">
-        <v>1.031466477159395</v>
+        <v>1.030521616289403</v>
       </c>
       <c r="F2">
-        <v>1.043914778597518</v>
+        <v>1.042318190318421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052658699220516</v>
+        <v>1.051531077975679</v>
       </c>
       <c r="J2">
-        <v>1.038422694591731</v>
+        <v>1.037645103779249</v>
       </c>
       <c r="K2">
-        <v>1.054929658827789</v>
+        <v>1.051950644411051</v>
       </c>
       <c r="L2">
-        <v>1.042504171951286</v>
+        <v>1.04157150260172</v>
       </c>
       <c r="M2">
-        <v>1.054794422714652</v>
+        <v>1.053217842405547</v>
       </c>
       <c r="N2">
-        <v>1.016290668755367</v>
+        <v>1.016871783453372</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051938411526536</v>
+        <v>1.050690672276144</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049910205737167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047812492244556</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025743957937759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020932314650205</v>
+        <v>1.019995999380322</v>
       </c>
       <c r="D3">
-        <v>1.046268481976555</v>
+        <v>1.043061332866493</v>
       </c>
       <c r="E3">
-        <v>1.034661344949194</v>
+        <v>1.033592055651649</v>
       </c>
       <c r="F3">
-        <v>1.046706006505939</v>
+        <v>1.044979455023278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053573413402512</v>
+        <v>1.052351467815805</v>
       </c>
       <c r="J3">
-        <v>1.040868164999621</v>
+        <v>1.039956008557875</v>
       </c>
       <c r="K3">
-        <v>1.056341693485299</v>
+        <v>1.053171359416792</v>
       </c>
       <c r="L3">
-        <v>1.044869134024137</v>
+        <v>1.043812430705318</v>
       </c>
       <c r="M3">
-        <v>1.056774217225169</v>
+        <v>1.05506742981631</v>
       </c>
       <c r="N3">
-        <v>1.017141943790652</v>
+        <v>1.017510041118825</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05350526015368</v>
+        <v>1.05215447495327</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050905981245952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048672718660437</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025976441294325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023601010292032</v>
+        <v>1.022579451942009</v>
       </c>
       <c r="D4">
-        <v>1.047683250865764</v>
+        <v>1.044355590533567</v>
       </c>
       <c r="E4">
-        <v>1.036697281028605</v>
+        <v>1.035549718322381</v>
       </c>
       <c r="F4">
-        <v>1.048487148992546</v>
+        <v>1.046678527314866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054147320457207</v>
+        <v>1.052865665891284</v>
       </c>
       <c r="J4">
-        <v>1.042419678476987</v>
+        <v>1.041422692354652</v>
       </c>
       <c r="K4">
-        <v>1.057238326160272</v>
+        <v>1.053946607760303</v>
       </c>
       <c r="L4">
-        <v>1.046372092477456</v>
+        <v>1.045237217211217</v>
       </c>
       <c r="M4">
-        <v>1.058033583341829</v>
+        <v>1.05624442506431</v>
       </c>
       <c r="N4">
-        <v>1.017681701398461</v>
+        <v>1.017914957456859</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05450194577458</v>
+        <v>1.053085972453076</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05154083973979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049221836410042</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026121818542341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024713887567106</v>
+        <v>1.023656836707669</v>
       </c>
       <c r="D5">
-        <v>1.048278551346986</v>
+        <v>1.044900579304676</v>
       </c>
       <c r="E5">
-        <v>1.037548503283457</v>
+        <v>1.036368308609297</v>
       </c>
       <c r="F5">
-        <v>1.049233148843778</v>
+        <v>1.047390272995325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054386767926123</v>
+        <v>1.053080145954627</v>
       </c>
       <c r="J5">
-        <v>1.043067167598298</v>
+        <v>1.0420347821897</v>
       </c>
       <c r="K5">
-        <v>1.057616339859829</v>
+        <v>1.054273900996911</v>
       </c>
       <c r="L5">
-        <v>1.047000141911414</v>
+        <v>1.045832645945542</v>
       </c>
       <c r="M5">
-        <v>1.05856094652357</v>
+        <v>1.056737378236471</v>
       </c>
       <c r="N5">
-        <v>1.017907312276197</v>
+        <v>1.018084223928131</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05491931035412</v>
+        <v>1.053476105077379</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051815177076266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049461028802368</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026183309120962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024903102380762</v>
+        <v>1.023839810720906</v>
       </c>
       <c r="D6">
-        <v>1.048384460405273</v>
+        <v>1.044997767205149</v>
       </c>
       <c r="E6">
-        <v>1.037694172111485</v>
+        <v>1.036508234767766</v>
       </c>
       <c r="F6">
-        <v>1.049361738457819</v>
+        <v>1.047512872901578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054429653329595</v>
+        <v>1.053118646499001</v>
       </c>
       <c r="J6">
-        <v>1.043178420842404</v>
+        <v>1.042139812588387</v>
       </c>
       <c r="K6">
-        <v>1.057685734881439</v>
+        <v>1.054334506464868</v>
       </c>
       <c r="L6">
-        <v>1.047108357934041</v>
+        <v>1.045935122320216</v>
       </c>
       <c r="M6">
-        <v>1.05865283104341</v>
+        <v>1.056823247697753</v>
       </c>
       <c r="N6">
-        <v>1.017946608264688</v>
+        <v>1.018113666267083</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05499202937004</v>
+        <v>1.053544063800455</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051872851189696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049513363761317</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026195470036042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023624084962173</v>
+        <v>1.022612860755122</v>
       </c>
       <c r="D7">
-        <v>1.047707915977165</v>
+        <v>1.044383097733038</v>
       </c>
       <c r="E7">
-        <v>1.036717222995159</v>
+        <v>1.035577921934999</v>
       </c>
       <c r="F7">
-        <v>1.048506996697973</v>
+        <v>1.04670378641804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054158407843146</v>
+        <v>1.052880265852441</v>
       </c>
       <c r="J7">
-        <v>1.042436321873527</v>
+        <v>1.04144941067108</v>
       </c>
       <c r="K7">
-        <v>1.057259906034619</v>
+        <v>1.053970984906544</v>
       </c>
       <c r="L7">
-        <v>1.046388954585889</v>
+        <v>1.045262244712627</v>
       </c>
       <c r="M7">
-        <v>1.058050400888712</v>
+        <v>1.056266588310296</v>
       </c>
       <c r="N7">
-        <v>1.017688961930668</v>
+        <v>1.017949749751375</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054515255483137</v>
+        <v>1.053103512876674</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051575895624557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049260883921104</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026129180425519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018171812245181</v>
+        <v>1.01735977278938</v>
       </c>
       <c r="D8">
-        <v>1.044825720626207</v>
+        <v>1.041756555027083</v>
       </c>
       <c r="E8">
-        <v>1.032563605043371</v>
+        <v>1.031604612332017</v>
       </c>
       <c r="F8">
-        <v>1.04487563352345</v>
+        <v>1.043254274425525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052981430397349</v>
+        <v>1.051834685956345</v>
       </c>
       <c r="J8">
-        <v>1.039265707058427</v>
+        <v>1.038476115639778</v>
       </c>
       <c r="K8">
-        <v>1.05543089465169</v>
+        <v>1.052399122501277</v>
       </c>
       <c r="L8">
-        <v>1.043319833095771</v>
+        <v>1.042372842719168</v>
       </c>
       <c r="M8">
-        <v>1.055480201686002</v>
+        <v>1.053878560142906</v>
       </c>
       <c r="N8">
-        <v>1.016586104798675</v>
+        <v>1.017182952737145</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052481150969745</v>
+        <v>1.05121357862491</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.05028716705962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048154434951471</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025834418453744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008151848478739</v>
+        <v>1.007676658571818</v>
       </c>
       <c r="D9">
-        <v>1.039564593755264</v>
+        <v>1.036954482792159</v>
       </c>
       <c r="E9">
-        <v>1.024979923325507</v>
+        <v>1.02432787408384</v>
       </c>
       <c r="F9">
-        <v>1.03826171620615</v>
+        <v>1.036957437708916</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050753577867142</v>
+        <v>1.049835908122783</v>
       </c>
       <c r="J9">
-        <v>1.033419991959863</v>
+        <v>1.032961216449438</v>
       </c>
       <c r="K9">
-        <v>1.052046795570746</v>
+        <v>1.049475159380204</v>
       </c>
       <c r="L9">
-        <v>1.037680314510961</v>
+        <v>1.03703820505578</v>
       </c>
       <c r="M9">
-        <v>1.050763092591081</v>
+        <v>1.049478070600376</v>
       </c>
       <c r="N9">
-        <v>1.014547888624569</v>
+        <v>1.01566775259572</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048747926819946</v>
+        <v>1.047730928840041</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047891329784875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046083643459079</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025262731209355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001248878502409</v>
+        <v>1.001061049250496</v>
       </c>
       <c r="D10">
-        <v>1.036011552860095</v>
+        <v>1.033735480207576</v>
       </c>
       <c r="E10">
-        <v>1.019820106512948</v>
+        <v>1.019423485594359</v>
       </c>
       <c r="F10">
-        <v>1.033812817952846</v>
+        <v>1.03275710995785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049208837353543</v>
+        <v>1.04846769680234</v>
       </c>
       <c r="J10">
-        <v>1.029413033982501</v>
+        <v>1.029232632640156</v>
       </c>
       <c r="K10">
-        <v>1.04975968672658</v>
+        <v>1.047521222005027</v>
       </c>
       <c r="L10">
-        <v>1.03384049235139</v>
+        <v>1.033450680709288</v>
       </c>
       <c r="M10">
-        <v>1.04759727838716</v>
+        <v>1.046559083127635</v>
       </c>
       <c r="N10">
-        <v>1.013158035350863</v>
+        <v>1.014762471021342</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046293376331279</v>
+        <v>1.045471770782377</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046290814368513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044720376517677</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024879062871175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9987600344216433</v>
+        <v>0.9987260089176558</v>
       </c>
       <c r="D11">
-        <v>1.034969232895079</v>
+        <v>1.032804318572111</v>
       </c>
       <c r="E11">
-        <v>1.018173519225662</v>
+        <v>1.017903920115744</v>
       </c>
       <c r="F11">
-        <v>1.032688548895749</v>
+        <v>1.031741693148444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048836367129884</v>
+        <v>1.048165582264486</v>
       </c>
       <c r="J11">
-        <v>1.02818448854685</v>
+        <v>1.028151883618348</v>
       </c>
       <c r="K11">
-        <v>1.04926049668462</v>
+        <v>1.047133020727524</v>
       </c>
       <c r="L11">
-        <v>1.032760659164897</v>
+        <v>1.032495912842193</v>
       </c>
       <c r="M11">
-        <v>1.047019258804867</v>
+        <v>1.04608884594382</v>
       </c>
       <c r="N11">
-        <v>1.012802117813995</v>
+        <v>1.014749680543512</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046268264702448</v>
+        <v>1.045532319701568</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045970243840383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044481507291716</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024859214556702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9980427287846151</v>
+        <v>0.9980511842521362</v>
       </c>
       <c r="D12">
-        <v>1.034766141170413</v>
+        <v>1.032618022487571</v>
       </c>
       <c r="E12">
-        <v>1.01779204961357</v>
+        <v>1.017554283751998</v>
       </c>
       <c r="F12">
-        <v>1.032574685371493</v>
+        <v>1.031653342928757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048813098472266</v>
+        <v>1.048155352312367</v>
       </c>
       <c r="J12">
-        <v>1.027930155459254</v>
+        <v>1.027938251076678</v>
       </c>
       <c r="K12">
-        <v>1.049256269938177</v>
+        <v>1.047145902426535</v>
       </c>
       <c r="L12">
-        <v>1.032586140068224</v>
+        <v>1.03235272575413</v>
       </c>
       <c r="M12">
-        <v>1.047103329015211</v>
+        <v>1.046198242542216</v>
       </c>
       <c r="N12">
-        <v>1.012770672758086</v>
+        <v>1.014834988160108</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046658506158756</v>
+        <v>1.045942832572296</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045967255475138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044490614669107</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024901831774549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9986547039707907</v>
+        <v>0.9986034012200037</v>
       </c>
       <c r="D13">
-        <v>1.035217095286127</v>
+        <v>1.03300605943208</v>
       </c>
       <c r="E13">
-        <v>1.018372330819544</v>
+        <v>1.018079377656976</v>
       </c>
       <c r="F13">
-        <v>1.033252322810421</v>
+        <v>1.032282482931248</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049071615699552</v>
+        <v>1.048376070500445</v>
       </c>
       <c r="J13">
-        <v>1.028423278718982</v>
+        <v>1.02837414772194</v>
       </c>
       <c r="K13">
-        <v>1.049657447660539</v>
+        <v>1.047485098677721</v>
       </c>
       <c r="L13">
-        <v>1.033112930461404</v>
+        <v>1.032825313400167</v>
       </c>
       <c r="M13">
-        <v>1.047727042527187</v>
+        <v>1.046774229366581</v>
       </c>
       <c r="N13">
-        <v>1.012993679454701</v>
+        <v>1.01496730171076</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047426325369428</v>
+        <v>1.046673099943583</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046248437647406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044727727298247</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025001950981705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9996851040204923</v>
+        <v>0.999546448603379</v>
       </c>
       <c r="D14">
-        <v>1.035831114096782</v>
+        <v>1.033540777011427</v>
       </c>
       <c r="E14">
-        <v>1.019213917050435</v>
+        <v>1.018843843271823</v>
       </c>
       <c r="F14">
-        <v>1.034085664311967</v>
+        <v>1.033049136194046</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049380485875197</v>
+        <v>1.048636164987223</v>
       </c>
       <c r="J14">
-        <v>1.029106661693697</v>
+        <v>1.028973789068141</v>
       </c>
       <c r="K14">
-        <v>1.050123655326613</v>
+        <v>1.047872897855143</v>
       </c>
       <c r="L14">
-        <v>1.033798867218483</v>
+        <v>1.033435446638116</v>
       </c>
       <c r="M14">
-        <v>1.048408348324102</v>
+        <v>1.047389782756937</v>
       </c>
       <c r="N14">
-        <v>1.013265024265279</v>
+        <v>1.015082789769646</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048137095183354</v>
+        <v>1.04733199817337</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04657945607656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045003444718555</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025098925671651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000229459831601</v>
+        <v>1.000048045490936</v>
       </c>
       <c r="D15">
-        <v>1.036131919606687</v>
+        <v>1.033804962867944</v>
       </c>
       <c r="E15">
-        <v>1.019635363230546</v>
+        <v>1.019228236920239</v>
       </c>
       <c r="F15">
-        <v>1.034473271833423</v>
+        <v>1.03340478421872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049521593192789</v>
+        <v>1.048754613869856</v>
       </c>
       <c r="J15">
-        <v>1.029441664993706</v>
+        <v>1.029267749060907</v>
       </c>
       <c r="K15">
-        <v>1.050334832470076</v>
+        <v>1.048047786718723</v>
       </c>
       <c r="L15">
-        <v>1.034126322466502</v>
+        <v>1.033726458060256</v>
       </c>
       <c r="M15">
-        <v>1.048704609371873</v>
+        <v>1.04765449518645</v>
       </c>
       <c r="N15">
-        <v>1.01338900708426</v>
+        <v>1.015126266165343</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04840857568949</v>
+        <v>1.047578563593947</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046734543994251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045133448813763</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025138124370309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003037053767638</v>
+        <v>1.002664571858067</v>
       </c>
       <c r="D16">
-        <v>1.037556896201292</v>
+        <v>1.035069690346409</v>
       </c>
       <c r="E16">
-        <v>1.021712235336454</v>
+        <v>1.021141990843461</v>
       </c>
       <c r="F16">
-        <v>1.036250925680711</v>
+        <v>1.035040252082776</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050141599669246</v>
+        <v>1.049276901589113</v>
       </c>
       <c r="J16">
-        <v>1.031054289723768</v>
+        <v>1.030696420720375</v>
       </c>
       <c r="K16">
-        <v>1.051244830133172</v>
+        <v>1.048798454905108</v>
       </c>
       <c r="L16">
-        <v>1.035664670471246</v>
+        <v>1.035104142929669</v>
       </c>
       <c r="M16">
-        <v>1.049960267341418</v>
+        <v>1.048769501419337</v>
       </c>
       <c r="N16">
-        <v>1.01393831401323</v>
+        <v>1.015300679441993</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049362573473924</v>
+        <v>1.048421363287839</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047381047126229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045667606900609</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025280433256708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004651621132689</v>
+        <v>1.004192296456753</v>
       </c>
       <c r="D17">
-        <v>1.038329357185418</v>
+        <v>1.035765692223752</v>
       </c>
       <c r="E17">
-        <v>1.022865358337105</v>
+        <v>1.022221510923562</v>
       </c>
       <c r="F17">
-        <v>1.037174872298722</v>
+        <v>1.035897820190203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050453130770763</v>
+        <v>1.049543902292952</v>
       </c>
       <c r="J17">
-        <v>1.031932210584972</v>
+        <v>1.031490318731932</v>
       </c>
       <c r="K17">
-        <v>1.051697129581395</v>
+        <v>1.049174391926082</v>
       </c>
       <c r="L17">
-        <v>1.036484010702553</v>
+        <v>1.03585082060977</v>
       </c>
       <c r="M17">
-        <v>1.050561043225973</v>
+        <v>1.049304404203666</v>
       </c>
       <c r="N17">
-        <v>1.014217013976619</v>
+        <v>1.015404658281363</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049709270004345</v>
+        <v>1.04871589417279</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047703381489532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045936202467806</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025339090747372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005382229027136</v>
+        <v>1.004901493608919</v>
       </c>
       <c r="D18">
-        <v>1.038586907424878</v>
+        <v>1.036007098189972</v>
       </c>
       <c r="E18">
-        <v>1.02330981922229</v>
+        <v>1.022649571207069</v>
       </c>
       <c r="F18">
-        <v>1.037412379843618</v>
+        <v>1.036119230666815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050516494268241</v>
+        <v>1.049598835783995</v>
       </c>
       <c r="J18">
-        <v>1.032243433013338</v>
+        <v>1.031780598785623</v>
       </c>
       <c r="K18">
-        <v>1.051771239428607</v>
+        <v>1.049231957419613</v>
       </c>
       <c r="L18">
-        <v>1.036737969823201</v>
+        <v>1.036088470184707</v>
       </c>
       <c r="M18">
-        <v>1.050615130979998</v>
+        <v>1.049342322994286</v>
       </c>
       <c r="N18">
-        <v>1.014281166866272</v>
+        <v>1.015411541932342</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049516145441428</v>
+        <v>1.048509781097985</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047744317955717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045964300740464</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02532152509961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00532638997239</v>
+        <v>1.004871832556569</v>
       </c>
       <c r="D19">
-        <v>1.038405675408918</v>
+        <v>1.035858590165279</v>
       </c>
       <c r="E19">
-        <v>1.023124503923175</v>
+        <v>1.022490018331717</v>
       </c>
       <c r="F19">
-        <v>1.037041158124856</v>
+        <v>1.035770427600441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050370568467724</v>
+        <v>1.049472250893045</v>
       </c>
       <c r="J19">
-        <v>1.032056211943084</v>
+        <v>1.031618484090564</v>
       </c>
       <c r="K19">
-        <v>1.051531675115879</v>
+        <v>1.049024406664415</v>
       </c>
       <c r="L19">
-        <v>1.036493200130314</v>
+        <v>1.035868992880035</v>
       </c>
       <c r="M19">
-        <v>1.050188457266371</v>
+        <v>1.048937626768403</v>
       </c>
       <c r="N19">
-        <v>1.014162715039109</v>
+        <v>1.015317124141665</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048856078493519</v>
+        <v>1.047866773003885</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047581242758864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045824489011267</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025243077667519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003062266500319</v>
+        <v>1.002763360770692</v>
       </c>
       <c r="D20">
-        <v>1.036973588426205</v>
+        <v>1.034594746208335</v>
       </c>
       <c r="E20">
-        <v>1.021180088336313</v>
+        <v>1.020686811779082</v>
       </c>
       <c r="F20">
-        <v>1.034991655776065</v>
+        <v>1.033849470448903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049633421312028</v>
+        <v>1.04883138577204</v>
       </c>
       <c r="J20">
-        <v>1.030475651150514</v>
+        <v>1.030188173528379</v>
       </c>
       <c r="K20">
-        <v>1.050396031873674</v>
+        <v>1.048055393133211</v>
       </c>
       <c r="L20">
-        <v>1.034860461983263</v>
+        <v>1.034375406924546</v>
       </c>
       <c r="M20">
-        <v>1.048445912794476</v>
+        <v>1.047322132691884</v>
       </c>
       <c r="N20">
-        <v>1.013531416830259</v>
+        <v>1.014927678845589</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046954524134392</v>
+        <v>1.046065178132041</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046782185961998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045143634272321</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024988694767003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9977651130033661</v>
+        <v>0.9978580493167407</v>
       </c>
       <c r="D21">
-        <v>1.034213895226808</v>
+        <v>1.032165551306673</v>
       </c>
       <c r="E21">
-        <v>1.017194870458268</v>
+        <v>1.017040336715835</v>
       </c>
       <c r="F21">
-        <v>1.031502747083159</v>
+        <v>1.030653701411398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048397919178919</v>
+        <v>1.047801341225</v>
       </c>
       <c r="J21">
-        <v>1.027356572014561</v>
+        <v>1.027445598387462</v>
       </c>
       <c r="K21">
-        <v>1.048574826662621</v>
+        <v>1.046562128777712</v>
       </c>
       <c r="L21">
-        <v>1.031857642576792</v>
+        <v>1.031705909760576</v>
       </c>
       <c r="M21">
-        <v>1.045910898183605</v>
+        <v>1.045076706391734</v>
       </c>
       <c r="N21">
-        <v>1.012436131927012</v>
+        <v>1.01459421122168</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044907773592782</v>
+        <v>1.044247570427697</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045497739201617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044091373745853</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024689387697622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9943895195935296</v>
+        <v>0.9947315088520483</v>
       </c>
       <c r="D22">
-        <v>1.032466646884134</v>
+        <v>1.030629152009709</v>
       </c>
       <c r="E22">
-        <v>1.014674647594086</v>
+        <v>1.01473600345011</v>
       </c>
       <c r="F22">
-        <v>1.029315983433157</v>
+        <v>1.028654345703128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047609292132052</v>
+        <v>1.047144005710358</v>
       </c>
       <c r="J22">
-        <v>1.025377952728099</v>
+        <v>1.025704695627811</v>
       </c>
       <c r="K22">
-        <v>1.047421250881278</v>
+        <v>1.045617316716978</v>
       </c>
       <c r="L22">
-        <v>1.02996089647922</v>
+        <v>1.030021082511304</v>
       </c>
       <c r="M22">
-        <v>1.044328227986327</v>
+        <v>1.043678753192273</v>
       </c>
       <c r="N22">
-        <v>1.011743219415084</v>
+        <v>1.014378376084996</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043655202772478</v>
+        <v>1.043141189074866</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044668816398588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04340874252398</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024499172069818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9961777584758933</v>
+        <v>0.9963687365138978</v>
       </c>
       <c r="D23">
-        <v>1.033380395408505</v>
+        <v>1.031423523109351</v>
       </c>
       <c r="E23">
-        <v>1.016006540978892</v>
+        <v>1.015937647405204</v>
       </c>
       <c r="F23">
-        <v>1.030469498108118</v>
+        <v>1.029697258598761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048022214683014</v>
+        <v>1.047479782363284</v>
       </c>
       <c r="J23">
-        <v>1.026423178329817</v>
+        <v>1.026605897895243</v>
       </c>
       <c r="K23">
-        <v>1.048020174337835</v>
+        <v>1.046098147026731</v>
       </c>
       <c r="L23">
-        <v>1.030961809642376</v>
+        <v>1.030894195113485</v>
       </c>
       <c r="M23">
-        <v>1.04516117216625</v>
+        <v>1.044402764020567</v>
       </c>
       <c r="N23">
-        <v>1.012107632374853</v>
+        <v>1.014444558932616</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044314419076704</v>
+        <v>1.043714192786954</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045082770236802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043738255552669</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024593167941163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003082039938686</v>
+        <v>1.002785648406706</v>
       </c>
       <c r="D24">
-        <v>1.036945638691019</v>
+        <v>1.034570302217592</v>
       </c>
       <c r="E24">
-        <v>1.021171619744263</v>
+        <v>1.020681064953168</v>
       </c>
       <c r="F24">
-        <v>1.034952589248263</v>
+        <v>1.033812810846797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049611575719877</v>
+        <v>1.048811816042999</v>
       </c>
       <c r="J24">
-        <v>1.030461963277051</v>
+        <v>1.030176887154305</v>
       </c>
       <c r="K24">
-        <v>1.050353591102472</v>
+        <v>1.048016355596495</v>
       </c>
       <c r="L24">
-        <v>1.034836866460087</v>
+        <v>1.03435447747166</v>
       </c>
       <c r="M24">
-        <v>1.048392495503214</v>
+        <v>1.047271061817132</v>
       </c>
       <c r="N24">
-        <v>1.013518045004435</v>
+        <v>1.014914335313027</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046871776943671</v>
+        <v>1.045984244592114</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04672516930679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045086335780692</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024972956570165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010805649950673</v>
+        <v>1.010224609102667</v>
       </c>
       <c r="D25">
-        <v>1.040970214241228</v>
+        <v>1.03823168472061</v>
       </c>
       <c r="E25">
-        <v>1.02698569965922</v>
+        <v>1.026238684575035</v>
       </c>
       <c r="F25">
-        <v>1.040011988272345</v>
+        <v>1.038614018604034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051359369531099</v>
+        <v>1.05037447584938</v>
       </c>
       <c r="J25">
-        <v>1.034974753913182</v>
+        <v>1.034412706773407</v>
       </c>
       <c r="K25">
-        <v>1.052964150622194</v>
+        <v>1.050264138461289</v>
       </c>
       <c r="L25">
-        <v>1.039179058092875</v>
+        <v>1.038442889483967</v>
       </c>
       <c r="M25">
-        <v>1.052019372938503</v>
+        <v>1.05064107941094</v>
       </c>
       <c r="N25">
-        <v>1.015092804762441</v>
+        <v>1.016037438020133</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049742176610809</v>
+        <v>1.048651362650906</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048568097829524</v>
+        <v>1.046672468256914</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025421624985968</v>
       </c>
     </row>
   </sheetData>
